--- a/PropertyListings.xlsx
+++ b/PropertyListings.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\UiPath\RPA-WebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1865E43-AAC5-4429-8F2E-A53B328E5034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6190D82-796F-4F09-8737-845DDBE5B61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{FA581EF4-2328-4087-96E0-2C5E239CD657}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{FA581EF4-2328-4087-96E0-2C5E239CD657}"/>
   </bookViews>
   <sheets>
-    <sheet name="TEXAS" sheetId="5" r:id="rId1"/>
-    <sheet name="MIAMI" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="CA" sheetId="14" r:id="rId1"/>
+    <sheet name="NEW YORK" sheetId="15" r:id="rId2"/>
+    <sheet name="TEXAS" sheetId="20" r:id="rId3"/>
+    <sheet name="MIAMI" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1003">
   <si>
     <t>Price</t>
   </si>
@@ -1414,445 +1416,1639 @@
     <t>https://www.zillow.com/homedetails/7945-SW-9th-Ter-Miami-FL-33144/44182927_zpid/</t>
   </si>
   <si>
-    <t>605 E Liberty Ave, Round Rock, TX 78664</t>
-  </si>
-  <si>
-    <t>INDEPENDENT REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/605-E-Liberty-Ave-Round-Rock-TX-78664/29562614_zpid/</t>
-  </si>
-  <si>
-    <t>502 ARTEMIS DR, San Antonio, TX 78218</t>
-  </si>
-  <si>
-    <t>RUDDER REALTY, INC., Victor Madrigal TREC #603110</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/502-Artemis-Dr-San-Antonio-TX-78218/26299230_zpid/</t>
-  </si>
-  <si>
-    <t>701 Opal Ln, Kyle, TX 78640</t>
-  </si>
-  <si>
     <t>COMPASS RE TEXAS, LLC</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/701-Opal-Ln-Kyle-TX-78640/28585558_zpid/</t>
   </si>
   <si>
-    <t>309 Nolan Ridge Dr, Nolanville, TX 76559</t>
-  </si>
-  <si>
-    <t>HUSTLE HOUSE REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/309-Nolan-Ridge-Dr-Nolanville-TX-76559/69627039_zpid/</t>
-  </si>
-  <si>
-    <t>3520 5th St, Port Arthur, TX 77642</t>
-  </si>
-  <si>
-    <t>JLA REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/3520-5th-St-Port-Arthur-TX-77642/50377520_zpid/</t>
-  </si>
-  <si>
-    <t>513 WRIGHT AVE, Schertz, TX 78154</t>
-  </si>
-  <si>
-    <t>JUST FOCUS REAL ESTATE, Christopher Hylton TREC #772042</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/513-Wright-Ave-Schertz-TX-78154/49550965_zpid/</t>
-  </si>
-  <si>
-    <t>5325 La Belle Rd, Beaumont, TX 77705</t>
-  </si>
-  <si>
-    <t>REAL BROKER, LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5325-La-Belle-Rd-Beaumont-TX-77705/50343467_zpid/</t>
-  </si>
-  <si>
-    <t>226 Sylvan St, Hutto, TX 78634</t>
-  </si>
-  <si>
-    <t>CENTRAL REAL ESTATE GROUP</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/226-Sylvan-St-Hutto-TX-78634/67009991_zpid/</t>
-  </si>
-  <si>
-    <t>903 Front St., Comfort, TX 78013</t>
-  </si>
-  <si>
-    <t>REAL, Victoria Summers TREC #693749</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/903-Front-St-Comfort-TX-78013/28652992_zpid/</t>
-  </si>
-  <si>
-    <t>5705 Shirley Dr, Marble Falls, TX 78654</t>
-  </si>
-  <si>
-    <t>DOUGLAS ELLIMAN REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5705-Shirley-Dr-Marble-Falls-TX-78654/125802819_zpid/</t>
-  </si>
-  <si>
-    <t>705 E Avenue N, Temple, TX 76504</t>
-  </si>
-  <si>
     <t>ALL CITY REAL ESTATE LTD. CO</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/705-E-Avenue-N-Temple-TX-76504/2084303072_zpid/</t>
-  </si>
-  <si>
-    <t>2712 Ashley Mdw, Schertz, TX 78154</t>
-  </si>
-  <si>
-    <t>ORCHARD BROKERAGE, Ashlee Jorgensen TREC #642245</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2712-Ashley-Mdw-Schertz-TX-78154/49550658_zpid/</t>
-  </si>
-  <si>
-    <t>1009 Williamsburg Dr, Schertz, TX 78154</t>
-  </si>
-  <si>
-    <t>TEXAS PREMIER REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1009-Williamsburg-Dr-Schertz-TX-78154/49568401_zpid/</t>
-  </si>
-  <si>
-    <t>522 CRANE AVE, San Antonio, TX 78214</t>
-  </si>
-  <si>
-    <t>KELLER WILLIAMS HERITAGE, Jaime Marin TREC #562960</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/522-Crane-Ave-San-Antonio-TX-78214/26295056_zpid/</t>
-  </si>
-  <si>
-    <t>141 Tranquility St, Canutillo, TX 79835</t>
-  </si>
-  <si>
-    <t>MISSION REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/141-Tranquility-St-Canutillo-TX-79835/447475166_zpid/</t>
-  </si>
-  <si>
-    <t>307 Delany St, Seguin, TX 78155</t>
-  </si>
-  <si>
-    <t>COLDWELL BANKER D'ANN HARPER, Cody Miller TREC #755745</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/307-Delany-St-Seguin-TX-78155/445601569_zpid/</t>
-  </si>
-  <si>
-    <t>2517 Quartz Trl, Harker Heights, TX 76548</t>
-  </si>
-  <si>
-    <t>VISTA REAL ESTATE-BELTON</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2517-Quartz-Trl-Harker-Heights-TX-76548/49526480_zpid/</t>
-  </si>
-  <si>
-    <t>805 Dove Meadow Cv, Georgetown, TX 78626</t>
-  </si>
-  <si>
     <t>EXP REALTY, LLC</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/805-Dove-Meadow-Cv-Georgetown-TX-78626/67051715_zpid/</t>
-  </si>
-  <si>
-    <t>623 Hopkins St, Gonzales, TX 78629</t>
-  </si>
-  <si>
-    <t>HERITAGE OAK REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/623-Hopkins-St-Gonzales-TX-78629/87308890_zpid/</t>
-  </si>
-  <si>
-    <t>272 Celosia Loop, Uhland, TX 78640</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/272-Celosia-Loop-Uhland-TX-78640/447257301_zpid/</t>
-  </si>
-  <si>
-    <t>10113 Quail Hutch Dr, Austin, TX 78758</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/10113-Quail-Hutch-Dr-Austin-TX-78758/29431202_zpid/</t>
-  </si>
-  <si>
-    <t>611 N Helena, Runge, TX 78151</t>
-  </si>
-  <si>
-    <t>VORTEX REALTY, Michelle Guzman TREC #700724</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/611-N-Helena-St-Runge-TX-78151/87385620_zpid/</t>
-  </si>
-  <si>
-    <t>1005 S Nebraska Ave, Weslaco, TX 78596</t>
-  </si>
-  <si>
-    <t>KELLER WILLIAMS LRGV</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1005-S-Nebraska-Ave-Weslaco-TX-78596/52737831_zpid/</t>
-  </si>
-  <si>
-    <t>129 NUECES LN, Seguin, TX 78155</t>
-  </si>
-  <si>
-    <t>CENTURY 21 THE HILLS REALTY, Randy Schriewer TREC #441793</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/129-Nueces-Ln-Seguin-TX-78155/49552556_zpid/</t>
-  </si>
-  <si>
-    <t>735 E KREZDORN ST, Seguin, TX 78155</t>
-  </si>
-  <si>
-    <t>XPERT HOME ADVISORS, Joel Cote TREC #546096</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/735-E-Krezdorn-St-Seguin-TX-78155/49551204_zpid/</t>
-  </si>
-  <si>
-    <t>1809 Old Mill Rd, Cedar Park, TX 78613</t>
-  </si>
-  <si>
-    <t>OPENDOOR BROKERAGE, LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1809-Old-Mill-Rd-Cedar-Park-TX-78613/29582038_zpid/</t>
-  </si>
-  <si>
-    <t>18 Presidio Rd, Wimberley, TX 78676</t>
-  </si>
-  <si>
-    <t>HILLS OF TEXAS SKY REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/18-Presidio-Rd-Wimberley-TX-78676/28592858_zpid/</t>
-  </si>
-  <si>
-    <t>3902 TOREY MESQUITE, San Antonio, TX 78261</t>
-  </si>
-  <si>
     <t>HOUSIFI, Christopher Marti TREC #628996</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/3902-Torey-Mesquite-San-Antonio-TX-78261/83985853_zpid/</t>
   </si>
   <si>
-    <t>205 Indian Meadow Dr, Georgetown, TX 78626</t>
-  </si>
-  <si>
     <t>PURE REALTY</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/205-Indian-Meadow-Dr-Georgetown-TX-78626/70987732_zpid/</t>
-  </si>
-  <si>
-    <t>409 BRIDGIT DR, Converse, TX 78109</t>
-  </si>
-  <si>
-    <t>PHYLLIS BROWNING COMPANY, Nathaniel Dumas TREC #633896</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/409-Bridgit-Dr-Converse-TX-78109/26183864_zpid/</t>
-  </si>
-  <si>
-    <t>306 Hickory St, Rockdale, TX 76567</t>
-  </si>
-  <si>
-    <t>RANCH HOUSE REAL ESTATE, LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/306-Hickory-St-Rockdale-TX-76567/87448614_zpid/</t>
-  </si>
-  <si>
-    <t>1133 W Bell St, Bartlett, TX 76511</t>
-  </si>
-  <si>
-    <t>CASABLANCA CENTEX REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1133-W-Bell-St-Bartlett-TX-76511/95018794_zpid/</t>
-  </si>
-  <si>
-    <t>16420 SHEPHERD RD, Atascosa, TX 78002</t>
-  </si>
-  <si>
-    <t>BASORE REAL ESTATE, Dorothy Heiligman TREC #697813</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/16420-Shepherd-Rd-Atascosa-TX-78002/26151484_zpid/</t>
-  </si>
-  <si>
-    <t>1310 Clayton Nolen, Horseshoe Bay, TX 78657</t>
-  </si>
-  <si>
-    <t>BUSSE GROUP REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1310-Clayton-Nolen-Dr-Horseshoe-Bay-TX-78657/249160165_zpid/</t>
-  </si>
-  <si>
-    <t>230 S Pecan St, Mason, TX 76856</t>
-  </si>
-  <si>
-    <t>VISTA REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/230-S-Pecan-St-Mason-TX-76856/193944258_zpid/</t>
-  </si>
-  <si>
-    <t>307 Baldwin St, Hutto, TX 78634</t>
-  </si>
-  <si>
-    <t>HIPPO REALTY, LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/307-Baldwin-St-Hutto-TX-78634/89659108_zpid/</t>
-  </si>
-  <si>
-    <t>699 Cherokee Blvd, New Braunfels, TX 78132</t>
-  </si>
-  <si>
-    <t>SOUTHERN SPACES REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/699-Cherokee-Blvd-New-Braunfels-TX-78132/61895180_zpid/</t>
-  </si>
-  <si>
-    <t>806 Barbara Dr, San Marcos, TX 78666</t>
-  </si>
-  <si>
-    <t>TWELVE RIVERS REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/806-Barbara-Dr-San-Marcos-TX-78666/28595153_zpid/</t>
-  </si>
-  <si>
-    <t>6100 E Rancier Ave LOT 253, Killeen, TX 76543</t>
-  </si>
-  <si>
-    <t>HOMESTEAD REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6100-E-Rancier-Ave-LOT-253-Killeen-TX-76543/83210070_zpid/</t>
-  </si>
-  <si>
-    <t>8409 Saltmill Hollow Dr, Temple, TX 76502</t>
-  </si>
-  <si>
-    <t>THE FOXX REAL ESTATE GROUP-ARG</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/8409-Saltmill-Hollow-Dr-Temple-TX-76502/192959240_zpid/</t>
-  </si>
-  <si>
-    <t>248 Continental Ave, Liberty Hill, TX 78642</t>
-  </si>
-  <si>
-    <t>JBGOODWIN REALTORS WC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/248-Continental-Ave-Liberty-Hill-TX-78642/250826484_zpid/</t>
-  </si>
-  <si>
-    <t>4051 TALLULAH DR, San Antonio, TX 78218</t>
-  </si>
-  <si>
-    <t>SPYGLASS REALTY, Dustin Raye TREC #613889</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/4051-Tallulah-Dr-San-Antonio-TX-78218/26303166_zpid/</t>
-  </si>
-  <si>
-    <t>122 Otteson Ln, Lufkin, TX 75901</t>
-  </si>
-  <si>
-    <t>CENTURY 21 COTA REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/122-Otteson-Ln-Lufkin-TX-75901/78797630_zpid/</t>
-  </si>
-  <si>
-    <t>313 Shalimar Rd., Poteet, TX 78065</t>
-  </si>
-  <si>
-    <t>REAL, Rita Muniz TREC #709055</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/313-Shalimar-Dr-Poteet-TX-78065/193861707_zpid/</t>
-  </si>
-  <si>
-    <t>806 San Antonio Ave., Seguin, TX 78155</t>
-  </si>
-  <si>
-    <t>LPT REALTY, LLC, Kasandra Chenault TREC #780902</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/806-San-Antonio-Ave-Seguin-TX-78155/49569462_zpid/</t>
-  </si>
-  <si>
-    <t>618 Nogal St, Mission, TX 78572</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/618-Nogal-St-Mission-TX-78572/52720967_zpid/</t>
-  </si>
-  <si>
-    <t>11903 Rennalee Loop, Austin, TX 78753</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/11903-Rennalee-Loop-Austin-TX-78753/58304607_zpid/</t>
-  </si>
-  <si>
-    <t>209 W Miller, Dilley, TX 78017</t>
-  </si>
-  <si>
-    <t>KELLER WILLIAMS HERITAGE, David Wilcox TREC #591537</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/209-W-Miller-St-Dilley-TX-78017/87298213_zpid/</t>
-  </si>
-  <si>
-    <t>4113 Longhorn Trl, Temple, TX 76502</t>
-  </si>
-  <si>
-    <t>DUKE REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/4113-Longhorn-Trl-Temple-TX-76502/49539896_zpid/</t>
-  </si>
-  <si>
-    <t>602 Walker St, Smithville, TX 78957</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/602-Walker-St-Smithville-TX-78957/84368440_zpid/</t>
-  </si>
-  <si>
-    <t>386 W Yturria Ave, Raymondville, TX 78580</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/386-W-Yturria-Ave-Raymondville-TX-78580/90600133_zpid/</t>
+    <t>LISTING BY: EXP REALTY</t>
+  </si>
+  <si>
+    <t>LISTING BY: DANIEL GALE SOTHEBYS INTL RLTY</t>
+  </si>
+  <si>
+    <t>LISTING BY: EXIT REALTY FIRST CHOICE</t>
+  </si>
+  <si>
+    <t>LISTING BY: DOUGLAS ELLIMAN REAL ESTATE</t>
+  </si>
+  <si>
+    <t>LISTING BY: COLDWELL BANKER AMERICAN HOMES</t>
+  </si>
+  <si>
+    <t>LISTING BY: SIGNATURE PREMIER PROPERTIES</t>
+  </si>
+  <si>
+    <t>LISTING BY: HOWARD HANNA COACH</t>
+  </si>
+  <si>
+    <t>LISTING BY: E REALTY INTERNATIONAL CORP</t>
+  </si>
+  <si>
+    <t>LISTING BY: HOWARD HANNA RAND REALTY</t>
+  </si>
+  <si>
+    <t>LISTING BY: COLDWELL BANKER REALTY</t>
+  </si>
+  <si>
+    <t>LISTING BY: KEYSTONE REALTY USA CORP</t>
+  </si>
+  <si>
+    <t>LISTING BY: CORCORAN</t>
+  </si>
+  <si>
+    <t>114-43 203 Street, Saint Albans, NY 11412</t>
+  </si>
+  <si>
+    <t>LISTING BY: KELLER WILLIAMS REALTY LIBERTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11443-203rd-St-Jamaica-NY-11412/32158707_zpid/</t>
+  </si>
+  <si>
+    <t>115-49 197th Street, Saint Albans, NY 11412</t>
+  </si>
+  <si>
+    <t>LISTING BY: EXIT REALTY CENTRAL</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11549-197th-St-Jamaica-NY-11412/32159382_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: BLACKSTONE REALTY</t>
+  </si>
+  <si>
+    <t>LISTING BY: KELLER WILLIAMS REALTY GROUP</t>
+  </si>
+  <si>
+    <t>LISTING BY: CENTURY 21 KAFCOS REALTY</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>County Name</t>
+  </si>
+  <si>
+    <t>State Code</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>195 Forest Road W, Mastic Beach, NY 11951</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/195-Forest-Rd-W-Mastic-Beach-NY-11951/142093518_zpid/</t>
+  </si>
+  <si>
+    <t>7 Harwood Avenue, White Plains, NY 10603</t>
+  </si>
+  <si>
+    <t>LISTING BY: COMPASS GREATER NY, LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7-Harwood-Ave-White-Plains-NY-10603/32974838_zpid/</t>
+  </si>
+  <si>
+    <t>1396 Sturl Avenue, Hewlett, NY 11557</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1396-Sturl-Ave-Hewlett-NY-11557/31251900_zpid/</t>
+  </si>
+  <si>
+    <t>22 Navara Street, Kingston, NY 12401</t>
+  </si>
+  <si>
+    <t>LISTING BY: RIVER REALTY SERVICES, INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/22-Navara-St-Kingston-NY-12401/32834643_zpid/</t>
+  </si>
+  <si>
+    <t>50 Meadow Dr, East Aurora, NY 14052</t>
+  </si>
+  <si>
+    <t>LISTING BY: KELLER WILLIAMS REALTY LANCASTER</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/50-Meadow-Dr-East-Aurora-NY-14052/63882169_zpid/</t>
+  </si>
+  <si>
+    <t>6969 E Lake Rd, Ovid, NY 14521</t>
+  </si>
+  <si>
+    <t>LISTING BY: WCI REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6969-E-Lake-Rd-Ovid-NY-14521/223375965_zpid/</t>
+  </si>
+  <si>
+    <t>8 Sharon Court, Plainview, NY 11803</t>
+  </si>
+  <si>
+    <t>LISTING BY: CENTURY 21 CATAPANO HOMES</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8-Sharon-Ct-Plainview-NY-11803/31302889_zpid/</t>
+  </si>
+  <si>
+    <t>6 McGill Road, Monroe, NY 10950</t>
+  </si>
+  <si>
+    <t>LISTING BY: IRON VALLEY RE TRI-STATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6-McGill-Rd-Monroe-NY-10950/31828589_zpid/</t>
+  </si>
+  <si>
+    <t>73 Sage Ave, Buffalo, NY 14210</t>
+  </si>
+  <si>
+    <t>LISTING BY: WNY METRO ROBERTS REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/73-Sage-Ave-Buffalo-NY-14210/30211070_zpid/</t>
+  </si>
+  <si>
+    <t>146 Terry St, Hornell, NY 14843</t>
+  </si>
+  <si>
+    <t>LISTING BY: HUNT REAL ESTATE ERA</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/146-Terry-St-Hornell-NY-14843/32568693_zpid/</t>
+  </si>
+  <si>
+    <t>5307 Washington St, Ashville, NY 14710</t>
+  </si>
+  <si>
+    <t>LISTING BY: WALROD REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5307-Washington-St-Ashville-NY-14710/29916680_zpid/</t>
+  </si>
+  <si>
+    <t>45 Oak Drive, Hopewell Junction, NY 12533</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/45-Oak-Dr-Hopewell-Junction-NY-12533/30095534_zpid/</t>
+  </si>
+  <si>
+    <t>64 Hillcrest Avenue, Rye Brook, NY 10573</t>
+  </si>
+  <si>
+    <t>LISTING BY: ALLIANCE RE CONSULTANTS, LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/64-Hillcrest-Ave-Port-Chester-NY-10573/33091303_zpid/</t>
+  </si>
+  <si>
+    <t>1 Sugarmills Cir, Fairport, NY 14450</t>
+  </si>
+  <si>
+    <t>LISTING BY: R REALTY ROCHESTER LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1-Sugarmills-Cir-Fairport-NY-14450/31019053_zpid/</t>
+  </si>
+  <si>
+    <t>278 N Syracuse Avenue, Massapequa, NY 11758</t>
+  </si>
+  <si>
+    <t>LISTING BY: CENTURY 21 AA REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/278-N-Syracuse-Ave-Massapequa-NY-11758/31347918_zpid/</t>
+  </si>
+  <si>
+    <t>53 Mc Nair Drive, Mahopac, NY 10541</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/53-McNair-Dr-Mahopac-NY-10541/31912502_zpid/</t>
+  </si>
+  <si>
+    <t>109 Barnett Dr, Buffalo, NY 14224</t>
+  </si>
+  <si>
+    <t>LISTING BY: HOWARD HANNA WNY INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/109-Barnett-Dr-Buffalo-NY-14224/30416094_zpid/</t>
+  </si>
+  <si>
+    <t>3 Soundview Street, New Rochelle, NY 10805</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3-Soundview-St-New-Rochelle-NY-10805/62878526_zpid/</t>
+  </si>
+  <si>
+    <t>43 Ski Bowl Road, Hunter, NY 12442</t>
+  </si>
+  <si>
+    <t>LISTING BY: GRIST MILL REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/43-Ski-Bowl-Rd-Hunter-NY-12442/215857624_zpid/</t>
+  </si>
+  <si>
+    <t>154-17 58 Road, Flushing, NY 11355</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15417-58th-Rd-Flushing-NY-11355/32070525_zpid/</t>
+  </si>
+  <si>
+    <t>72 Hillside Avenue, Haverstraw, NY 10927</t>
+  </si>
+  <si>
+    <t>LISTING BY: BRICK ROAD REALTY INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/72-Hillside-Ave-Haverstraw-NY-10927/32379217_zpid/</t>
+  </si>
+  <si>
+    <t>218-27 94th Drive, Queens Village, NY 11428</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/21827-94th-Dr-Jamaica-NY-11428/32151249_zpid/</t>
+  </si>
+  <si>
+    <t>39 Kindrachuk Road, Glen Spey, NY 12737</t>
+  </si>
+  <si>
+    <t>LISTING BY: KELLER WILLIAMS HUDSON VALLEY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/39-Kindrachuk-Rd-Glen-Spey-NY-12737/54275967_zpid/</t>
+  </si>
+  <si>
+    <t>19 Derfuss Lane, Blauvelt, NY 10913</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/19-Derfuss-Ln-Blauvelt-NY-10913/32391256_zpid/</t>
+  </si>
+  <si>
+    <t>52 Rodney Place, Rockville Centre, NY 11570</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/52-Rodney-Pl-Rockville-Centre-NY-11570/31247983_zpid/</t>
+  </si>
+  <si>
+    <t>2555 Carmel Avenue, Brewster, NY 10509</t>
+  </si>
+  <si>
+    <t>LISTING BY: GREENE REALTY GROUP</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2555-Carmel-Ave-Brewster-NY-10509/31932208_zpid/</t>
+  </si>
+  <si>
+    <t>17 Eastwood Road, Brewster, NY 10509</t>
+  </si>
+  <si>
+    <t>LISTING BY: HOULIHAN LAWRENCE INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/17-Eastwood-Rd-Brewster-NY-10509/31921148_zpid/</t>
+  </si>
+  <si>
+    <t>335 Boston St, Syracuse, NY 13206</t>
+  </si>
+  <si>
+    <t>LISTING BY: KIRNAN REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/335-Boston-St-Syracuse-NY-13206/31664240_zpid/</t>
+  </si>
+  <si>
+    <t>359 Hill Street, Mahopac, NY 10541</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/359-Hill-St-Mahopac-NY-10541/31906237_zpid/</t>
+  </si>
+  <si>
+    <t>327 Whipple Street, Brentwood, NY 11717</t>
+  </si>
+  <si>
+    <t>LISTING BY: THE AGENCY NORTHSHORE NY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/327-Whipple-St-Brentwood-NY-11717/59611909_zpid/</t>
+  </si>
+  <si>
+    <t>94-51 224th Street, Queens Village, NY 11428</t>
+  </si>
+  <si>
+    <t>LISTING BY: HOME X REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9451-224th-St-Jamaica-NY-11428/32153398_zpid/</t>
+  </si>
+  <si>
+    <t>19 Sherwood Drive, Wallkill, NY 12589</t>
+  </si>
+  <si>
+    <t>LISTING BY: CENTURY 21 ALLIANCE-NP</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/19-Sherwood-Dr-Shawangunk-NY-12589/32875267_zpid/</t>
+  </si>
+  <si>
+    <t>1553 Grand Avenue, Baldwin, NY 11510</t>
+  </si>
+  <si>
+    <t>LISTING BY: NEW GROUP REALTY INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1553-Grand-Ave-Baldwin-NY-11510/31226761_zpid/</t>
+  </si>
+  <si>
+    <t>4929 Fayetteville Manlius Rd, Manlius, NY 13104</t>
+  </si>
+  <si>
+    <t>LISTING BY: HOWARD HANNA REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4929-Fayetteville-Manlius-Rd-Manlius-NY-13104/31753680_zpid/</t>
+  </si>
+  <si>
+    <t>153 Durston Ave, Syracuse, NY 13203</t>
+  </si>
+  <si>
+    <t>LISTING BY: ACROPOLIS REALTY GROUP LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/153-Durston-Ave-Syracuse-NY-13203/31659278_zpid/</t>
+  </si>
+  <si>
+    <t>312 East Ave, North Tonawanda, NY 14120</t>
+  </si>
+  <si>
+    <t>LISTING BY: MJ PETERSON REAL ESTATE INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/312-East-Ave-North-Tonawanda-NY-14120/31460000_zpid/</t>
+  </si>
+  <si>
+    <t>55 S Brookside Avenue, Freeport, NY 11520</t>
+  </si>
+  <si>
+    <t>LISTING BY: REALTY EVOLUTION CORP</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/55-S-Brookside-Ave-Freeport-NY-11520/31361876_zpid/</t>
+  </si>
+  <si>
+    <t>54 Ellis Avenue, Northport, NY 11768</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/54-Ellis-Ave-Northport-NY-11768/59339935_zpid/</t>
+  </si>
+  <si>
+    <t>910 4th Street, East Northport, NY 11731</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/910-4th-St-East-Northport-NY-11731/2062652569_zpid/</t>
+  </si>
+  <si>
+    <t>101 Moyer Heights Dr, Liverpool, NY 13088</t>
+  </si>
+  <si>
+    <t>LISTING BY: TODY HOMES INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/101-Moyer-Heights-Dr-Liverpool-NY-13088/31775936_zpid/</t>
+  </si>
+  <si>
+    <t>197 1st Street, Saint James, NY 11780</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/197-1st-St-Saint-James-NY-11780/32687207_zpid/</t>
+  </si>
+  <si>
+    <t>34 Brendel Ave, Hamburg, NY 14075</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/34-Brendel-Ave-Hamburg-NY-14075/30337927_zpid/</t>
+  </si>
+  <si>
+    <t>66-68 Webster Road, Woodstock, NY 12498</t>
+  </si>
+  <si>
+    <t>LISTING BY: COLDWELL BANKER VILLAGE GREEN</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/66-68-Webster-Rd-Woodstock-NY-12498/84113140_zpid/</t>
+  </si>
+  <si>
+    <t>131 Main Street, Setauket, NY 11733</t>
+  </si>
+  <si>
+    <t>LISTING BY: REALTY CONNECT USA L I INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/131-Main-St-Setauket-NY-11733/59459078_zpid/</t>
+  </si>
+  <si>
+    <t>1163 Woodstock Ave, Tonawanda, NY 14150</t>
+  </si>
+  <si>
+    <t>LISTING BY: HUNT REAL ESTATE CORPORATION</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1163-Woodstock-Ave-Tonawanda-NY-14150/30383338_zpid/</t>
+  </si>
+  <si>
+    <t>1457 Elm Street, Peekskill, NY 10566</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1457-Elm-St-Peekskill-NY-10566/32969926_zpid/</t>
+  </si>
+  <si>
+    <t>87 Lorring Street, Patchogue, NY 11772</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/87-Lorring-St-Patchogue-NY-11772/59535581_zpid/</t>
+  </si>
+  <si>
+    <t>73 Bayard Street, Lake Grove, NY 11755</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/73-Bayard-St-Lake-Grove-NY-11755/59449193_zpid/</t>
+  </si>
+  <si>
+    <t>352 Springville Ave, Amherst, NY 14226</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/352-Springville-Ave-Amherst-NY-14226/30256521_zpid/</t>
+  </si>
+  <si>
+    <t>183 County Road 65, Windham, NY 12496</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/183-County-Road-65-Windham-NY-12496/447473089_zpid/</t>
+  </si>
+  <si>
+    <t>48-19 208th Street, Bayside, NY 11364</t>
+  </si>
+  <si>
+    <t>LISTING BY: RE/MAX 1ST CHOICE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4819-208th-St-Flushing-NY-11364/32082942_zpid/</t>
+  </si>
+  <si>
+    <t>4986 Ledge Ln, Williamsville, NY 14221</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4986-Ledge-Ln-Williamsville-NY-14221/30310593_zpid/</t>
+  </si>
+  <si>
+    <t>44 Avenue F, Ronkonkoma, NY 11779</t>
+  </si>
+  <si>
+    <t>LISTING BY: COLDWELL BANKER M&amp;D GOOD LIFE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/44-Avenue-F-Ronkonkoma-NY-11779/59332371_zpid/</t>
+  </si>
+  <si>
+    <t>116 Dunlop Ave, Buffalo, NY 14215</t>
+  </si>
+  <si>
+    <t>LISTING BY: FLIPPED REALTY LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/116-Dunlop-Ave-Buffalo-NY-14215/30163354_zpid/</t>
+  </si>
+  <si>
+    <t>914 Northern Boulevard, Baldwin, NY 11510</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/914-Northern-Blvd-Baldwin-NY-11510/31370977_zpid/</t>
+  </si>
+  <si>
+    <t>307 Old Colony Road, Hartsdale, NY 10530</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/307-Old-Colony-Rd-Hartsdale-NY-10530/33033733_zpid/</t>
+  </si>
+  <si>
+    <t>8293 Luchsinger Ln, Baldwinsville, NY 13027</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8293-Luchsinger-Ln-Baldwinsville-NY-13027/89602373_zpid/</t>
+  </si>
+  <si>
+    <t>7 High Ridge Road, Monroe, NY 10950</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7-High-Ridge-Rd-Monroe-NY-10950/31828663_zpid/</t>
+  </si>
+  <si>
+    <t>255-31 Iowa Road, Great Neck, NY 11020</t>
+  </si>
+  <si>
+    <t>LISTING BY: KELLER WILLIAMS RTY GOLD COAST</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/25531-Iowa-Rd-Great-Neck-NY-11020/167373660_zpid/</t>
+  </si>
+  <si>
+    <t>660 Clarence Avenue, Bronx, NY 10465</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/660-Clarence-Ave-Bronx-NY-10465/29846468_zpid/</t>
+  </si>
+  <si>
+    <t>135 Sisters Hill Road, Stanfordville, NY 12581</t>
+  </si>
+  <si>
+    <t>LISTING BY: GINER REAL ESTATE INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/135-Sisters-Hill-Rd-Stanfordville-NY-12581/446674675_zpid/</t>
+  </si>
+  <si>
+    <t>712 Pease Lane, West Islip, NY 11795</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/712-Pease-Ln-West-Islip-NY-11795/59661078_zpid/</t>
+  </si>
+  <si>
+    <t>205 Highland Ave, Syracuse, NY 13203</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/205-Highland-Ave-Syracuse-NY-13203/31660135_zpid/</t>
+  </si>
+  <si>
+    <t>17 Locust Street, Walden, NY 12586</t>
+  </si>
+  <si>
+    <t>LISTING BY: ATELIER PROPERTIES LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/17-Locust-St-Walden-NY-12586/31832500_zpid/</t>
+  </si>
+  <si>
+    <t>905 Ridge Rd, Lewiston, NY 14092</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/905-Ridge-Rd-Lewiston-NY-14092/60196297_zpid/</t>
+  </si>
+  <si>
+    <t>8146 Old Sunridge Dr, Manlius, NY 13104</t>
+  </si>
+  <si>
+    <t>LISTING BY: BERKSHIRE HATHAWAY HOMESERVICES HERITAGE REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8146-Old-Sunridge-Dr-Manlius-NY-13104/31746892_zpid/</t>
+  </si>
+  <si>
+    <t>26 Sunset Drive, North Salem, NY 10560</t>
+  </si>
+  <si>
+    <t>LISTING BY: KELLER WILLIAMS REALTY PARTNER</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/26-Sunset-Dr-North-Salem-NY-10560/33071993_zpid/</t>
+  </si>
+  <si>
+    <t>15 Solar Lane, Levittown, NY 11756</t>
+  </si>
+  <si>
+    <t>LISTING BY: VORO LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15-Solar-Ln-Levittown-NY-11756/31295973_zpid/</t>
+  </si>
+  <si>
+    <t>514 Pleasant Ave, Ogdensburg, NY 13669</t>
+  </si>
+  <si>
+    <t>LISTING BY: LISA WOODWARD HOMES LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/514-Pleasant-Ave-Ogdensburg-NY-13669/32530550_zpid/</t>
+  </si>
+  <si>
+    <t>103 Seminary Avenue, Yonkers, NY 10704</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/103-Seminary-Ave-Yonkers-NY-10704/33003494_zpid/</t>
+  </si>
+  <si>
+    <t>33 Kipp Street, Chappaqua, NY 10514</t>
+  </si>
+  <si>
+    <t>LISTING BY: CHRISTIE'S INT. REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/33-Kipp-St-Chappaqua-NY-10514/33066276_zpid/</t>
+  </si>
+  <si>
+    <t>388 Puritan Drive, Shirley, NY 11967</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/388-Puritan-Dr-Shirley-NY-11967/59513133_zpid/</t>
+  </si>
+  <si>
+    <t>32 Otterden Ln, Fairport, NY 14450</t>
+  </si>
+  <si>
+    <t>LISTING BY: COLDWELL BANKER CUSTOM REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/32-Otterden-Ln-Fairport-NY-14450/31018536_zpid/</t>
+  </si>
+  <si>
+    <t>117 Gertrude St, North Syracuse, NY 13212</t>
+  </si>
+  <si>
+    <t>LISTING BY: INTEGRATED REAL ESTATE SER LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/117-Gertrude-St-North-Syracuse-NY-13212/31694898_zpid/</t>
+  </si>
+  <si>
+    <t>157 Wilson Place, Freeport, NY 11520</t>
+  </si>
+  <si>
+    <t>LISTING BY: MODERN SPACES LOVE YOUR PLACE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/157-Wilson-Pl-Freeport-NY-11520/31369494_zpid/</t>
+  </si>
+  <si>
+    <t>818 Pulaski Street, Riverhead, NY 11901</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/818-Pulaski-St-Riverhead-NY-11901/142436597_zpid/</t>
+  </si>
+  <si>
+    <t>4671 Burleson Rd, Oneida, NY 13421</t>
+  </si>
+  <si>
+    <t>LISTING BY: CENTURY 21 ONE REALTY PARTNERS</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4671-Burleson-Rd-Oneida-NY-13421/30837087_zpid/</t>
+  </si>
+  <si>
+    <t>48 Lockwood Road, South Salem, NY 10590</t>
+  </si>
+  <si>
+    <t>LISTING BY: JULIA B FEE SOTHEBYS INT. RLTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/48-Lockwood-Rd-South-Salem-NY-10590/247834867_zpid/</t>
+  </si>
+  <si>
+    <t>42 Mcguffey Road, Kerhonkson, NY 12446</t>
+  </si>
+  <si>
+    <t>LISTING BY: CENTURY 21 ALLIANCE RLTY GROUP</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/42-McGuffey-Rd-Kerhonkson-NY-12446/32860361_zpid/</t>
+  </si>
+  <si>
+    <t>90 Ohio Avenue, Medford, NY 11763</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/90-Ohio-Ave-Medford-NY-11763/59273346_zpid/</t>
+  </si>
+  <si>
+    <t>12 Cottonwood Road, Elizaville, NY 12523</t>
+  </si>
+  <si>
+    <t>LISTING BY: HALTER ASSOCIATES REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12-Cottonwood-Rd-Elizaville-NY-12523/98691304_zpid/</t>
+  </si>
+  <si>
+    <t>134 Ivy Street, Oyster Bay, NY 11771</t>
+  </si>
+  <si>
+    <t>LISTING BY: COMPASS GREATER NY LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/134-Ivy-St-Oyster-Bay-NY-11771/31161422_zpid/</t>
+  </si>
+  <si>
+    <t>18 Schley Avenue, Lindenhurst, NY 11757</t>
+  </si>
+  <si>
+    <t>LISTING BY: ISLAND ADVANTAGE REALTY LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/18-Schley-Ave-Lindenhurst-NY-11757/32647658_zpid/</t>
+  </si>
+  <si>
+    <t>5 Johnson Place, Rye, NY 10580</t>
+  </si>
+  <si>
+    <t>LISTING BY: STETSON REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5-Johnson-Pl-Rye-NY-10580/58406961_zpid/</t>
+  </si>
+  <si>
+    <t>101 Berwyn Dr, Camillus, NY 13031</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/101-Berwyn-Dr-Camillus-NY-13031/31694137_zpid/</t>
+  </si>
+  <si>
+    <t>20 Hemlock Drive, Farmingdale, NY 11735</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/20-Hemlock-Dr-Farmingdale-NY-11735/31317046_zpid/</t>
+  </si>
+  <si>
+    <t>28 Alabama Street, Long Beach, NY 11561</t>
+  </si>
+  <si>
+    <t>LISTING BY: RE/MAX BEACH WEST</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/28-Alabama-St-Long-Beach-NY-11561/31407931_zpid/</t>
+  </si>
+  <si>
+    <t>29 Riverview Trail, Croton-On-Hudson, NY 10520</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/29-Riverview-Trl-Croton-On-Hudson-NY-10520/58408721_zpid/</t>
+  </si>
+  <si>
+    <t>1161 Lake Rd, Oneida, NY 13421</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1161-Lake-Rd-Oneida-NY-13421/30825639_zpid/</t>
+  </si>
+  <si>
+    <t>465 Plutarch Road, Highland, NY 12528</t>
+  </si>
+  <si>
+    <t>LISTING BY: Q HOME SALES</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/465-Plutarch-Rd-New-Paltz-NY-12528/32854752_zpid/</t>
+  </si>
+  <si>
+    <t>57 Cold Water St, Hillsdale, NY 12529</t>
+  </si>
+  <si>
+    <t>LISTING BY: FOUR SEASONS SOTHEBY'S INT.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/57-Cold-Water-St-Hillsdale-NY-12529/2057476042_zpid/</t>
+  </si>
+  <si>
+    <t>3143 W Lake Rd, Skaneateles, NY 13152</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3143-W-Lake-Rd-Skaneateles-NY-13152/31780074_zpid/</t>
+  </si>
+  <si>
+    <t>45 Wisconsin Street, Long Beach, NY 11561</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/45-Wisconsin-St-Long-Beach-NY-11561/31407863_zpid/</t>
+  </si>
+  <si>
+    <t>18 Carole Place, Mahopac, NY 10541</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/18-Carole-Pl-Mahopac-NY-10541/55525432_zpid/</t>
+  </si>
+  <si>
+    <t>23 Crestwood Drive, New City, NY 10956</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/23-Crestwood-Dr-New-City-NY-10956/53396327_zpid/</t>
+  </si>
+  <si>
+    <t>206 Elk St, Springville, NY 14141</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/206-Elk-St-Springville-NY-14141/30316393_zpid/</t>
+  </si>
+  <si>
+    <t>343 Brookville Avenue, Islip, NY 11751</t>
+  </si>
+  <si>
+    <t>LISTING BY: RE/MAX BEST</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/343-Brookville-Ave-Islip-NY-11751/59354394_zpid/</t>
+  </si>
+  <si>
+    <t>627 N Broadway, Nyack, NY 10960</t>
+  </si>
+  <si>
+    <t>LISTING BY: WRIGHT BROS REAL ESTATE INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/627-N-Broadway-Nyack-NY-10960/447444355_zpid/</t>
+  </si>
+  <si>
+    <t>562 New Concord Rd, East Chatham, NY 12060</t>
+  </si>
+  <si>
+    <t>LISTING BY: CENTURY 21 NEW WEST</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/562-New-Concord-Rd-East-Chatham-NY-12060/30000744_zpid/</t>
+  </si>
+  <si>
+    <t>430 Route 32c, Windham, NY 12496</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/430-Route-32c-Windham-NY-12496/2118665465_zpid/</t>
+  </si>
+  <si>
+    <t>226 Croly St, Syracuse, NY 13224</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/226-Croly-St-Syracuse-NY-13224/31666627_zpid/</t>
+  </si>
+  <si>
+    <t>251 E Argyle Street, Valley Stream, NY 11580</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/251-E-Argyle-St-Valley-Stream-NY-11580/31229006_zpid/</t>
+  </si>
+  <si>
+    <t>223 Pennsylvania St, Buffalo, NY 14201</t>
+  </si>
+  <si>
+    <t>LISTING BY: BUFFALO HOME SELLERS LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/223-Pennsylvania-St-Buffalo-NY-14201/30184237_zpid/</t>
+  </si>
+  <si>
+    <t>9446 Route 32, Freehold, NY 12431</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9446-Route-32-Freehold-NY-12431/440502796_zpid/</t>
+  </si>
+  <si>
+    <t>17 Tobins Lane, Highland Falls, NY 10928</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/17-Tobins-Ln-Highland-Falls-NY-10928/31821954_zpid/</t>
+  </si>
+  <si>
+    <t>20 Barnes St, Gouverneur, NY 13642</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/20-Barnes-St-Gouverneur-NY-13642/32540177_zpid/</t>
+  </si>
+  <si>
+    <t>107-17 157th Street, Jamaica, NY 11433</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10717-157th-St-Jamaica-NY-11433/32138039_zpid/</t>
+  </si>
+  <si>
+    <t>1316 Peapond Road, North Bellmore, NY 11710</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1316-Pea-Pond-Rd-Bellmore-NY-11710/31387165_zpid/</t>
+  </si>
+  <si>
+    <t>29 Whitfield Lane, Coram, NY 11727</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/29-Whitfield-Ln-Coram-NY-11727/59321887_zpid/</t>
+  </si>
+  <si>
+    <t>145-70 220 Street, Springfield Gardens, NY 11413</t>
+  </si>
+  <si>
+    <t>LISTING BY: MAYJAY PROPERTY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/145-70-220th-St-Springfield-Gardens-NY-11413/348544093_zpid/</t>
+  </si>
+  <si>
+    <t>26 Fairview, Quiogue, NY 11978</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/26-Fairview-Ave-Westhampton-Beach-NY-11978/32744084_zpid/</t>
+  </si>
+  <si>
+    <t>501 Barr St, Jamestown, NY 14701</t>
+  </si>
+  <si>
+    <t>LISTING BY: ERA TEAM VP REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/501-Barr-St-Jamestown-NY-14701/29890622_zpid/</t>
+  </si>
+  <si>
+    <t>13361 Irving St, Alden, NY 14004</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13361-Irving-St-Alden-NY-14004/30231262_zpid/</t>
+  </si>
+  <si>
+    <t>216 Goodfellow Rd #210, Fulton, NY 13069</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/216-Goodfellow-Rd-210-Fulton-NY-13069/446962937_zpid/</t>
+  </si>
+  <si>
+    <t>182 Hill Top Rd, Pine Plains, NY 12567</t>
+  </si>
+  <si>
+    <t>LISTING BY: PATRICIA A. HINKEIN REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/182-Hill-Top-Rd-Pine-Plains-NY-12567/70900759_zpid/</t>
+  </si>
+  <si>
+    <t>12 Dickel Road, Scarsdale, NY 10583</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12-Dickel-Rd-Scarsdale-NY-10583/33095815_zpid/</t>
+  </si>
+  <si>
+    <t>10 Berry Hill, Mountainville, NY 12518</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10-Berry-Hl-Cornwall-NY-12518/446946013_zpid/</t>
+  </si>
+  <si>
+    <t>31 Seneca Trce, Painted Post, NY 14870</t>
+  </si>
+  <si>
+    <t>LISTING BY: SIGNATURE PROPERTIES CORNING</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/31-Seneca-Trce-Painted-Post-NY-14870/59991794_zpid/</t>
+  </si>
+  <si>
+    <t>7 Kile Court, Airmont, NY 10952</t>
+  </si>
+  <si>
+    <t>LISTING BY: MARK ONE REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7-Kile-Ct-Airmont-NY-10952/53429620_zpid/</t>
+  </si>
+  <si>
+    <t>15 Bayview Street E, Massapequa, NY 11758</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15-Bayview-St-E-Massapequa-NY-11758/31428518_zpid/</t>
+  </si>
+  <si>
+    <t>37 Wilmington Drive, Melville, NY 11747</t>
+  </si>
+  <si>
+    <t>LISTING BY: SRG RESIDENTIAL LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/37-Wilmington-Dr-Melville-NY-11747/59596550_zpid/</t>
+  </si>
+  <si>
+    <t>410 Landing Avenue, Smithtown, NY 11787</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/410-Landing-Ave-Smithtown-NY-11787/32689377_zpid/</t>
+  </si>
+  <si>
+    <t>58 Goose Hill Road, Cold Spring Harbor, NY 11724</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/58-Goose-Hill-Rd-Cold-Spring-Harbor-NY-11724/444724180_zpid/</t>
+  </si>
+  <si>
+    <t>23 Lombardy St, Lancaster, NY 14086</t>
+  </si>
+  <si>
+    <t>LISTING BY: BERKSHIRE HATHAWAY HOMESERVICES ZAMBITO REALTORS</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/23-Lombardy-St-Lancaster-NY-14086/30357244_zpid/</t>
+  </si>
+  <si>
+    <t>87 W Chester Street, Kingston, NY 12401</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/87-W-Chester-St-Kingston-NY-12401/32835040_zpid/</t>
+  </si>
+  <si>
+    <t>97-23 132 Street, South Ozone Park, NY 11419</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/97-23-132nd-St-South-Richmond-Hill-NY-11419/443219433_zpid/</t>
+  </si>
+  <si>
+    <t>18 Andrews Lane, Sleepy Hollow, NY 10591</t>
+  </si>
+  <si>
+    <t>LISTING BY: BHHS HUDSON VALLEY PROPERTIES</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/18-Andrews-Ln-Sleepy-Hollow-NY-10591/33052684_zpid/</t>
+  </si>
+  <si>
+    <t>17049 Norway Hts, Kendall, NY 14476</t>
+  </si>
+  <si>
+    <t>LISTING BY: RE/MAX PLUS</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/17049-Norway-Hts-Kendall-NY-14476/53175871_zpid/</t>
+  </si>
+  <si>
+    <t>133 Herzl Street, Brooklyn, NY 11212</t>
+  </si>
+  <si>
+    <t>LISTING BY: OWNER ENTRY.COM</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/133-Herzl-St-Brooklyn-NY-11212/30631735_zpid/</t>
+  </si>
+  <si>
+    <t>1483 Plum Lane, East Meadow, NY 11554</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1483-Plum-Ln-East-Meadow-NY-11554/31330281_zpid/</t>
+  </si>
+  <si>
+    <t>459 S 1st Avenue, Mount Vernon, NY 10550</t>
+  </si>
+  <si>
+    <t>LISTING BY: KKD REAL ESTATE GROUP LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/459-S-1st-Ave-Mount-Vernon-NY-10550/32955142_zpid/</t>
+  </si>
+  <si>
+    <t>71 Derby Avenue, Greenlawn, NY 11740</t>
+  </si>
+  <si>
+    <t>LISTING BY: RE/MAX INTEGRITY LEADERS</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/71-Derby-Ave-Greenlawn-NY-11740/59344346_zpid/</t>
+  </si>
+  <si>
+    <t>10 Lenore Street, Syosset, NY 11791</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10-Lenore-St-Syosset-NY-11791/31143579_zpid/</t>
+  </si>
+  <si>
+    <t>195 Forest Road W</t>
+  </si>
+  <si>
+    <t>Mastic Beach</t>
+  </si>
+  <si>
+    <t>NY 11951</t>
+  </si>
+  <si>
+    <t>REAL, Dylan Forde TREC #759737</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/105-Whitewing-Way-Floresville-TX-78114/78922718_zpid/</t>
+  </si>
+  <si>
+    <t>LEVI RODGERS REAL ESTATE GROUP, Jacqueline Cardenas TREC #727948</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7647-Hercules-Point-San-Antonio-TX-78252/336773554_zpid/</t>
+  </si>
+  <si>
+    <t>BHHS DON JOHNSON REALTORS - SA</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/260-Sand-Hills-Ln-Austin-TX-78737/122187425_zpid/</t>
+  </si>
+  <si>
+    <t>LEVI RODGERS REAL ESTATE GROUP, Rhonda Chatham TREC #711159</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8107-Rustic-Ter-San-Antonio-TX-78249/120805669_zpid/</t>
+  </si>
+  <si>
+    <t>MAGNOLIA REALTY ROUND ROCK</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1512-Kenneys-Way-Round-Rock-TX-78665/89655712_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1012-Stoke-St-El-Paso-TX-79928/305422820_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1010-Warbler-Cv-Hutto-TX-78634/70980697_zpid/</t>
+  </si>
+  <si>
+    <t>LPT REALTY, LLC, Todd Williams TREC #495204</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/16303-Clouded-Crest-St-San-Antonio-TX-78247/26427975_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5416-English-Ave-Austin-TX-78724/63835410_zpid/</t>
+  </si>
+  <si>
+    <t>AMAZING REALTY LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3400-Buffalo-Springs-Trl-Georgetown-TX-78628/29543588_zpid/</t>
+  </si>
+  <si>
+    <t>BISON CREEK REAL ESTATE LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/507-S-Hughes-St-Belton-TX-76513/444106951_zpid/</t>
+  </si>
+  <si>
+    <t>RIVERBEND REALTY GROUP, LLC, Sterling Harlan TREC #786519</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3680-Candlehill-San-Antonio-TX-78244/58247069_zpid/</t>
+  </si>
+  <si>
+    <t>SWEETWATERS REALTY LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5402-Jim-Ave-Killeen-TX-76549/58205510_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/510-Atlas-Ave-Killeen-TX-76542/79901761_zpid/</t>
+  </si>
+  <si>
+    <t>REVOLVE REALTY, LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3805-Loma-Adriana-Dr-El-Paso-TX-79938/123222922_zpid/</t>
+  </si>
+  <si>
+    <t>UPSIDE REALTY, LLC, Robert Kenney TREC #495072</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/393-Wapiti-Rd-Buda-TX-78610/250405561_zpid/</t>
+  </si>
+  <si>
+    <t>KELLER WILLIAMS CITY-VIEW, Danny Charbel TREC #582344</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2211-Encino-Lk-San-Antonio-TX-78259/58249046_zpid/</t>
+  </si>
+  <si>
+    <t>COMPASS RE TEXAS, LLC, Zachary Sanchez TREC #616344</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6902-Elmwood-Crst-Live-Oak-TX-78233/69637816_zpid/</t>
+  </si>
+  <si>
+    <t>BHHS DON JOHNSON REALTORS, Kari Johle TREC #643317</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/967-Pumpkin-Rdg-New-Braunfels-TX-78130/252154975_zpid/</t>
+  </si>
+  <si>
+    <t>MORENO REAL ESTATE GROUP</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3912-McConnell-Ave-El-Paso-TX-79904/27373713_zpid/</t>
+  </si>
+  <si>
+    <t>BHHS DON JOHNSON, REALTORS, Lorna Gentz TREC #607533</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/511-Pecan-Frst-New-Braunfels-TX-78130/122304758_zpid/</t>
+  </si>
+  <si>
+    <t>HUGHES &amp; COMPANY REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1406-Webberville-Rd-Austin-TX-78721/29391375_zpid/</t>
+  </si>
+  <si>
+    <t>KELLER WILLIAMS HERITAGE, Rebekah Hamon TREC #717236</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/718-Karen-Ln-San-Antonio-TX-78218/26302073_zpid/</t>
+  </si>
+  <si>
+    <t>IH 10 REALTY, Sabu John TREC #701668</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4003-Grissom-Grv-San-Antonio-TX-78251/120813540_zpid/</t>
+  </si>
+  <si>
+    <t>HOME GUIDE REAL ESTATE LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12645-Arrow-Weed-Dr-El-Paso-TX-79928/244088554_zpid/</t>
+  </si>
+  <si>
+    <t>WALTER RAY OWENS, JR. - BROKER, Kyle Cracknell TREC #603760</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1810-W-Poplar-St-San-Antonio-TX-78207/26122459_zpid/</t>
+  </si>
+  <si>
+    <t>PRIME REALTY, R. Carlos Gonzalez TREC #595693</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9402-Salers-Spgs-San-Antonio-TX-78254/2055300321_zpid/</t>
+  </si>
+  <si>
+    <t>EXCEL REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9688-Montrose-Cir-Brownsville-TX-78520/436081802_zpid/</t>
+  </si>
+  <si>
+    <t>SIDE, INC., Jonathan Layton TREC #537860</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4322-Morgans-Run-San-Antonio-TX-78247/26411847_zpid/</t>
+  </si>
+  <si>
+    <t>LUXELY REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3200-Zephyr-Rd-Killeen-TX-76543/49524651_zpid/</t>
+  </si>
+  <si>
+    <t>JPAR SAN ANTONIO, Amber Vanlandingham TREC #579062</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/721-W-Kings-Hwy-San-Antonio-TX-78212/26215073_zpid/</t>
+  </si>
+  <si>
+    <t>940 REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2114-Shepherd-St-Wichita-Falls-TX-76309/78904446_zpid/</t>
+  </si>
+  <si>
+    <t>BHHS PENFED REALTY, Pamela Sanchez TREC #686439</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6530-Robin-Frst-San-Antonio-TX-78239/26178126_zpid/</t>
+  </si>
+  <si>
+    <t>ROYALTY RANCH &amp; REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7111-Glenn-Ln-Silsbee-TX-77656/28569330_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6-Hickory-Ct-Wimberley-TX-78676/250391248_zpid/</t>
+  </si>
+  <si>
+    <t>KELLER WILLIAMS CITY-VIEW, Shane Neal TREC #608871</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3514-Lakefield-St-San-Antonio-TX-78230/26330482_zpid/</t>
+  </si>
+  <si>
+    <t>EG REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5506-Holster-Dr-Killeen-TX-76549/79903127_zpid/</t>
+  </si>
+  <si>
+    <t>BLESSED PROPERTIES</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2405-Waterfall-Dr-Killeen-TX-76549/89203943_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/16113-Charlya-Dr-Temple-TX-76502/49530861_zpid/</t>
+  </si>
+  <si>
+    <t>105 WHITWING WAY</t>
+  </si>
+  <si>
+    <t>Floresville</t>
+  </si>
+  <si>
+    <t>7647 HERCULES PT</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>260 Sand Hills Ln</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>8107 Rustic Terrace</t>
+  </si>
+  <si>
+    <t>1512 Kenneys Way</t>
+  </si>
+  <si>
+    <t>Round Rock</t>
+  </si>
+  <si>
+    <t>1012 Stoke St</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>1010 Warbler Cv</t>
+  </si>
+  <si>
+    <t>Hutto</t>
+  </si>
+  <si>
+    <t>16303 Clouded Crest St</t>
+  </si>
+  <si>
+    <t>5416 English Ave</t>
+  </si>
+  <si>
+    <t>3400 Buffalo Springs Trl</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>507 S Hughes St</t>
+  </si>
+  <si>
+    <t>Belton</t>
+  </si>
+  <si>
+    <t>3680 CANDLEHILL</t>
+  </si>
+  <si>
+    <t>5402 Jim Ave</t>
+  </si>
+  <si>
+    <t>Killeen</t>
+  </si>
+  <si>
+    <t>510 Atlas Ave</t>
+  </si>
+  <si>
+    <t>3805 Loma Adriana Dr</t>
+  </si>
+  <si>
+    <t>393 Wapiti</t>
+  </si>
+  <si>
+    <t>Buda</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>2211 ENCINO LK</t>
+  </si>
+  <si>
+    <t>6902 Elmwood Crst</t>
+  </si>
+  <si>
+    <t>Live Oak</t>
+  </si>
+  <si>
+    <t>967 PUMPKIN RDG</t>
+  </si>
+  <si>
+    <t>New Braunfels</t>
+  </si>
+  <si>
+    <t>3912 McConnell Ave</t>
+  </si>
+  <si>
+    <t>511 Pecan Forest</t>
+  </si>
+  <si>
+    <t>1406 Webberville Rd</t>
+  </si>
+  <si>
+    <t>718 Karen Ln</t>
+  </si>
+  <si>
+    <t>4003 Grissom Grove</t>
+  </si>
+  <si>
+    <t>12645 Arrow Weed Dr</t>
+  </si>
+  <si>
+    <t>1810 W POPLAR ST</t>
+  </si>
+  <si>
+    <t>Spicewood</t>
+  </si>
+  <si>
+    <t>9402 SALERS SPGS</t>
+  </si>
+  <si>
+    <t>9688 Montrose Cir</t>
+  </si>
+  <si>
+    <t>Brownsville</t>
+  </si>
+  <si>
+    <t>4322 MORGANS RUN</t>
+  </si>
+  <si>
+    <t>3200 Zephyr Rd</t>
+  </si>
+  <si>
+    <t>721 W KINGS HWY</t>
+  </si>
+  <si>
+    <t>2114 Shepherd St</t>
+  </si>
+  <si>
+    <t>Wichita Falls</t>
+  </si>
+  <si>
+    <t>6530 ROBIN FRST</t>
+  </si>
+  <si>
+    <t>7111 Glenn Ln</t>
+  </si>
+  <si>
+    <t>Silsbee</t>
+  </si>
+  <si>
+    <t>6 Hickory Ct</t>
+  </si>
+  <si>
+    <t>Wimberley</t>
+  </si>
+  <si>
+    <t>3514 LAKEFIELD ST</t>
+  </si>
+  <si>
+    <t>5506 Holster Dr</t>
+  </si>
+  <si>
+    <t>701 Opal Ln</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>2405 Waterfall Dr</t>
+  </si>
+  <si>
+    <t>16113 Charlya Dr</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>COMPASS RE TEXAS, LLC - SA, Wayne Ramirez TREC #663470</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/127-View-Point-Dr-E-Boerne-TX-78006/28656320_zpid/</t>
+  </si>
+  <si>
+    <t>CENTURY21 MIDDLETON, Ian Gulick TREC #674702</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1025-Alta-Vista-Ln-Canyon-Lake-TX-78133/97570011_zpid/</t>
+  </si>
+  <si>
+    <t>3902 TOREY MESQUITE</t>
+  </si>
+  <si>
+    <t>127 View Point Dr E</t>
+  </si>
+  <si>
+    <t>Boerne</t>
+  </si>
+  <si>
+    <t>1025 Alta Vista Ln</t>
+  </si>
+  <si>
+    <t>Canyon Lake</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/809-Park-Blvd-Austin-TX-78751/29400630_zpid/</t>
+  </si>
+  <si>
+    <t>XL HIGHLANDS REALTY LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/201-Cowal-Dr-N-Spicewood-TX-78669/447356623_zpid/</t>
+  </si>
+  <si>
+    <t>KELLER WILLIAMS CITY-VIEW, Ernesto Losoya TREC #676830</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11903-Pewee-San-Antonio-TX-78221/337832182_zpid/</t>
+  </si>
+  <si>
+    <t>THE AGENCY SAN ANTONIO, Miguel Herrera TREC #585892</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2314-Encino-Holw-San-Antonio-TX-78259/26437530_zpid/</t>
+  </si>
+  <si>
+    <t>REDBIRD REALTY LLC, Lupe Molina TREC #736444</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4142-Salado-Crst-San-Antonio-TX-78222/307196949_zpid/</t>
+  </si>
+  <si>
+    <t>809 Park Blvd</t>
+  </si>
+  <si>
+    <t>201 Cowal Dr N</t>
+  </si>
+  <si>
+    <t>11903 PEWEE</t>
+  </si>
+  <si>
+    <t>2314 Encino Holw</t>
+  </si>
+  <si>
+    <t>4142 SALADO CRST</t>
+  </si>
+  <si>
+    <t>REALTY ONE GROUP MENDEZ BURK</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13889-Garforth-Ave-El-Paso-TX-79928/2070226458_zpid/</t>
+  </si>
+  <si>
+    <t>TEXAS PROPERTY BROKERS, LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/405-S-Granger-St-Granger-TX-76530/185135622_zpid/</t>
+  </si>
+  <si>
+    <t>STONEPOINT PROPERTIES INC, Courtney Amaya TREC #724736</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6515-Gulf-Strm-San-Antonio-TX-78239/26178797_zpid/</t>
+  </si>
+  <si>
+    <t>CENTURY 21 JOHNSTON COMPANY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/28284-Kansas-City-Rd-La-Feria-TX-78559/446316257_zpid/</t>
+  </si>
+  <si>
+    <t>RE/MAX NORTH-SAN ANTONIO, Tony Martinez TREC #524993</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9150-Everton-San-Antonio-TX-78245/69647112_zpid/</t>
+  </si>
+  <si>
+    <t>13889 Garforth Ave</t>
+  </si>
+  <si>
+    <t>405 S Granger St</t>
+  </si>
+  <si>
+    <t>Granger</t>
+  </si>
+  <si>
+    <t>6515 Gulf Stream</t>
+  </si>
+  <si>
+    <t>28284 Kansas City Rd</t>
+  </si>
+  <si>
+    <t>La Feria</t>
+  </si>
+  <si>
+    <t>9150 EVERTON</t>
+  </si>
+  <si>
+    <t>Cost per Sqft</t>
   </si>
 </sst>
 </file>
@@ -1888,8 +3084,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2223,25 +3422,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2405A6-BC3F-4F2E-B9C5-7CCAA7915497}">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5145B82-9DD2-48E6-9C3C-AF1FC60F0091}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.06640625" style="1"/>
+    <col min="9" max="9" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2257,1184 +3449,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>399900</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1061</v>
-      </c>
-      <c r="E2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>136000</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1421</v>
-      </c>
-      <c r="E3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F3" t="s">
-        <v>462</v>
-      </c>
-      <c r="G3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>200000</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1092</v>
-      </c>
-      <c r="E4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F4" t="s">
-        <v>465</v>
-      </c>
-      <c r="G4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>245000</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1866</v>
-      </c>
-      <c r="E5" t="s">
-        <v>467</v>
-      </c>
-      <c r="F5" t="s">
-        <v>468</v>
-      </c>
-      <c r="G5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>75000</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2382</v>
-      </c>
-      <c r="E6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F6" t="s">
-        <v>471</v>
-      </c>
-      <c r="G6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>99500</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>892</v>
-      </c>
-      <c r="E7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>115000</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1382</v>
-      </c>
-      <c r="E8" t="s">
-        <v>476</v>
-      </c>
-      <c r="F8" t="s">
-        <v>477</v>
-      </c>
-      <c r="G8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>299900</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1921</v>
-      </c>
-      <c r="E9" t="s">
-        <v>479</v>
-      </c>
-      <c r="F9" t="s">
-        <v>480</v>
-      </c>
-      <c r="G9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>375000</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>482</v>
-      </c>
-      <c r="F10" t="s">
-        <v>483</v>
-      </c>
-      <c r="G10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>289000</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>713</v>
-      </c>
-      <c r="E11" t="s">
-        <v>485</v>
-      </c>
-      <c r="F11" t="s">
-        <v>486</v>
-      </c>
-      <c r="G11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>190000</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1215</v>
-      </c>
-      <c r="E12" t="s">
-        <v>488</v>
-      </c>
-      <c r="F12" t="s">
-        <v>489</v>
-      </c>
-      <c r="G12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>265000</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1802</v>
-      </c>
-      <c r="E13" t="s">
-        <v>491</v>
-      </c>
-      <c r="F13" t="s">
-        <v>492</v>
-      </c>
-      <c r="G13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>225000</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1567</v>
-      </c>
-      <c r="E14" t="s">
-        <v>494</v>
-      </c>
-      <c r="F14" t="s">
-        <v>495</v>
-      </c>
-      <c r="G14" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>135000</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>972</v>
-      </c>
-      <c r="E15" t="s">
-        <v>497</v>
-      </c>
-      <c r="F15" t="s">
-        <v>498</v>
-      </c>
-      <c r="G15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>108950</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1494</v>
-      </c>
-      <c r="E16" t="s">
-        <v>500</v>
-      </c>
-      <c r="F16" t="s">
-        <v>501</v>
-      </c>
-      <c r="G16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>289000</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1936</v>
-      </c>
-      <c r="E17" t="s">
-        <v>503</v>
-      </c>
-      <c r="F17" t="s">
-        <v>504</v>
-      </c>
-      <c r="G17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>299000</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>2128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>506</v>
-      </c>
-      <c r="F18" t="s">
-        <v>507</v>
-      </c>
-      <c r="G18" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>325000</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>1800</v>
-      </c>
-      <c r="E19" t="s">
-        <v>509</v>
-      </c>
-      <c r="F19" t="s">
-        <v>510</v>
-      </c>
-      <c r="G19" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>119000</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>934</v>
-      </c>
-      <c r="E20" t="s">
-        <v>512</v>
-      </c>
-      <c r="F20" t="s">
-        <v>513</v>
-      </c>
-      <c r="G20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>239391</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1086</v>
-      </c>
-      <c r="E21" t="s">
-        <v>515</v>
-      </c>
-      <c r="F21" t="s">
-        <v>465</v>
-      </c>
-      <c r="G21" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>450000</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1180</v>
-      </c>
-      <c r="E22" t="s">
-        <v>517</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>47500</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1243</v>
-      </c>
-      <c r="E23" t="s">
-        <v>519</v>
-      </c>
-      <c r="F23" t="s">
-        <v>520</v>
-      </c>
-      <c r="G23" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>79999</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1118</v>
-      </c>
-      <c r="E24" t="s">
-        <v>522</v>
-      </c>
-      <c r="F24" t="s">
-        <v>523</v>
-      </c>
-      <c r="G24" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>269000</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>1592</v>
-      </c>
-      <c r="E25" t="s">
-        <v>525</v>
-      </c>
-      <c r="F25" t="s">
-        <v>526</v>
-      </c>
-      <c r="G25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>160000</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1324</v>
-      </c>
-      <c r="E26" t="s">
-        <v>528</v>
-      </c>
-      <c r="F26" t="s">
-        <v>529</v>
-      </c>
-      <c r="G26" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>385000</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>1578</v>
-      </c>
-      <c r="E27" t="s">
-        <v>531</v>
-      </c>
-      <c r="F27" t="s">
-        <v>532</v>
-      </c>
-      <c r="G27" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>409000</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1860</v>
-      </c>
-      <c r="E28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F28" t="s">
-        <v>535</v>
-      </c>
-      <c r="G28" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>299900</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>2124</v>
-      </c>
-      <c r="E29" t="s">
-        <v>537</v>
-      </c>
-      <c r="F29" t="s">
-        <v>538</v>
-      </c>
-      <c r="G29" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>365000</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>2256</v>
-      </c>
-      <c r="E30" t="s">
-        <v>540</v>
-      </c>
-      <c r="F30" t="s">
-        <v>541</v>
-      </c>
-      <c r="G30" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>249000</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>1870</v>
-      </c>
-      <c r="E31" t="s">
-        <v>543</v>
-      </c>
-      <c r="F31" t="s">
-        <v>544</v>
-      </c>
-      <c r="G31" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>197400</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>1316</v>
-      </c>
-      <c r="E32" t="s">
-        <v>546</v>
-      </c>
-      <c r="F32" t="s">
-        <v>547</v>
-      </c>
-      <c r="G32" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>290000</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>2134</v>
-      </c>
-      <c r="E33" t="s">
-        <v>549</v>
-      </c>
-      <c r="F33" t="s">
-        <v>550</v>
-      </c>
-      <c r="G33" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>55000</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>770</v>
-      </c>
-      <c r="E34" t="s">
-        <v>552</v>
-      </c>
-      <c r="F34" t="s">
-        <v>553</v>
-      </c>
-      <c r="G34" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>485000</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>2204</v>
-      </c>
-      <c r="E35" t="s">
-        <v>555</v>
-      </c>
-      <c r="F35" t="s">
-        <v>556</v>
-      </c>
-      <c r="G35" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>325000</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>1138</v>
-      </c>
-      <c r="E36" t="s">
-        <v>558</v>
-      </c>
-      <c r="F36" t="s">
-        <v>559</v>
-      </c>
-      <c r="G36" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>318000</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>1596</v>
-      </c>
-      <c r="E37" t="s">
-        <v>561</v>
-      </c>
-      <c r="F37" t="s">
-        <v>562</v>
-      </c>
-      <c r="G37" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>235999</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>1807</v>
-      </c>
-      <c r="E38" t="s">
-        <v>564</v>
-      </c>
-      <c r="F38" t="s">
-        <v>565</v>
-      </c>
-      <c r="G38" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>299000</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>1677</v>
-      </c>
-      <c r="E39" t="s">
-        <v>567</v>
-      </c>
-      <c r="F39" t="s">
-        <v>568</v>
-      </c>
-      <c r="G39" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>75000</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>795</v>
-      </c>
-      <c r="E40" t="s">
-        <v>570</v>
-      </c>
-      <c r="F40" t="s">
-        <v>571</v>
-      </c>
-      <c r="G40" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>299900</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>1716</v>
-      </c>
-      <c r="E41" t="s">
-        <v>573</v>
-      </c>
-      <c r="F41" t="s">
-        <v>574</v>
-      </c>
-      <c r="G41" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>299999</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>1414</v>
-      </c>
-      <c r="E42" t="s">
-        <v>576</v>
-      </c>
-      <c r="F42" t="s">
-        <v>577</v>
-      </c>
-      <c r="G42" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>123000</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1240</v>
-      </c>
-      <c r="E43" t="s">
-        <v>579</v>
-      </c>
-      <c r="F43" t="s">
-        <v>580</v>
-      </c>
-      <c r="G43" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>215021</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>2094</v>
-      </c>
-      <c r="E44" t="s">
-        <v>582</v>
-      </c>
-      <c r="F44" t="s">
-        <v>583</v>
-      </c>
-      <c r="G44" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>99500</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1798</v>
-      </c>
-      <c r="E45" t="s">
-        <v>585</v>
-      </c>
-      <c r="F45" t="s">
-        <v>586</v>
-      </c>
-      <c r="G45" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>160000</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>600</v>
-      </c>
-      <c r="E46" t="s">
-        <v>588</v>
-      </c>
-      <c r="F46" t="s">
-        <v>589</v>
-      </c>
-      <c r="G46" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>69000</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>732</v>
-      </c>
-      <c r="E47" t="s">
-        <v>591</v>
-      </c>
-      <c r="F47" t="s">
-        <v>523</v>
-      </c>
-      <c r="G47" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>515000</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1812</v>
-      </c>
-      <c r="E48" t="s">
-        <v>593</v>
-      </c>
-      <c r="F48" t="s">
-        <v>510</v>
-      </c>
-      <c r="G48" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>84000</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>1273</v>
-      </c>
-      <c r="E49" t="s">
-        <v>595</v>
-      </c>
-      <c r="F49" t="s">
-        <v>596</v>
-      </c>
-      <c r="G49" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>270000</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>1958</v>
-      </c>
-      <c r="E50" t="s">
-        <v>598</v>
-      </c>
-      <c r="F50" t="s">
-        <v>599</v>
-      </c>
-      <c r="G50" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>155000</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>1203</v>
-      </c>
-      <c r="E51" t="s">
-        <v>601</v>
-      </c>
-      <c r="F51" t="s">
-        <v>510</v>
-      </c>
-      <c r="G51" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>38000</v>
-      </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>1920</v>
-      </c>
-      <c r="E52" t="s">
-        <v>603</v>
-      </c>
-      <c r="F52" t="s">
-        <v>523</v>
-      </c>
-      <c r="G52" t="s">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -3443,6 +3474,5083 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C938903F-2E17-46E3-BB42-EB6B068DE0CA}">
+  <dimension ref="A1:K136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="39.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" style="1"/>
+    <col min="9" max="9" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>450000</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="J2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>689000</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1388</v>
+      </c>
+      <c r="E3" t="s">
+        <v>492</v>
+      </c>
+      <c r="J3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>779000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1681</v>
+      </c>
+      <c r="E4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J4" t="s">
+        <v>471</v>
+      </c>
+      <c r="K4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>185500</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1380</v>
+      </c>
+      <c r="E5" t="s">
+        <v>497</v>
+      </c>
+      <c r="J5" t="s">
+        <v>498</v>
+      </c>
+      <c r="K5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>299900</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1668</v>
+      </c>
+      <c r="E6" t="s">
+        <v>500</v>
+      </c>
+      <c r="J6" t="s">
+        <v>501</v>
+      </c>
+      <c r="K6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>329900</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1812</v>
+      </c>
+      <c r="E7" t="s">
+        <v>503</v>
+      </c>
+      <c r="J7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>799000</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1422</v>
+      </c>
+      <c r="E8" t="s">
+        <v>506</v>
+      </c>
+      <c r="J8" t="s">
+        <v>507</v>
+      </c>
+      <c r="K8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>280000</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>509</v>
+      </c>
+      <c r="J9" t="s">
+        <v>510</v>
+      </c>
+      <c r="K9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>164900</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1468</v>
+      </c>
+      <c r="E10" t="s">
+        <v>512</v>
+      </c>
+      <c r="J10" t="s">
+        <v>513</v>
+      </c>
+      <c r="K10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>54900</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1394</v>
+      </c>
+      <c r="E11" t="s">
+        <v>515</v>
+      </c>
+      <c r="J11" t="s">
+        <v>516</v>
+      </c>
+      <c r="K11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>49999</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1584</v>
+      </c>
+      <c r="E12" t="s">
+        <v>518</v>
+      </c>
+      <c r="J12" t="s">
+        <v>519</v>
+      </c>
+      <c r="K12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>399000</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1620</v>
+      </c>
+      <c r="E13" t="s">
+        <v>521</v>
+      </c>
+      <c r="J13" t="s">
+        <v>465</v>
+      </c>
+      <c r="K13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>460000</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>477</v>
+      </c>
+      <c r="J14" t="s">
+        <v>478</v>
+      </c>
+      <c r="K14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>550000</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1272</v>
+      </c>
+      <c r="E15" t="s">
+        <v>523</v>
+      </c>
+      <c r="J15" t="s">
+        <v>524</v>
+      </c>
+      <c r="K15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>299999</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1718</v>
+      </c>
+      <c r="E16" t="s">
+        <v>526</v>
+      </c>
+      <c r="J16" t="s">
+        <v>527</v>
+      </c>
+      <c r="K16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>699000</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1462</v>
+      </c>
+      <c r="E17" t="s">
+        <v>529</v>
+      </c>
+      <c r="J17" t="s">
+        <v>530</v>
+      </c>
+      <c r="K17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>575000</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1908</v>
+      </c>
+      <c r="E18" t="s">
+        <v>532</v>
+      </c>
+      <c r="J18" t="s">
+        <v>473</v>
+      </c>
+      <c r="K18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>210000</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1526</v>
+      </c>
+      <c r="E19" t="s">
+        <v>534</v>
+      </c>
+      <c r="J19" t="s">
+        <v>535</v>
+      </c>
+      <c r="K19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>499999</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1633</v>
+      </c>
+      <c r="E20" t="s">
+        <v>537</v>
+      </c>
+      <c r="J20" t="s">
+        <v>484</v>
+      </c>
+      <c r="K20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>269900</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1351</v>
+      </c>
+      <c r="E21" t="s">
+        <v>539</v>
+      </c>
+      <c r="J21" t="s">
+        <v>540</v>
+      </c>
+      <c r="K21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>978000</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1086</v>
+      </c>
+      <c r="E22" t="s">
+        <v>542</v>
+      </c>
+      <c r="J22" t="s">
+        <v>472</v>
+      </c>
+      <c r="K22" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>569900</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1863</v>
+      </c>
+      <c r="E23" t="s">
+        <v>544</v>
+      </c>
+      <c r="J23" t="s">
+        <v>545</v>
+      </c>
+      <c r="K23" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>750000</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1420</v>
+      </c>
+      <c r="E24" t="s">
+        <v>547</v>
+      </c>
+      <c r="J24" t="s">
+        <v>465</v>
+      </c>
+      <c r="K24" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>249000</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>900</v>
+      </c>
+      <c r="E25" t="s">
+        <v>549</v>
+      </c>
+      <c r="J25" t="s">
+        <v>550</v>
+      </c>
+      <c r="K25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>599999</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1853</v>
+      </c>
+      <c r="E26" t="s">
+        <v>552</v>
+      </c>
+      <c r="J26" t="s">
+        <v>550</v>
+      </c>
+      <c r="K26" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>829000</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1726</v>
+      </c>
+      <c r="E27" t="s">
+        <v>554</v>
+      </c>
+      <c r="J27" t="s">
+        <v>471</v>
+      </c>
+      <c r="K27" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>380000</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1264</v>
+      </c>
+      <c r="E28" t="s">
+        <v>556</v>
+      </c>
+      <c r="J28" t="s">
+        <v>557</v>
+      </c>
+      <c r="K28" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>415000</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1521</v>
+      </c>
+      <c r="E29" t="s">
+        <v>559</v>
+      </c>
+      <c r="J29" t="s">
+        <v>560</v>
+      </c>
+      <c r="K29" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>145000</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>936</v>
+      </c>
+      <c r="E30" t="s">
+        <v>562</v>
+      </c>
+      <c r="J30" t="s">
+        <v>563</v>
+      </c>
+      <c r="K30" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>425000</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1787</v>
+      </c>
+      <c r="E31" t="s">
+        <v>565</v>
+      </c>
+      <c r="J31" t="s">
+        <v>474</v>
+      </c>
+      <c r="K31" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>585000</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1352</v>
+      </c>
+      <c r="E32" t="s">
+        <v>567</v>
+      </c>
+      <c r="J32" t="s">
+        <v>568</v>
+      </c>
+      <c r="K32" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>749000</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1292</v>
+      </c>
+      <c r="E33" t="s">
+        <v>570</v>
+      </c>
+      <c r="J33" t="s">
+        <v>571</v>
+      </c>
+      <c r="K33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>460000</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1627</v>
+      </c>
+      <c r="E34" t="s">
+        <v>573</v>
+      </c>
+      <c r="J34" t="s">
+        <v>574</v>
+      </c>
+      <c r="K34" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>648000</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2423</v>
+      </c>
+      <c r="E35" t="s">
+        <v>576</v>
+      </c>
+      <c r="J35" t="s">
+        <v>577</v>
+      </c>
+      <c r="K35" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>259000</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2050</v>
+      </c>
+      <c r="E36" t="s">
+        <v>579</v>
+      </c>
+      <c r="J36" t="s">
+        <v>580</v>
+      </c>
+      <c r="K36" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>349000</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>582</v>
+      </c>
+      <c r="J37" t="s">
+        <v>583</v>
+      </c>
+      <c r="K37" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>184900</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1260</v>
+      </c>
+      <c r="E38" t="s">
+        <v>585</v>
+      </c>
+      <c r="J38" t="s">
+        <v>586</v>
+      </c>
+      <c r="K38" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>535000</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1438</v>
+      </c>
+      <c r="E39" t="s">
+        <v>588</v>
+      </c>
+      <c r="J39" t="s">
+        <v>589</v>
+      </c>
+      <c r="K39" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>979000</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>591</v>
+      </c>
+      <c r="J40" t="s">
+        <v>468</v>
+      </c>
+      <c r="K40" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>650000</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1600</v>
+      </c>
+      <c r="E41" t="s">
+        <v>593</v>
+      </c>
+      <c r="J41" t="s">
+        <v>470</v>
+      </c>
+      <c r="K41" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>259000</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1536</v>
+      </c>
+      <c r="E42" t="s">
+        <v>595</v>
+      </c>
+      <c r="J42" t="s">
+        <v>596</v>
+      </c>
+      <c r="K42" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>749000</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1959</v>
+      </c>
+      <c r="E43" t="s">
+        <v>598</v>
+      </c>
+      <c r="J43" t="s">
+        <v>466</v>
+      </c>
+      <c r="K43" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>199900</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1044</v>
+      </c>
+      <c r="E44" t="s">
+        <v>600</v>
+      </c>
+      <c r="J44" t="s">
+        <v>513</v>
+      </c>
+      <c r="K44" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>599000</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1092</v>
+      </c>
+      <c r="E45" t="s">
+        <v>602</v>
+      </c>
+      <c r="J45" t="s">
+        <v>603</v>
+      </c>
+      <c r="K45" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>848000</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>3000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>605</v>
+      </c>
+      <c r="J46" t="s">
+        <v>606</v>
+      </c>
+      <c r="K46" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>289999</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1333</v>
+      </c>
+      <c r="E47" t="s">
+        <v>608</v>
+      </c>
+      <c r="J47" t="s">
+        <v>609</v>
+      </c>
+      <c r="K47" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>725000</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>2163</v>
+      </c>
+      <c r="E48" t="s">
+        <v>611</v>
+      </c>
+      <c r="J48" t="s">
+        <v>474</v>
+      </c>
+      <c r="K48" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>499000</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1169</v>
+      </c>
+      <c r="E49" t="s">
+        <v>613</v>
+      </c>
+      <c r="J49" t="s">
+        <v>468</v>
+      </c>
+      <c r="K49" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>624000</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>615</v>
+      </c>
+      <c r="J50" t="s">
+        <v>468</v>
+      </c>
+      <c r="K50" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>240000</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1484</v>
+      </c>
+      <c r="E51" t="s">
+        <v>617</v>
+      </c>
+      <c r="J51" t="s">
+        <v>609</v>
+      </c>
+      <c r="K51" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>585000</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>2644</v>
+      </c>
+      <c r="E52" t="s">
+        <v>619</v>
+      </c>
+      <c r="J52" t="s">
+        <v>603</v>
+      </c>
+      <c r="K52" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>988888</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1300</v>
+      </c>
+      <c r="E53" t="s">
+        <v>621</v>
+      </c>
+      <c r="J53" t="s">
+        <v>622</v>
+      </c>
+      <c r="K53" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>328800</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1746</v>
+      </c>
+      <c r="E54" t="s">
+        <v>624</v>
+      </c>
+      <c r="J54" t="s">
+        <v>586</v>
+      </c>
+      <c r="K54" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>549000</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1636</v>
+      </c>
+      <c r="E55" t="s">
+        <v>626</v>
+      </c>
+      <c r="J55" t="s">
+        <v>627</v>
+      </c>
+      <c r="K55" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>169900</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>962</v>
+      </c>
+      <c r="E56" t="s">
+        <v>629</v>
+      </c>
+      <c r="J56" t="s">
+        <v>630</v>
+      </c>
+      <c r="K56" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>599999</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>1776</v>
+      </c>
+      <c r="E57" t="s">
+        <v>632</v>
+      </c>
+      <c r="J57" t="s">
+        <v>469</v>
+      </c>
+      <c r="K57" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>1250000</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2531</v>
+      </c>
+      <c r="E58" t="s">
+        <v>634</v>
+      </c>
+      <c r="J58" t="s">
+        <v>493</v>
+      </c>
+      <c r="K58" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>500000</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>2512</v>
+      </c>
+      <c r="E59" t="s">
+        <v>636</v>
+      </c>
+      <c r="J59" t="s">
+        <v>580</v>
+      </c>
+      <c r="K59" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>515000</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>1623</v>
+      </c>
+      <c r="E60" t="s">
+        <v>638</v>
+      </c>
+      <c r="J60" t="s">
+        <v>473</v>
+      </c>
+      <c r="K60" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>1188888</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1553</v>
+      </c>
+      <c r="E61" t="s">
+        <v>640</v>
+      </c>
+      <c r="J61" t="s">
+        <v>641</v>
+      </c>
+      <c r="K61" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>645000</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1380</v>
+      </c>
+      <c r="E62" t="s">
+        <v>643</v>
+      </c>
+      <c r="J62" t="s">
+        <v>485</v>
+      </c>
+      <c r="K62" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>700000</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>5880</v>
+      </c>
+      <c r="E63" t="s">
+        <v>645</v>
+      </c>
+      <c r="J63" t="s">
+        <v>646</v>
+      </c>
+      <c r="K63" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>599999</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1998</v>
+      </c>
+      <c r="E64" t="s">
+        <v>648</v>
+      </c>
+      <c r="J64" t="s">
+        <v>468</v>
+      </c>
+      <c r="K64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>299900</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>3109</v>
+      </c>
+      <c r="E65" t="s">
+        <v>650</v>
+      </c>
+      <c r="J65" t="s">
+        <v>583</v>
+      </c>
+      <c r="K65" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>349999</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1325</v>
+      </c>
+      <c r="E66" t="s">
+        <v>652</v>
+      </c>
+      <c r="J66" t="s">
+        <v>653</v>
+      </c>
+      <c r="K66" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>535000</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>3784</v>
+      </c>
+      <c r="E67" t="s">
+        <v>655</v>
+      </c>
+      <c r="J67" t="s">
+        <v>535</v>
+      </c>
+      <c r="K67" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>484900</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>3182</v>
+      </c>
+      <c r="E68" t="s">
+        <v>657</v>
+      </c>
+      <c r="J68" t="s">
+        <v>658</v>
+      </c>
+      <c r="K68" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>849000</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>3170</v>
+      </c>
+      <c r="E69" t="s">
+        <v>660</v>
+      </c>
+      <c r="J69" t="s">
+        <v>661</v>
+      </c>
+      <c r="K69" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>798888</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2200</v>
+      </c>
+      <c r="E70" t="s">
+        <v>663</v>
+      </c>
+      <c r="J70" t="s">
+        <v>664</v>
+      </c>
+      <c r="K70" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>34900</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>1460</v>
+      </c>
+      <c r="E71" t="s">
+        <v>666</v>
+      </c>
+      <c r="J71" t="s">
+        <v>667</v>
+      </c>
+      <c r="K71" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>499999</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>1909</v>
+      </c>
+      <c r="E72" t="s">
+        <v>669</v>
+      </c>
+      <c r="J72" t="s">
+        <v>474</v>
+      </c>
+      <c r="K72" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>879000</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1923</v>
+      </c>
+      <c r="E73" t="s">
+        <v>671</v>
+      </c>
+      <c r="J73" t="s">
+        <v>672</v>
+      </c>
+      <c r="K73" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>489000</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1700</v>
+      </c>
+      <c r="E74" t="s">
+        <v>674</v>
+      </c>
+      <c r="J74" t="s">
+        <v>468</v>
+      </c>
+      <c r="K74" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>325000</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>1632</v>
+      </c>
+      <c r="E75" t="s">
+        <v>676</v>
+      </c>
+      <c r="J75" t="s">
+        <v>677</v>
+      </c>
+      <c r="K75" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>179900</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>1312</v>
+      </c>
+      <c r="E76" t="s">
+        <v>679</v>
+      </c>
+      <c r="J76" t="s">
+        <v>680</v>
+      </c>
+      <c r="K76" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>925000</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>4400</v>
+      </c>
+      <c r="E77" t="s">
+        <v>682</v>
+      </c>
+      <c r="J77" t="s">
+        <v>683</v>
+      </c>
+      <c r="K77" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>380000</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1500</v>
+      </c>
+      <c r="E78" t="s">
+        <v>685</v>
+      </c>
+      <c r="J78" t="s">
+        <v>627</v>
+      </c>
+      <c r="K78" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>234000</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>2286</v>
+      </c>
+      <c r="E79" t="s">
+        <v>687</v>
+      </c>
+      <c r="J79" t="s">
+        <v>688</v>
+      </c>
+      <c r="K79" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>699000</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2112</v>
+      </c>
+      <c r="E80" t="s">
+        <v>690</v>
+      </c>
+      <c r="J80" t="s">
+        <v>691</v>
+      </c>
+      <c r="K80" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>444000</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1056</v>
+      </c>
+      <c r="E81" t="s">
+        <v>693</v>
+      </c>
+      <c r="J81" t="s">
+        <v>694</v>
+      </c>
+      <c r="K81" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>679990</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>2354</v>
+      </c>
+      <c r="E82" t="s">
+        <v>696</v>
+      </c>
+      <c r="J82" t="s">
+        <v>468</v>
+      </c>
+      <c r="K82" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>325000</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>864</v>
+      </c>
+      <c r="E83" t="s">
+        <v>698</v>
+      </c>
+      <c r="J83" t="s">
+        <v>699</v>
+      </c>
+      <c r="K83" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>1678000</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>3431</v>
+      </c>
+      <c r="E84" t="s">
+        <v>701</v>
+      </c>
+      <c r="J84" t="s">
+        <v>702</v>
+      </c>
+      <c r="K84" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>454900</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>1181</v>
+      </c>
+      <c r="E85" t="s">
+        <v>704</v>
+      </c>
+      <c r="J85" t="s">
+        <v>705</v>
+      </c>
+      <c r="K85" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>3000000</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>5892</v>
+      </c>
+      <c r="E86" t="s">
+        <v>707</v>
+      </c>
+      <c r="J86" t="s">
+        <v>708</v>
+      </c>
+      <c r="K86" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>342500</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>1764</v>
+      </c>
+      <c r="E87" t="s">
+        <v>710</v>
+      </c>
+      <c r="J87" t="s">
+        <v>580</v>
+      </c>
+      <c r="K87" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>799000</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>2600</v>
+      </c>
+      <c r="E88" t="s">
+        <v>712</v>
+      </c>
+      <c r="J88" t="s">
+        <v>557</v>
+      </c>
+      <c r="K88" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>590000</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1139</v>
+      </c>
+      <c r="E89" t="s">
+        <v>714</v>
+      </c>
+      <c r="J89" t="s">
+        <v>715</v>
+      </c>
+      <c r="K89" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>679999</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>1200</v>
+      </c>
+      <c r="E90" t="s">
+        <v>717</v>
+      </c>
+      <c r="J90" t="s">
+        <v>474</v>
+      </c>
+      <c r="K90" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>179900</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>3242</v>
+      </c>
+      <c r="E91" t="s">
+        <v>719</v>
+      </c>
+      <c r="J91" t="s">
+        <v>516</v>
+      </c>
+      <c r="K91" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>640999</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>1550</v>
+      </c>
+      <c r="E92" t="s">
+        <v>480</v>
+      </c>
+      <c r="J92" t="s">
+        <v>481</v>
+      </c>
+      <c r="K92" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>349000</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>1588</v>
+      </c>
+      <c r="E93" t="s">
+        <v>721</v>
+      </c>
+      <c r="J93" t="s">
+        <v>722</v>
+      </c>
+      <c r="K93" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>1575000</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>7656</v>
+      </c>
+      <c r="E94" t="s">
+        <v>724</v>
+      </c>
+      <c r="J94" t="s">
+        <v>725</v>
+      </c>
+      <c r="K94" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>1199900</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>3104</v>
+      </c>
+      <c r="E95" t="s">
+        <v>727</v>
+      </c>
+      <c r="J95" t="s">
+        <v>580</v>
+      </c>
+      <c r="K95" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>889000</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>1886</v>
+      </c>
+      <c r="E96" t="s">
+        <v>729</v>
+      </c>
+      <c r="J96" t="s">
+        <v>466</v>
+      </c>
+      <c r="K96" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>995000</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>3167</v>
+      </c>
+      <c r="E97" t="s">
+        <v>731</v>
+      </c>
+      <c r="J97" t="s">
+        <v>560</v>
+      </c>
+      <c r="K97" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>550000</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1408</v>
+      </c>
+      <c r="E98" t="s">
+        <v>733</v>
+      </c>
+      <c r="J98" t="s">
+        <v>550</v>
+      </c>
+      <c r="K98" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>275000</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>2272</v>
+      </c>
+      <c r="E99" t="s">
+        <v>735</v>
+      </c>
+      <c r="J99" t="s">
+        <v>513</v>
+      </c>
+      <c r="K99" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>799900</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>4559</v>
+      </c>
+      <c r="E100" t="s">
+        <v>737</v>
+      </c>
+      <c r="J100" t="s">
+        <v>738</v>
+      </c>
+      <c r="K100" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>895000</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>3092</v>
+      </c>
+      <c r="E101" t="s">
+        <v>740</v>
+      </c>
+      <c r="J101" t="s">
+        <v>741</v>
+      </c>
+      <c r="K101" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>699000</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>2530</v>
+      </c>
+      <c r="E102" t="s">
+        <v>743</v>
+      </c>
+      <c r="J102" t="s">
+        <v>744</v>
+      </c>
+      <c r="K102" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>320000</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>1840</v>
+      </c>
+      <c r="E103" t="s">
+        <v>746</v>
+      </c>
+      <c r="J103" t="s">
+        <v>702</v>
+      </c>
+      <c r="K103" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>119000</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1248</v>
+      </c>
+      <c r="E104" t="s">
+        <v>748</v>
+      </c>
+      <c r="J104" t="s">
+        <v>516</v>
+      </c>
+      <c r="K104" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>699000</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>2200</v>
+      </c>
+      <c r="E105" t="s">
+        <v>750</v>
+      </c>
+      <c r="J105" t="s">
+        <v>471</v>
+      </c>
+      <c r="K105" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>319900</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>2734</v>
+      </c>
+      <c r="E106" t="s">
+        <v>752</v>
+      </c>
+      <c r="J106" t="s">
+        <v>753</v>
+      </c>
+      <c r="K106" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>298000</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>1900</v>
+      </c>
+      <c r="E107" t="s">
+        <v>755</v>
+      </c>
+      <c r="J107" t="s">
+        <v>603</v>
+      </c>
+      <c r="K107" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>259000</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>996</v>
+      </c>
+      <c r="E108" t="s">
+        <v>757</v>
+      </c>
+      <c r="J108" t="s">
+        <v>550</v>
+      </c>
+      <c r="K108" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>137000</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>3114</v>
+      </c>
+      <c r="E109" t="s">
+        <v>759</v>
+      </c>
+      <c r="J109" t="s">
+        <v>465</v>
+      </c>
+      <c r="K109" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>379900</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1152</v>
+      </c>
+      <c r="E110" t="s">
+        <v>761</v>
+      </c>
+      <c r="J110" t="s">
+        <v>467</v>
+      </c>
+      <c r="K110" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>699000</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>2400</v>
+      </c>
+      <c r="E111" t="s">
+        <v>763</v>
+      </c>
+      <c r="J111" t="s">
+        <v>702</v>
+      </c>
+      <c r="K111" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>619000</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>2170</v>
+      </c>
+      <c r="E112" t="s">
+        <v>765</v>
+      </c>
+      <c r="J112" t="s">
+        <v>471</v>
+      </c>
+      <c r="K112" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>350000</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>934</v>
+      </c>
+      <c r="E113" t="s">
+        <v>767</v>
+      </c>
+      <c r="J113" t="s">
+        <v>768</v>
+      </c>
+      <c r="K113" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>610000</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>600</v>
+      </c>
+      <c r="E114" t="s">
+        <v>770</v>
+      </c>
+      <c r="J114" t="s">
+        <v>476</v>
+      </c>
+      <c r="K114" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>164500</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1976</v>
+      </c>
+      <c r="E115" t="s">
+        <v>772</v>
+      </c>
+      <c r="J115" t="s">
+        <v>773</v>
+      </c>
+      <c r="K115" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>259900</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>1604</v>
+      </c>
+      <c r="E116" t="s">
+        <v>775</v>
+      </c>
+      <c r="J116" t="s">
+        <v>609</v>
+      </c>
+      <c r="K116" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>150000</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>1386</v>
+      </c>
+      <c r="E117" t="s">
+        <v>777</v>
+      </c>
+      <c r="J117" t="s">
+        <v>465</v>
+      </c>
+      <c r="K117" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>2950000</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>3264</v>
+      </c>
+      <c r="E118" t="s">
+        <v>779</v>
+      </c>
+      <c r="J118" t="s">
+        <v>780</v>
+      </c>
+      <c r="K118" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>1250000</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>2455</v>
+      </c>
+      <c r="E119" t="s">
+        <v>782</v>
+      </c>
+      <c r="J119" t="s">
+        <v>560</v>
+      </c>
+      <c r="K119" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>589000</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>2320</v>
+      </c>
+      <c r="E120" t="s">
+        <v>784</v>
+      </c>
+      <c r="J120" t="s">
+        <v>560</v>
+      </c>
+      <c r="K120" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>169900</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>1673</v>
+      </c>
+      <c r="E121" t="s">
+        <v>786</v>
+      </c>
+      <c r="J121" t="s">
+        <v>787</v>
+      </c>
+      <c r="K121" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>1699000</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>3148</v>
+      </c>
+      <c r="E122" t="s">
+        <v>789</v>
+      </c>
+      <c r="J122" t="s">
+        <v>790</v>
+      </c>
+      <c r="K122" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>699000</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>2800</v>
+      </c>
+      <c r="E123" t="s">
+        <v>792</v>
+      </c>
+      <c r="J123" t="s">
+        <v>483</v>
+      </c>
+      <c r="K123" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>2250000</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>5800</v>
+      </c>
+      <c r="E124" t="s">
+        <v>794</v>
+      </c>
+      <c r="J124" t="s">
+        <v>795</v>
+      </c>
+      <c r="K124" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>749999</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>2433</v>
+      </c>
+      <c r="E125" t="s">
+        <v>797</v>
+      </c>
+      <c r="J125" t="s">
+        <v>470</v>
+      </c>
+      <c r="K125" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>1350000</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>4500</v>
+      </c>
+      <c r="E126" t="s">
+        <v>799</v>
+      </c>
+      <c r="J126" t="s">
+        <v>471</v>
+      </c>
+      <c r="K126" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>170000</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>1770</v>
+      </c>
+      <c r="E127" t="s">
+        <v>801</v>
+      </c>
+      <c r="J127" t="s">
+        <v>802</v>
+      </c>
+      <c r="K127" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>500000</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>1964</v>
+      </c>
+      <c r="E128" t="s">
+        <v>804</v>
+      </c>
+      <c r="J128" t="s">
+        <v>473</v>
+      </c>
+      <c r="K128" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>899999</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>1664</v>
+      </c>
+      <c r="E129" t="s">
+        <v>806</v>
+      </c>
+      <c r="J129" t="s">
+        <v>475</v>
+      </c>
+      <c r="K129" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>539900</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1258</v>
+      </c>
+      <c r="E130" t="s">
+        <v>808</v>
+      </c>
+      <c r="J130" t="s">
+        <v>809</v>
+      </c>
+      <c r="K130" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>269900</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1536</v>
+      </c>
+      <c r="E131" t="s">
+        <v>811</v>
+      </c>
+      <c r="J131" t="s">
+        <v>812</v>
+      </c>
+      <c r="K131" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>665000</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>1650</v>
+      </c>
+      <c r="E132" t="s">
+        <v>814</v>
+      </c>
+      <c r="J132" t="s">
+        <v>815</v>
+      </c>
+      <c r="K132" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>739000</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>1089</v>
+      </c>
+      <c r="E133" t="s">
+        <v>817</v>
+      </c>
+      <c r="J133" t="s">
+        <v>469</v>
+      </c>
+      <c r="K133" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>575000</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>1504</v>
+      </c>
+      <c r="E134" t="s">
+        <v>819</v>
+      </c>
+      <c r="J134" t="s">
+        <v>820</v>
+      </c>
+      <c r="K134" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>750000</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>1809</v>
+      </c>
+      <c r="E135" t="s">
+        <v>822</v>
+      </c>
+      <c r="J135" t="s">
+        <v>823</v>
+      </c>
+      <c r="K135" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>999888</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>2043</v>
+      </c>
+      <c r="E136" t="s">
+        <v>825</v>
+      </c>
+      <c r="J136" t="s">
+        <v>702</v>
+      </c>
+      <c r="K136" t="s">
+        <v>826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41C5541-AD7A-4DA8-92C0-BBF6E1EB5609}">
+  <dimension ref="A1:K54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="9.06640625" style="3"/>
+    <col min="6" max="8" width="9.06640625" style="1"/>
+    <col min="9" max="9" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>280000</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2092</v>
+      </c>
+      <c r="E2" s="3">
+        <v>133.84321223709301</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I2" s="2">
+        <v>78114</v>
+      </c>
+      <c r="J2" t="s">
+        <v>830</v>
+      </c>
+      <c r="K2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>227500</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1622</v>
+      </c>
+      <c r="E3" s="3">
+        <v>140.25893958076401</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I3" s="2">
+        <v>78252</v>
+      </c>
+      <c r="J3" t="s">
+        <v>832</v>
+      </c>
+      <c r="K3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>795000</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3064</v>
+      </c>
+      <c r="E4" s="3">
+        <v>259.46475195822399</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I4" s="2">
+        <v>78737</v>
+      </c>
+      <c r="J4" t="s">
+        <v>834</v>
+      </c>
+      <c r="K4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>395000</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1899</v>
+      </c>
+      <c r="E5" s="3">
+        <v>208.004212743549</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I5" s="2">
+        <v>78249</v>
+      </c>
+      <c r="J5" t="s">
+        <v>836</v>
+      </c>
+      <c r="K5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>350000</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2015</v>
+      </c>
+      <c r="E6" s="3">
+        <v>173.69727047146401</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I6" s="2">
+        <v>78665</v>
+      </c>
+      <c r="J6" t="s">
+        <v>838</v>
+      </c>
+      <c r="K6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>250000</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1553</v>
+      </c>
+      <c r="E7" s="3">
+        <v>160.978750804893</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I7" s="2">
+        <v>79928</v>
+      </c>
+      <c r="J7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>290000</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2320</v>
+      </c>
+      <c r="E8" s="3">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I8" s="2">
+        <v>78634</v>
+      </c>
+      <c r="J8" t="s">
+        <v>460</v>
+      </c>
+      <c r="K8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>275000</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1655</v>
+      </c>
+      <c r="E9" s="3">
+        <v>166.163141993957</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I9" s="2">
+        <v>78247</v>
+      </c>
+      <c r="J9" t="s">
+        <v>842</v>
+      </c>
+      <c r="K9" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>335000</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2168</v>
+      </c>
+      <c r="E10" s="3">
+        <v>154.52029520295201</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I10" s="2">
+        <v>78724</v>
+      </c>
+      <c r="J10" t="s">
+        <v>461</v>
+      </c>
+      <c r="K10" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>320000</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1407</v>
+      </c>
+      <c r="E11" s="3">
+        <v>227.43425728500301</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I11" s="2">
+        <v>78628</v>
+      </c>
+      <c r="J11" t="s">
+        <v>845</v>
+      </c>
+      <c r="K11" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>159000</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>72.272727272727195</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I12" s="2">
+        <v>76513</v>
+      </c>
+      <c r="J12" t="s">
+        <v>847</v>
+      </c>
+      <c r="K12" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>159900</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1305</v>
+      </c>
+      <c r="E13" s="3">
+        <v>122.528735632183</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I13" s="2">
+        <v>78244</v>
+      </c>
+      <c r="J13" t="s">
+        <v>849</v>
+      </c>
+      <c r="K13" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>200000</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1346</v>
+      </c>
+      <c r="E14" s="3">
+        <v>148.58841010401099</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I14" s="2">
+        <v>76549</v>
+      </c>
+      <c r="J14" t="s">
+        <v>851</v>
+      </c>
+      <c r="K14" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>245000</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1870</v>
+      </c>
+      <c r="E15" s="3">
+        <v>131.01604278074799</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I15" s="2">
+        <v>76542</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>225000</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1459</v>
+      </c>
+      <c r="E16" s="3">
+        <v>154.215215901302</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I16" s="2">
+        <v>79938</v>
+      </c>
+      <c r="J16" t="s">
+        <v>854</v>
+      </c>
+      <c r="K16" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>285000</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1931</v>
+      </c>
+      <c r="E17" s="3">
+        <v>147.591921284308</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I17" s="2">
+        <v>78610</v>
+      </c>
+      <c r="J17" t="s">
+        <v>856</v>
+      </c>
+      <c r="K17" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>325000</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1840</v>
+      </c>
+      <c r="E18" s="3">
+        <v>176.63043478260801</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I18" s="2">
+        <v>78259</v>
+      </c>
+      <c r="J18" t="s">
+        <v>858</v>
+      </c>
+      <c r="K18" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>237000</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1753</v>
+      </c>
+      <c r="E19" s="3">
+        <v>135.19680547632601</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I19" s="2">
+        <v>79928</v>
+      </c>
+      <c r="J19" t="s">
+        <v>985</v>
+      </c>
+      <c r="K19" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>224900</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2147</v>
+      </c>
+      <c r="E20" s="3">
+        <v>104.75081509082401</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I20" s="2">
+        <v>78233</v>
+      </c>
+      <c r="J20" t="s">
+        <v>860</v>
+      </c>
+      <c r="K20" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>300000</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1758</v>
+      </c>
+      <c r="E21" s="3">
+        <v>170.64846416382201</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I21" s="2">
+        <v>78130</v>
+      </c>
+      <c r="J21" t="s">
+        <v>862</v>
+      </c>
+      <c r="K21" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>175000</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1235</v>
+      </c>
+      <c r="E22" s="3">
+        <v>141.70040485829901</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I22" s="2">
+        <v>79904</v>
+      </c>
+      <c r="J22" t="s">
+        <v>864</v>
+      </c>
+      <c r="K22" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>395000</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2124</v>
+      </c>
+      <c r="E23" s="3">
+        <v>185.96986817325799</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I23" s="2">
+        <v>78130</v>
+      </c>
+      <c r="J23" t="s">
+        <v>866</v>
+      </c>
+      <c r="K23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>419900</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1456</v>
+      </c>
+      <c r="E24" s="3">
+        <v>288.392857142857</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I24" s="2">
+        <v>78721</v>
+      </c>
+      <c r="J24" t="s">
+        <v>868</v>
+      </c>
+      <c r="K24" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>230000</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1843</v>
+      </c>
+      <c r="E25" s="3">
+        <v>124.796527400976</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I25" s="2">
+        <v>78218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>870</v>
+      </c>
+      <c r="K25" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>320000</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1987</v>
+      </c>
+      <c r="E26" s="3">
+        <v>161.04680422747799</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I26" s="2">
+        <v>78251</v>
+      </c>
+      <c r="J26" t="s">
+        <v>872</v>
+      </c>
+      <c r="K26" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>224000</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2927</v>
+      </c>
+      <c r="E27" s="3">
+        <v>76.528869149299595</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I27" s="2">
+        <v>76530</v>
+      </c>
+      <c r="J27" t="s">
+        <v>987</v>
+      </c>
+      <c r="K27" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>299000</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2104</v>
+      </c>
+      <c r="E28" s="3">
+        <v>142.11026615969499</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I28" s="2">
+        <v>79928</v>
+      </c>
+      <c r="J28" t="s">
+        <v>874</v>
+      </c>
+      <c r="K28" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>135000</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1344</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100.446428571428</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I29" s="2">
+        <v>78207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>876</v>
+      </c>
+      <c r="K29" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>340000</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2599</v>
+      </c>
+      <c r="E30" s="3">
+        <v>130.819545979222</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I30" s="2">
+        <v>78254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>878</v>
+      </c>
+      <c r="K30" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>299900</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2124</v>
+      </c>
+      <c r="E31" s="3">
+        <v>141.19585687382201</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I31" s="2">
+        <v>78261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>462</v>
+      </c>
+      <c r="K31" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>185500</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1262</v>
+      </c>
+      <c r="E32" s="3">
+        <v>146.988906497622</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I32" s="2">
+        <v>78520</v>
+      </c>
+      <c r="J32" t="s">
+        <v>880</v>
+      </c>
+      <c r="K32" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>189900</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1690</v>
+      </c>
+      <c r="E33" s="3">
+        <v>112.366863905325</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I33" s="2">
+        <v>78247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>882</v>
+      </c>
+      <c r="K33" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>825000</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1920</v>
+      </c>
+      <c r="E34" s="3">
+        <v>429.6875</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I34" s="2">
+        <v>78751</v>
+      </c>
+      <c r="J34" t="s">
+        <v>458</v>
+      </c>
+      <c r="K34" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>109900</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1459</v>
+      </c>
+      <c r="E35" s="3">
+        <v>75.325565455791605</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I35" s="2">
+        <v>76543</v>
+      </c>
+      <c r="J35" t="s">
+        <v>884</v>
+      </c>
+      <c r="K35" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>815000</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2824</v>
+      </c>
+      <c r="E36" s="3">
+        <v>288.59773371104802</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I36" s="2">
+        <v>78669</v>
+      </c>
+      <c r="J36" t="s">
+        <v>972</v>
+      </c>
+      <c r="K36" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>439000</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>2173</v>
+      </c>
+      <c r="E37" s="3">
+        <v>202.02485043718301</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I37" s="2">
+        <v>78212</v>
+      </c>
+      <c r="J37" t="s">
+        <v>886</v>
+      </c>
+      <c r="K37" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>77940</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1792</v>
+      </c>
+      <c r="E38" s="3">
+        <v>43.493303571428498</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I38" s="2">
+        <v>76309</v>
+      </c>
+      <c r="J38" t="s">
+        <v>888</v>
+      </c>
+      <c r="K38" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>215000</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1980</v>
+      </c>
+      <c r="E39" s="3">
+        <v>108.58585858585801</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I39" s="2">
+        <v>78239</v>
+      </c>
+      <c r="J39" t="s">
+        <v>890</v>
+      </c>
+      <c r="K39" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>189000</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1384</v>
+      </c>
+      <c r="E40" s="3">
+        <v>136.560693641618</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I40" s="2">
+        <v>77656</v>
+      </c>
+      <c r="J40" t="s">
+        <v>892</v>
+      </c>
+      <c r="K40" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>360000</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1645</v>
+      </c>
+      <c r="E41" s="3">
+        <v>218.84498480243099</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I41" s="2">
+        <v>78006</v>
+      </c>
+      <c r="J41" t="s">
+        <v>962</v>
+      </c>
+      <c r="K41" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>305000</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>2643</v>
+      </c>
+      <c r="E42" s="3">
+        <v>115.399167612561</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I42" s="2">
+        <v>78221</v>
+      </c>
+      <c r="J42" t="s">
+        <v>974</v>
+      </c>
+      <c r="K42" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>675000</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>2154</v>
+      </c>
+      <c r="E43" s="3">
+        <v>313.37047353760403</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I43" s="2">
+        <v>78676</v>
+      </c>
+      <c r="J43" t="s">
+        <v>458</v>
+      </c>
+      <c r="K43" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>390000</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>2497</v>
+      </c>
+      <c r="E44" s="3">
+        <v>156.18742490989101</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I44" s="2">
+        <v>78230</v>
+      </c>
+      <c r="J44" t="s">
+        <v>895</v>
+      </c>
+      <c r="K44" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>379000</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1972</v>
+      </c>
+      <c r="E45" s="3">
+        <v>192.19066937119601</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I45" s="2">
+        <v>78259</v>
+      </c>
+      <c r="J45" t="s">
+        <v>976</v>
+      </c>
+      <c r="K45" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>219000</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2018</v>
+      </c>
+      <c r="E46" s="3">
+        <v>108.523290386521</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I46" s="2">
+        <v>78239</v>
+      </c>
+      <c r="J46" t="s">
+        <v>989</v>
+      </c>
+      <c r="K46" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>250000</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1892</v>
+      </c>
+      <c r="E47" s="3">
+        <v>132.13530655391099</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I47" s="2">
+        <v>76549</v>
+      </c>
+      <c r="J47" t="s">
+        <v>897</v>
+      </c>
+      <c r="K47" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>200000</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1092</v>
+      </c>
+      <c r="E48" s="3">
+        <v>183.15018315018301</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I48" s="2">
+        <v>78640</v>
+      </c>
+      <c r="J48" t="s">
+        <v>458</v>
+      </c>
+      <c r="K48" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>239000</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1653</v>
+      </c>
+      <c r="E49" s="3">
+        <v>144.585601935874</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I49" s="2">
+        <v>78222</v>
+      </c>
+      <c r="J49" t="s">
+        <v>978</v>
+      </c>
+      <c r="K49" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>234999</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1704</v>
+      </c>
+      <c r="E50" s="3">
+        <v>137.91021126760501</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I50" s="2">
+        <v>76549</v>
+      </c>
+      <c r="J50" t="s">
+        <v>899</v>
+      </c>
+      <c r="K50" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>435000</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>2137</v>
+      </c>
+      <c r="E51" s="3">
+        <v>203.55638745905401</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I51" s="2">
+        <v>76502</v>
+      </c>
+      <c r="J51" t="s">
+        <v>464</v>
+      </c>
+      <c r="K51" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>345000</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1748</v>
+      </c>
+      <c r="E52" s="3">
+        <v>197.36842105263099</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I52" s="2">
+        <v>78133</v>
+      </c>
+      <c r="J52" t="s">
+        <v>964</v>
+      </c>
+      <c r="K52" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>129900</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1500</v>
+      </c>
+      <c r="E53" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I53" s="2">
+        <v>78559</v>
+      </c>
+      <c r="J53" t="s">
+        <v>991</v>
+      </c>
+      <c r="K53" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>195000</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>2468</v>
+      </c>
+      <c r="E54" s="3">
+        <v>79.011345218800599</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="I54" s="2">
+        <v>78245</v>
+      </c>
+      <c r="J54" t="s">
+        <v>993</v>
+      </c>
+      <c r="K54" t="s">
+        <v>994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34B661E-300D-4B61-AB4D-73EB20F8FC1B}">
   <dimension ref="A1:G171"/>
   <sheetViews>
@@ -7398,7 +12506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D27F0E5-2CD5-43A5-95CC-9F7C0D751AF5}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/PropertyListings.xlsx
+++ b/PropertyListings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\UiPath\RPA-WebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6190D82-796F-4F09-8737-845DDBE5B61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81146850-A970-4951-8238-5FC7991FF56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{FA581EF4-2328-4087-96E0-2C5E239CD657}"/>
   </bookViews>
   <sheets>
     <sheet name="CA" sheetId="14" r:id="rId1"/>
     <sheet name="NEW YORK" sheetId="15" r:id="rId2"/>
-    <sheet name="TEXAS" sheetId="20" r:id="rId3"/>
+    <sheet name="TEXAS" sheetId="23" r:id="rId3"/>
     <sheet name="MIAMI" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1011">
   <si>
     <t>Price</t>
   </si>
@@ -2664,12 +2664,6 @@
     <t>https://www.zillow.com/homedetails/4003-Grissom-Grv-San-Antonio-TX-78251/120813540_zpid/</t>
   </si>
   <si>
-    <t>HOME GUIDE REAL ESTATE LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/12645-Arrow-Weed-Dr-El-Paso-TX-79928/244088554_zpid/</t>
-  </si>
-  <si>
     <t>WALTER RAY OWENS, JR. - BROKER, Kyle Cracknell TREC #603760</t>
   </si>
   <si>
@@ -2682,48 +2676,18 @@
     <t>https://www.zillow.com/homedetails/9402-Salers-Spgs-San-Antonio-TX-78254/2055300321_zpid/</t>
   </si>
   <si>
-    <t>EXCEL REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/9688-Montrose-Cir-Brownsville-TX-78520/436081802_zpid/</t>
-  </si>
-  <si>
     <t>SIDE, INC., Jonathan Layton TREC #537860</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/4322-Morgans-Run-San-Antonio-TX-78247/26411847_zpid/</t>
   </si>
   <si>
-    <t>LUXELY REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/3200-Zephyr-Rd-Killeen-TX-76543/49524651_zpid/</t>
-  </si>
-  <si>
-    <t>JPAR SAN ANTONIO, Amber Vanlandingham TREC #579062</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/721-W-Kings-Hwy-San-Antonio-TX-78212/26215073_zpid/</t>
-  </si>
-  <si>
     <t>940 REALTY</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/2114-Shepherd-St-Wichita-Falls-TX-76309/78904446_zpid/</t>
   </si>
   <si>
-    <t>BHHS PENFED REALTY, Pamela Sanchez TREC #686439</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6530-Robin-Frst-San-Antonio-TX-78239/26178126_zpid/</t>
-  </si>
-  <si>
-    <t>ROYALTY RANCH &amp; REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7111-Glenn-Ln-Silsbee-TX-77656/28569330_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/6-Hickory-Ct-Wimberley-TX-78676/250391248_zpid/</t>
   </si>
   <si>
@@ -2739,12 +2703,6 @@
     <t>https://www.zillow.com/homedetails/5506-Holster-Dr-Killeen-TX-76549/79903127_zpid/</t>
   </si>
   <si>
-    <t>BLESSED PROPERTIES</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2405-Waterfall-Dr-Killeen-TX-76549/89203943_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/16113-Charlya-Dr-Temple-TX-76502/49530861_zpid/</t>
   </si>
   <si>
@@ -2859,9 +2817,6 @@
     <t>4003 Grissom Grove</t>
   </si>
   <si>
-    <t>12645 Arrow Weed Dr</t>
-  </si>
-  <si>
     <t>1810 W POPLAR ST</t>
   </si>
   <si>
@@ -2871,36 +2826,15 @@
     <t>9402 SALERS SPGS</t>
   </si>
   <si>
-    <t>9688 Montrose Cir</t>
-  </si>
-  <si>
-    <t>Brownsville</t>
-  </si>
-  <si>
     <t>4322 MORGANS RUN</t>
   </si>
   <si>
-    <t>3200 Zephyr Rd</t>
-  </si>
-  <si>
-    <t>721 W KINGS HWY</t>
-  </si>
-  <si>
     <t>2114 Shepherd St</t>
   </si>
   <si>
     <t>Wichita Falls</t>
   </si>
   <si>
-    <t>6530 ROBIN FRST</t>
-  </si>
-  <si>
-    <t>7111 Glenn Ln</t>
-  </si>
-  <si>
-    <t>Silsbee</t>
-  </si>
-  <si>
     <t>6 Hickory Ct</t>
   </si>
   <si>
@@ -2919,15 +2853,18 @@
     <t>Kyle</t>
   </si>
   <si>
-    <t>2405 Waterfall Dr</t>
-  </si>
-  <si>
     <t>16113 Charlya Dr</t>
   </si>
   <si>
     <t>Temple</t>
   </si>
   <si>
+    <t>LPT REALTY, LLC, Christopher Perez TREC #815467</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12527-Prima-Vis-San-Antonio-TX-78233/447239584_zpid/</t>
+  </si>
+  <si>
     <t>COMPASS RE TEXAS, LLC - SA, Wayne Ramirez TREC #663470</t>
   </si>
   <si>
@@ -2940,6 +2877,9 @@
     <t>https://www.zillow.com/homedetails/1025-Alta-Vista-Ln-Canyon-Lake-TX-78133/97570011_zpid/</t>
   </si>
   <si>
+    <t>12527 prima vista</t>
+  </si>
+  <si>
     <t>3902 TOREY MESQUITE</t>
   </si>
   <si>
@@ -3048,7 +2988,91 @@
     <t>9150 EVERTON</t>
   </si>
   <si>
-    <t>Cost per Sqft</t>
+    <t>Price (USD)</t>
+  </si>
+  <si>
+    <t>FATHOM REALTY, LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3004-S-Polk-St-Amarillo-TX-79109/55652310_zpid/</t>
+  </si>
+  <si>
+    <t>FRONT DOOR PROPERTIES</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13172-Mill-Stone-Dr-Austin-TX-78729/29549619_zpid/</t>
+  </si>
+  <si>
+    <t>KUPER SOTHEBY'S INT'L REALTY, Rachel Williamson TREC #653771</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11509-Lone-Shadow-Trl-Live-Oak-TX-78233/26175130_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5119-Mount-Hood-Dr-El-Paso-TX-79904/27448941_zpid/</t>
+  </si>
+  <si>
+    <t>Cost per Sqft (USD)</t>
+  </si>
+  <si>
+    <t>3004 S Polk St</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>13172 Mill Stone Dr</t>
+  </si>
+  <si>
+    <t>11509 LONE SHADOW TRL</t>
+  </si>
+  <si>
+    <t>5119 Mount Hood Dr</t>
+  </si>
+  <si>
+    <t>SIDE, INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10904-Wareham-Ct-Austin-TX-78739/29505091_zpid/</t>
+  </si>
+  <si>
+    <t>1ST CHOICE REALTY GROUP, Frank Rodriguez TREC #786455</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6410-Chimney-Nest-San-Antonio-TX-78233/26429037_zpid/</t>
+  </si>
+  <si>
+    <t>EXP REALTY, Natalie Salas TREC #647250</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11414-Baltic-Dr-San-Antonio-TX-78213/447161891_zpid/</t>
+  </si>
+  <si>
+    <t>ASSENT REAL ESTATE INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2812-10th-St-Wichita-Falls-TX-76309/78885574_zpid/</t>
+  </si>
+  <si>
+    <t>KELLER WILLIAMS HERITAGE, Richard Todd TREC #700317</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3606-Fred-Ross-Ln-San-Antonio-TX-78228/26346754_zpid/</t>
+  </si>
+  <si>
+    <t>10904 Wareham Ct</t>
+  </si>
+  <si>
+    <t>6410 CHIMNEY NEST</t>
+  </si>
+  <si>
+    <t>11414 BALTIC DR</t>
+  </si>
+  <si>
+    <t>2812 10th St</t>
+  </si>
+  <si>
+    <t>3606 FRED ROSS LN</t>
   </si>
 </sst>
 </file>
@@ -6643,8 +6667,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41C5541-AD7A-4DA8-92C0-BBF6E1EB5609}">
-  <dimension ref="A1:K54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443879A4-2BF5-481F-8CF9-78DF75D25A75}">
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6657,7 +6681,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6669,7 +6693,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>486</v>
@@ -6707,13 +6731,13 @@
         <v>133.84321223709301</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I2" s="2">
         <v>78114</v>
@@ -6742,13 +6766,13 @@
         <v>140.25893958076401</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I3" s="2">
         <v>78252</v>
@@ -6777,13 +6801,13 @@
         <v>259.46475195822399</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I4" s="2">
         <v>78737</v>
@@ -6812,13 +6836,13 @@
         <v>208.004212743549</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I5" s="2">
         <v>78249</v>
@@ -6832,7 +6856,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>350000</v>
+        <v>260000</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -6841,33 +6865,33 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>2015</v>
+        <v>1931</v>
       </c>
       <c r="E6" s="3">
-        <v>173.69727047146401</v>
+        <v>134.64526152252699</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>909</v>
+        <v>945</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I6" s="2">
-        <v>78665</v>
+        <v>78233</v>
       </c>
       <c r="J6" t="s">
-        <v>838</v>
+        <v>939</v>
       </c>
       <c r="K6" t="s">
-        <v>839</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -6876,33 +6900,33 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1553</v>
+        <v>2015</v>
       </c>
       <c r="E7" s="3">
-        <v>160.978750804893</v>
+        <v>173.69727047146401</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I7" s="2">
-        <v>79928</v>
+        <v>78665</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>838</v>
       </c>
       <c r="K7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -6911,208 +6935,208 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>2320</v>
+        <v>1553</v>
       </c>
       <c r="E8" s="3">
-        <v>125</v>
+        <v>160.978750804893</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="I8" s="2">
-        <v>78634</v>
+        <v>79928</v>
       </c>
       <c r="J8" t="s">
-        <v>460</v>
+        <v>147</v>
       </c>
       <c r="K8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>275000</v>
+        <v>290000</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1655</v>
+        <v>2320</v>
       </c>
       <c r="E9" s="3">
-        <v>166.163141993957</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I9" s="2">
-        <v>78247</v>
+        <v>78634</v>
       </c>
       <c r="J9" t="s">
-        <v>842</v>
+        <v>460</v>
       </c>
       <c r="K9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>335000</v>
+        <v>275000</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2168</v>
+        <v>1655</v>
       </c>
       <c r="E10" s="3">
-        <v>154.52029520295201</v>
+        <v>166.163141993957</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I10" s="2">
-        <v>78724</v>
+        <v>78247</v>
       </c>
       <c r="J10" t="s">
-        <v>461</v>
+        <v>842</v>
       </c>
       <c r="K10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>320000</v>
+        <v>335000</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1407</v>
+        <v>2168</v>
       </c>
       <c r="E11" s="3">
-        <v>227.43425728500301</v>
+        <v>154.52029520295201</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>918</v>
+        <v>893</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I11" s="2">
-        <v>78628</v>
+        <v>78724</v>
       </c>
       <c r="J11" t="s">
-        <v>845</v>
+        <v>461</v>
       </c>
       <c r="K11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>159000</v>
+        <v>320000</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>2200</v>
+        <v>1407</v>
       </c>
       <c r="E12" s="3">
-        <v>72.272727272727195</v>
+        <v>227.43425728500301</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I12" s="2">
-        <v>76513</v>
+        <v>78628</v>
       </c>
       <c r="J12" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="K12" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>159900</v>
+        <v>159000</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>1305</v>
+        <v>2200</v>
       </c>
       <c r="E13" s="3">
-        <v>122.528735632183</v>
+        <v>72.272727272727195</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I13" s="2">
-        <v>78244</v>
+        <v>76513</v>
       </c>
       <c r="J13" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>200000</v>
+        <v>159900</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -7121,663 +7145,663 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>1346</v>
+        <v>1305</v>
       </c>
       <c r="E14" s="3">
-        <v>148.58841010401099</v>
+        <v>122.528735632183</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I14" s="2">
-        <v>76549</v>
+        <v>78244</v>
       </c>
       <c r="J14" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K14" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>245000</v>
+        <v>200000</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1870</v>
+        <v>1346</v>
       </c>
       <c r="E15" s="3">
-        <v>131.01604278074799</v>
+        <v>148.58841010401099</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I15" s="2">
-        <v>76542</v>
+        <v>76549</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>851</v>
       </c>
       <c r="K15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>225000</v>
+        <v>245000</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1459</v>
+        <v>1870</v>
       </c>
       <c r="E16" s="3">
-        <v>154.215215901302</v>
+        <v>131.01604278074799</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I16" s="2">
-        <v>79938</v>
+        <v>76542</v>
       </c>
       <c r="J16" t="s">
-        <v>854</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>285000</v>
+        <v>225000</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1931</v>
+        <v>1459</v>
       </c>
       <c r="E17" s="3">
-        <v>147.591921284308</v>
+        <v>154.215215901302</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>927</v>
+        <v>898</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I17" s="2">
-        <v>78610</v>
+        <v>79938</v>
       </c>
       <c r="J17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>325000</v>
+        <v>285000</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1840</v>
+        <v>1931</v>
       </c>
       <c r="E18" s="3">
-        <v>176.63043478260801</v>
+        <v>147.591921284308</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I18" s="2">
-        <v>78259</v>
+        <v>78610</v>
       </c>
       <c r="J18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="K18" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>237000</v>
+        <v>325000</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1753</v>
+        <v>1840</v>
       </c>
       <c r="E19" s="3">
-        <v>135.19680547632601</v>
+        <v>176.63043478260801</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>995</v>
+        <v>915</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I19" s="2">
-        <v>79928</v>
+        <v>78259</v>
       </c>
       <c r="J19" t="s">
-        <v>985</v>
+        <v>858</v>
       </c>
       <c r="K19" t="s">
-        <v>986</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>224900</v>
+        <v>237000</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>2147</v>
+        <v>1753</v>
       </c>
       <c r="E20" s="3">
-        <v>104.75081509082401</v>
+        <v>135.19680547632601</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>930</v>
+        <v>975</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>931</v>
+        <v>898</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I20" s="2">
-        <v>78233</v>
+        <v>79928</v>
       </c>
       <c r="J20" t="s">
-        <v>860</v>
+        <v>965</v>
       </c>
       <c r="K20" t="s">
-        <v>861</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>300000</v>
+        <v>224900</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>1758</v>
+        <v>2147</v>
       </c>
       <c r="E21" s="3">
-        <v>170.64846416382201</v>
+        <v>104.75081509082401</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I21" s="2">
-        <v>78130</v>
+        <v>78233</v>
       </c>
       <c r="J21" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>175000</v>
+        <v>300000</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>1235</v>
+        <v>1758</v>
       </c>
       <c r="E22" s="3">
-        <v>141.70040485829901</v>
+        <v>170.64846416382201</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I22" s="2">
-        <v>79904</v>
+        <v>78130</v>
       </c>
       <c r="J22" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K22" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>395000</v>
+        <v>175000</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2124</v>
+        <v>1235</v>
       </c>
       <c r="E23" s="3">
-        <v>185.96986817325799</v>
+        <v>141.70040485829901</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>933</v>
+        <v>898</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I23" s="2">
-        <v>78130</v>
+        <v>79904</v>
       </c>
       <c r="J23" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K23" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>419900</v>
+        <v>395000</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>1456</v>
+        <v>2124</v>
       </c>
       <c r="E24" s="3">
-        <v>288.392857142857</v>
+        <v>185.96986817325799</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I24" s="2">
-        <v>78721</v>
+        <v>78130</v>
       </c>
       <c r="J24" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="K24" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>230000</v>
+        <v>419900</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>1843</v>
+        <v>1456</v>
       </c>
       <c r="E25" s="3">
-        <v>124.796527400976</v>
+        <v>288.392857142857</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I25" s="2">
-        <v>78218</v>
+        <v>78721</v>
       </c>
       <c r="J25" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K25" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1987</v>
+        <v>1843</v>
       </c>
       <c r="E26" s="3">
-        <v>161.04680422747799</v>
+        <v>124.796527400976</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I26" s="2">
-        <v>78251</v>
+        <v>78218</v>
       </c>
       <c r="J26" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="K26" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>224000</v>
+        <v>320000</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>2927</v>
+        <v>1987</v>
       </c>
       <c r="E27" s="3">
-        <v>76.528869149299595</v>
+        <v>161.04680422747799</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>996</v>
+        <v>924</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>997</v>
+        <v>891</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I27" s="2">
-        <v>76530</v>
+        <v>78251</v>
       </c>
       <c r="J27" t="s">
-        <v>987</v>
+        <v>872</v>
       </c>
       <c r="K27" t="s">
-        <v>988</v>
+        <v>873</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>299000</v>
+        <v>224000</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2104</v>
+        <v>2927</v>
       </c>
       <c r="E28" s="3">
-        <v>142.11026615969499</v>
+        <v>76.528869149299595</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>939</v>
+        <v>976</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>912</v>
+        <v>977</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I28" s="2">
-        <v>79928</v>
+        <v>76530</v>
       </c>
       <c r="J28" t="s">
-        <v>874</v>
+        <v>967</v>
       </c>
       <c r="K28" t="s">
-        <v>875</v>
+        <v>968</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>135000</v>
+        <v>725000</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>1344</v>
+        <v>2179</v>
       </c>
       <c r="E29" s="3">
-        <v>100.446428571428</v>
+        <v>332.72143184947203</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>940</v>
+        <v>1006</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I29" s="2">
-        <v>78207</v>
+        <v>78739</v>
       </c>
       <c r="J29" t="s">
-        <v>876</v>
+        <v>996</v>
       </c>
       <c r="K29" t="s">
-        <v>877</v>
+        <v>997</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>340000</v>
+        <v>135000</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>2599</v>
+        <v>1344</v>
       </c>
       <c r="E30" s="3">
-        <v>130.819545979222</v>
+        <v>100.446428571428</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I30" s="2">
-        <v>78254</v>
+        <v>78207</v>
       </c>
       <c r="J30" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="K30" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>299900</v>
+        <v>340000</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
-        <v>2124</v>
+        <v>2599</v>
       </c>
       <c r="E31" s="3">
-        <v>141.19585687382201</v>
+        <v>130.819545979222</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>966</v>
+        <v>927</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I31" s="2">
-        <v>78261</v>
+        <v>78254</v>
       </c>
       <c r="J31" t="s">
-        <v>462</v>
+        <v>876</v>
       </c>
       <c r="K31" t="s">
-        <v>463</v>
+        <v>877</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>185500</v>
+        <v>299900</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>1262</v>
+        <v>2124</v>
       </c>
       <c r="E32" s="3">
-        <v>146.988906497622</v>
+        <v>141.19585687382201</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>944</v>
+        <v>891</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I32" s="2">
-        <v>78520</v>
+        <v>78261</v>
       </c>
       <c r="J32" t="s">
-        <v>880</v>
+        <v>462</v>
       </c>
       <c r="K32" t="s">
-        <v>881</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>189900</v>
+        <v>255000</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -7786,68 +7810,68 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>1690</v>
+        <v>1589</v>
       </c>
       <c r="E33" s="3">
-        <v>112.366863905325</v>
+        <v>160.47828823159199</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>945</v>
+        <v>1007</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I33" s="2">
-        <v>78247</v>
+        <v>78233</v>
       </c>
       <c r="J33" t="s">
-        <v>882</v>
+        <v>998</v>
       </c>
       <c r="K33" t="s">
-        <v>883</v>
+        <v>999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>825000</v>
+        <v>189900</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>1920</v>
+        <v>1690</v>
       </c>
       <c r="E34" s="3">
-        <v>429.6875</v>
+        <v>112.366863905325</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>980</v>
+        <v>928</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I34" s="2">
-        <v>78751</v>
+        <v>78247</v>
       </c>
       <c r="J34" t="s">
-        <v>458</v>
+        <v>878</v>
       </c>
       <c r="K34" t="s">
-        <v>971</v>
+        <v>879</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>109900</v>
+        <v>825000</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -7856,68 +7880,68 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>1459</v>
+        <v>1920</v>
       </c>
       <c r="E35" s="3">
-        <v>75.325565455791605</v>
+        <v>429.6875</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I35" s="2">
-        <v>76543</v>
+        <v>78751</v>
       </c>
       <c r="J35" t="s">
-        <v>884</v>
+        <v>458</v>
       </c>
       <c r="K35" t="s">
-        <v>885</v>
+        <v>951</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>815000</v>
+        <v>300000</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>2824</v>
+        <v>1795</v>
       </c>
       <c r="E36" s="3">
-        <v>288.59773371104802</v>
+        <v>167.13091922005501</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>981</v>
+        <v>1008</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>941</v>
+        <v>891</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I36" s="2">
-        <v>78669</v>
+        <v>78213</v>
       </c>
       <c r="J36" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="K36" t="s">
-        <v>973</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>439000</v>
+        <v>815000</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -7926,68 +7950,68 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>2173</v>
+        <v>2824</v>
       </c>
       <c r="E37" s="3">
-        <v>202.02485043718301</v>
+        <v>288.59773371104802</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>905</v>
+        <v>926</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I37" s="2">
-        <v>78212</v>
+        <v>78669</v>
       </c>
       <c r="J37" t="s">
-        <v>886</v>
+        <v>952</v>
       </c>
       <c r="K37" t="s">
-        <v>887</v>
+        <v>953</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>77940</v>
+        <v>250000</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1792</v>
+        <v>2050</v>
       </c>
       <c r="E38" s="3">
-        <v>43.493303571428498</v>
+        <v>121.951219512195</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>948</v>
+        <v>991</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>949</v>
+        <v>992</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I38" s="2">
-        <v>76309</v>
+        <v>79109</v>
       </c>
       <c r="J38" t="s">
-        <v>888</v>
+        <v>983</v>
       </c>
       <c r="K38" t="s">
-        <v>889</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>215000</v>
+        <v>293000</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -7996,138 +8020,138 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>1980</v>
+        <v>3180</v>
       </c>
       <c r="E39" s="3">
-        <v>108.58585858585801</v>
+        <v>92.138364779874195</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>950</v>
+        <v>1009</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>905</v>
+        <v>930</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I39" s="2">
-        <v>78239</v>
+        <v>76309</v>
       </c>
       <c r="J39" t="s">
-        <v>890</v>
+        <v>1002</v>
       </c>
       <c r="K39" t="s">
-        <v>891</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>189000</v>
+        <v>77940</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>1384</v>
+        <v>1792</v>
       </c>
       <c r="E40" s="3">
-        <v>136.560693641618</v>
+        <v>43.493303571428498</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I40" s="2">
-        <v>77656</v>
+        <v>76309</v>
       </c>
       <c r="J40" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="K40" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>360000</v>
+        <v>382500</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>1645</v>
+        <v>1506</v>
       </c>
       <c r="E41" s="3">
-        <v>218.84498480243099</v>
+        <v>253.984063745019</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>967</v>
+        <v>993</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>968</v>
+        <v>893</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I41" s="2">
-        <v>78006</v>
+        <v>78729</v>
       </c>
       <c r="J41" t="s">
-        <v>962</v>
+        <v>985</v>
       </c>
       <c r="K41" t="s">
-        <v>963</v>
+        <v>986</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>305000</v>
+        <v>309500</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>2643</v>
+        <v>1655</v>
       </c>
       <c r="E42" s="3">
-        <v>115.399167612561</v>
+        <v>187.00906344410799</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>982</v>
+        <v>1010</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I42" s="2">
-        <v>78221</v>
+        <v>78228</v>
       </c>
       <c r="J42" t="s">
-        <v>974</v>
+        <v>1004</v>
       </c>
       <c r="K42" t="s">
-        <v>975</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>675000</v>
+        <v>360000</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -8136,173 +8160,173 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>2154</v>
+        <v>1645</v>
       </c>
       <c r="E43" s="3">
-        <v>313.37047353760403</v>
+        <v>218.84498480243099</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I43" s="2">
-        <v>78676</v>
+        <v>78006</v>
       </c>
       <c r="J43" t="s">
-        <v>458</v>
+        <v>941</v>
       </c>
       <c r="K43" t="s">
-        <v>894</v>
+        <v>942</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>390000</v>
+        <v>305000</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>2497</v>
+        <v>2643</v>
       </c>
       <c r="E44" s="3">
-        <v>156.18742490989101</v>
+        <v>115.399167612561</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="I44" s="2">
+        <v>78221</v>
+      </c>
+      <c r="J44" t="s">
+        <v>954</v>
+      </c>
+      <c r="K44" t="s">
         <v>955</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="I44" s="2">
-        <v>78230</v>
-      </c>
-      <c r="J44" t="s">
-        <v>895</v>
-      </c>
-      <c r="K44" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>379000</v>
+        <v>294900</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>1972</v>
+        <v>1912</v>
       </c>
       <c r="E45" s="3">
-        <v>192.19066937119601</v>
+        <v>154.23640167363999</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I45" s="2">
-        <v>78259</v>
+        <v>78233</v>
       </c>
       <c r="J45" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="K45" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>219000</v>
+        <v>675000</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>2018</v>
+        <v>2154</v>
       </c>
       <c r="E46" s="3">
-        <v>108.523290386521</v>
+        <v>313.37047353760403</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>998</v>
+        <v>931</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>905</v>
+        <v>932</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I46" s="2">
-        <v>78239</v>
+        <v>78676</v>
       </c>
       <c r="J46" t="s">
-        <v>989</v>
+        <v>458</v>
       </c>
       <c r="K46" t="s">
-        <v>990</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>250000</v>
+        <v>390000</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>1892</v>
+        <v>2497</v>
       </c>
       <c r="E47" s="3">
-        <v>132.13530655391099</v>
+        <v>156.18742490989101</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I47" s="2">
-        <v>76549</v>
+        <v>78230</v>
       </c>
       <c r="J47" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="K47" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>200000</v>
+        <v>379000</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -8311,138 +8335,138 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>1092</v>
+        <v>1972</v>
       </c>
       <c r="E48" s="3">
-        <v>183.15018315018301</v>
+        <v>192.19066937119601</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="I48" s="2">
+        <v>78259</v>
+      </c>
+      <c r="J48" t="s">
+        <v>956</v>
+      </c>
+      <c r="K48" t="s">
         <v>957</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="I48" s="2">
-        <v>78640</v>
-      </c>
-      <c r="J48" t="s">
-        <v>458</v>
-      </c>
-      <c r="K48" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>239000</v>
+        <v>219000</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49">
-        <v>1653</v>
+        <v>2018</v>
       </c>
       <c r="E49" s="3">
-        <v>144.585601935874</v>
+        <v>108.523290386521</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I49" s="2">
-        <v>78222</v>
+        <v>78239</v>
       </c>
       <c r="J49" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="K49" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>234999</v>
+        <v>169888</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50">
-        <v>1704</v>
+        <v>1148</v>
       </c>
       <c r="E50" s="3">
-        <v>137.91021126760501</v>
+        <v>147.98606271777001</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>959</v>
+        <v>995</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I50" s="2">
-        <v>76549</v>
+        <v>79904</v>
       </c>
       <c r="J50" t="s">
-        <v>899</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s">
-        <v>900</v>
+        <v>989</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>435000</v>
+        <v>250000</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>2137</v>
+        <v>1892</v>
       </c>
       <c r="E51" s="3">
-        <v>203.55638745905401</v>
+        <v>132.13530655391099</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>960</v>
+        <v>934</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>961</v>
+        <v>909</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I51" s="2">
-        <v>76502</v>
+        <v>76549</v>
       </c>
       <c r="J51" t="s">
-        <v>464</v>
+        <v>885</v>
       </c>
       <c r="K51" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>345000</v>
+        <v>200000</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -8451,98 +8475,203 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>1748</v>
+        <v>1092</v>
       </c>
       <c r="E52" s="3">
-        <v>197.36842105263099</v>
+        <v>183.15018315018301</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>969</v>
+        <v>935</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>970</v>
+        <v>936</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I52" s="2">
-        <v>78133</v>
+        <v>78640</v>
       </c>
       <c r="J52" t="s">
-        <v>964</v>
+        <v>458</v>
       </c>
       <c r="K52" t="s">
-        <v>965</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>129900</v>
+        <v>239000</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>1500</v>
+        <v>1653</v>
       </c>
       <c r="E53" s="3">
-        <v>86.6</v>
+        <v>144.585601935874</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>999</v>
+        <v>964</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1000</v>
+        <v>891</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="I53" s="2">
-        <v>78559</v>
+        <v>78222</v>
       </c>
       <c r="J53" t="s">
-        <v>991</v>
+        <v>958</v>
       </c>
       <c r="K53" t="s">
-        <v>992</v>
+        <v>959</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54">
+        <v>435000</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>2137</v>
+      </c>
+      <c r="E54" s="3">
+        <v>203.55638745905401</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="I54" s="2">
+        <v>76502</v>
+      </c>
+      <c r="J54" t="s">
+        <v>464</v>
+      </c>
+      <c r="K54" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>345000</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1748</v>
+      </c>
+      <c r="E55" s="3">
+        <v>197.36842105263099</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="I55" s="2">
+        <v>78133</v>
+      </c>
+      <c r="J55" t="s">
+        <v>943</v>
+      </c>
+      <c r="K55" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>129900</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1500</v>
+      </c>
+      <c r="E56" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="I56" s="2">
+        <v>78559</v>
+      </c>
+      <c r="J56" t="s">
+        <v>971</v>
+      </c>
+      <c r="K56" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57">
         <v>195000</v>
       </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
         <v>2468</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E57" s="3">
         <v>79.011345218800599</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="I54" s="2">
+      <c r="F57" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="I57" s="2">
         <v>78245</v>
       </c>
-      <c r="J54" t="s">
-        <v>993</v>
-      </c>
-      <c r="K54" t="s">
-        <v>994</v>
+      <c r="J57" t="s">
+        <v>973</v>
+      </c>
+      <c r="K57" t="s">
+        <v>974</v>
       </c>
     </row>
   </sheetData>

--- a/PropertyListings.xlsx
+++ b/PropertyListings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\UiPath\RPA-WebScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81146850-A970-4951-8238-5FC7991FF56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5C1A1F-2408-49CF-BF66-0471870B5D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{FA581EF4-2328-4087-96E0-2C5E239CD657}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{FA581EF4-2328-4087-96E0-2C5E239CD657}"/>
   </bookViews>
   <sheets>
     <sheet name="CA" sheetId="14" r:id="rId1"/>
-    <sheet name="NEW YORK" sheetId="15" r:id="rId2"/>
-    <sheet name="TEXAS" sheetId="23" r:id="rId3"/>
+    <sheet name="NEW YORK" sheetId="25" r:id="rId2"/>
+    <sheet name="TEXAS" sheetId="24" r:id="rId3"/>
     <sheet name="MIAMI" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="840">
   <si>
     <t>Price</t>
   </si>
@@ -1422,6 +1422,9 @@
     <t>https://www.zillow.com/homedetails/701-Opal-Ln-Kyle-TX-78640/28585558_zpid/</t>
   </si>
   <si>
+    <t>DOUGLAS ELLIMAN REAL ESTATE</t>
+  </si>
+  <si>
     <t>ALL CITY REAL ESTATE LTD. CO</t>
   </si>
   <si>
@@ -1434,12 +1437,18 @@
     <t>https://www.zillow.com/homedetails/3902-Torey-Mesquite-San-Antonio-TX-78261/83985853_zpid/</t>
   </si>
   <si>
-    <t>PURE REALTY</t>
-  </si>
-  <si>
     <t>LISTING BY: EXP REALTY</t>
   </si>
   <si>
+    <t>LISTING BY: MITRA HAKIMI REALTY GROUP LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8780-108th-St-Jamaica-NY-11418/32118546_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: WINZONE REALTY INC</t>
+  </si>
+  <si>
     <t>LISTING BY: DANIEL GALE SOTHEBYS INTL RLTY</t>
   </si>
   <si>
@@ -1452,6 +1461,9 @@
     <t>LISTING BY: COLDWELL BANKER AMERICAN HOMES</t>
   </si>
   <si>
+    <t>LISTING BY: KELLER WILLIAMS REALTY NYC GRP</t>
+  </si>
+  <si>
     <t>LISTING BY: SIGNATURE PREMIER PROPERTIES</t>
   </si>
   <si>
@@ -1461,19 +1473,16 @@
     <t>LISTING BY: E REALTY INTERNATIONAL CORP</t>
   </si>
   <si>
-    <t>LISTING BY: HOWARD HANNA RAND REALTY</t>
-  </si>
-  <si>
-    <t>LISTING BY: COLDWELL BANKER REALTY</t>
-  </si>
-  <si>
-    <t>LISTING BY: KEYSTONE REALTY USA CORP</t>
-  </si>
-  <si>
-    <t>LISTING BY: CORCORAN</t>
-  </si>
-  <si>
-    <t>114-43 203 Street, Saint Albans, NY 11412</t>
+    <t>LISTING BY: DOUBLE C REALTY</t>
+  </si>
+  <si>
+    <t>LISTING BY: RE/MAX DISTINGUISHED HMS.&amp;PROP</t>
+  </si>
+  <si>
+    <t>LISTING BY: KELLER WILLIAMS RLTY LANDMARK</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/421-Olmstead-Ave-Bronx-NY-10473/29791463_zpid/</t>
   </si>
   <si>
     <t>LISTING BY: KELLER WILLIAMS REALTY LIBERTY</t>
@@ -1482,7 +1491,13 @@
     <t>https://www.zillow.com/homedetails/11443-203rd-St-Jamaica-NY-11412/32158707_zpid/</t>
   </si>
   <si>
-    <t>115-49 197th Street, Saint Albans, NY 11412</t>
+    <t>https://www.zillow.com/homedetails/5736-156th-St-Flushing-NY-11355/32070591_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: DO ALL REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1562-Allerton-Ave-Bronx-NY-10469/29822266_zpid/</t>
   </si>
   <si>
     <t>LISTING BY: EXIT REALTY CENTRAL</t>
@@ -1491,13 +1506,166 @@
     <t>https://www.zillow.com/homedetails/11549-197th-St-Jamaica-NY-11412/32159382_zpid/</t>
   </si>
   <si>
+    <t>https://www.zillow.com/homedetails/4542-216th-St-Flushing-NY-11361/32082100_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/182-61-Avon-Rd-Jamaica-NY-11432/444761651_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/244-23-86th-Ave-Bellerose-NY-11426/2061097201_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: TSCHERNE REALTY INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/85-23-Eliot-Ave-Middle-Village-NY-11379/447343218_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/99-05-220-Queens-Village-NY-11429/446732498_zpid/</t>
+  </si>
+  <si>
     <t>LISTING BY: BLACKSTONE REALTY</t>
   </si>
   <si>
+    <t>https://www.zillow.com/homedetails/24714-137th-Rd-Jamaica-NY-11422/32206561_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7527-188th-St-Flushing-NY-11366/32079780_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: CITY HOMES REALTY GROUP LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8602-91st-Ave-Jamaica-NY-11421/32110330_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: REONY.COM, INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/839-Clarence-Ave-Bronx-NY-10465/29846220_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8068-Springfield-Blvd-Jamaica-NY-11427/32089531_zpid/</t>
+  </si>
+  <si>
     <t>LISTING BY: KELLER WILLIAMS REALTY GROUP</t>
   </si>
   <si>
-    <t>LISTING BY: CENTURY 21 KAFCOS REALTY</t>
+    <t>https://www.zillow.com/homedetails/515-Edison-Ave-Bronx-NY-10465/29845216_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: TOM CRIMMINS REALTY, LTD</t>
+  </si>
+  <si>
+    <t>LISTING BY: THE SIDMAR GROUP LLC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4219A-De-Reimer-Ave-Bronx-NY-10466/29837713_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1711-Mansion-St-Bronx-NY-10460/29798675_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: EXIT REALTY PRIME</t>
+  </si>
+  <si>
+    <t>LISTING BY: LOVETT REALTY INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4456-Waldo-Ave-Bronx-NY-10471/29852581_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/17316-111th-Ave-Jamaica-NY-11433/32141575_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: MR IMPERIAL REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10830-Avenue-N-Brooklyn-NY-11236/30777760_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7325-244th-St-Flushing-NY-11362/32097369_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: EXIT REALTY UNITED</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/150-56-86th-Ave-Jamaica-NY-11432/2062956669_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: KELLER WILLIAMS REALTY GREATER</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/22240-92nd-Rd-Jamaica-NY-11428/32152579_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: ST ROSE REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/24124-144th-Ave-Jamaica-NY-11422/32209896_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: CENTURY HOMES REALTY GROUP LLC</t>
+  </si>
+  <si>
+    <t>LISTING BY: SAHARA HOMES INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2311-Cortelyou-Rd-Brooklyn-NY-11226/30667901_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: REAL ESTATE AUTHORITIES INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2066-66th-St-Brooklyn-NY-11204/30682497_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/21518-48th-Ave-Bayside-Hills-NY-11364/32083636_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: SOVEREIGN REALTY OF NY INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/16238-98th-St-Jamaica-NY-11414/32217764_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: CHASE GLOBAL REALTY CORP</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14702-29th-Ave-Flushing-NY-11354/32033522_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: LAFFEY REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/254-6-52nd-Rd-Little-Neck-NY-11362/446406912_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/115-E-235th-St-Bronx-NY-10470/29789155_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: CENTURY 21 KR REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/712-E-43rd-St-Brooklyn-NY-11203/30663289_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/150-Dudley-Ave-Staten-Island-NY-10301/440781590_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: CLARKE REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2953-Pearsall-Ave-Bronx-NY-10469/29824321_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: RE/MAX CITY SQUARE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1255-E-52nd-St-Brooklyn-NY-11234/30760233_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/199-W-179th-St-Bronx-NY-10453/29786622_zpid/</t>
   </si>
   <si>
     <t>Street Address</t>
@@ -1512,1026 +1680,9 @@
     <t>Zip Code</t>
   </si>
   <si>
-    <t>195 Forest Road W, Mastic Beach, NY 11951</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/195-Forest-Rd-W-Mastic-Beach-NY-11951/142093518_zpid/</t>
-  </si>
-  <si>
-    <t>7 Harwood Avenue, White Plains, NY 10603</t>
-  </si>
-  <si>
-    <t>LISTING BY: COMPASS GREATER NY, LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7-Harwood-Ave-White-Plains-NY-10603/32974838_zpid/</t>
-  </si>
-  <si>
-    <t>1396 Sturl Avenue, Hewlett, NY 11557</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1396-Sturl-Ave-Hewlett-NY-11557/31251900_zpid/</t>
-  </si>
-  <si>
-    <t>22 Navara Street, Kingston, NY 12401</t>
-  </si>
-  <si>
-    <t>LISTING BY: RIVER REALTY SERVICES, INC.</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/22-Navara-St-Kingston-NY-12401/32834643_zpid/</t>
-  </si>
-  <si>
-    <t>50 Meadow Dr, East Aurora, NY 14052</t>
-  </si>
-  <si>
-    <t>LISTING BY: KELLER WILLIAMS REALTY LANCASTER</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/50-Meadow-Dr-East-Aurora-NY-14052/63882169_zpid/</t>
-  </si>
-  <si>
-    <t>6969 E Lake Rd, Ovid, NY 14521</t>
-  </si>
-  <si>
-    <t>LISTING BY: WCI REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6969-E-Lake-Rd-Ovid-NY-14521/223375965_zpid/</t>
-  </si>
-  <si>
-    <t>8 Sharon Court, Plainview, NY 11803</t>
-  </si>
-  <si>
-    <t>LISTING BY: CENTURY 21 CATAPANO HOMES</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/8-Sharon-Ct-Plainview-NY-11803/31302889_zpid/</t>
-  </si>
-  <si>
-    <t>6 McGill Road, Monroe, NY 10950</t>
-  </si>
-  <si>
-    <t>LISTING BY: IRON VALLEY RE TRI-STATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6-McGill-Rd-Monroe-NY-10950/31828589_zpid/</t>
-  </si>
-  <si>
-    <t>73 Sage Ave, Buffalo, NY 14210</t>
-  </si>
-  <si>
-    <t>LISTING BY: WNY METRO ROBERTS REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/73-Sage-Ave-Buffalo-NY-14210/30211070_zpid/</t>
-  </si>
-  <si>
-    <t>146 Terry St, Hornell, NY 14843</t>
-  </si>
-  <si>
-    <t>LISTING BY: HUNT REAL ESTATE ERA</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/146-Terry-St-Hornell-NY-14843/32568693_zpid/</t>
-  </si>
-  <si>
-    <t>5307 Washington St, Ashville, NY 14710</t>
-  </si>
-  <si>
-    <t>LISTING BY: WALROD REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5307-Washington-St-Ashville-NY-14710/29916680_zpid/</t>
-  </si>
-  <si>
-    <t>45 Oak Drive, Hopewell Junction, NY 12533</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/45-Oak-Dr-Hopewell-Junction-NY-12533/30095534_zpid/</t>
-  </si>
-  <si>
-    <t>64 Hillcrest Avenue, Rye Brook, NY 10573</t>
-  </si>
-  <si>
-    <t>LISTING BY: ALLIANCE RE CONSULTANTS, LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/64-Hillcrest-Ave-Port-Chester-NY-10573/33091303_zpid/</t>
-  </si>
-  <si>
-    <t>1 Sugarmills Cir, Fairport, NY 14450</t>
-  </si>
-  <si>
-    <t>LISTING BY: R REALTY ROCHESTER LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1-Sugarmills-Cir-Fairport-NY-14450/31019053_zpid/</t>
-  </si>
-  <si>
-    <t>278 N Syracuse Avenue, Massapequa, NY 11758</t>
-  </si>
-  <si>
-    <t>LISTING BY: CENTURY 21 AA REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/278-N-Syracuse-Ave-Massapequa-NY-11758/31347918_zpid/</t>
-  </si>
-  <si>
-    <t>53 Mc Nair Drive, Mahopac, NY 10541</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/53-McNair-Dr-Mahopac-NY-10541/31912502_zpid/</t>
-  </si>
-  <si>
-    <t>109 Barnett Dr, Buffalo, NY 14224</t>
-  </si>
-  <si>
-    <t>LISTING BY: HOWARD HANNA WNY INC.</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/109-Barnett-Dr-Buffalo-NY-14224/30416094_zpid/</t>
-  </si>
-  <si>
-    <t>3 Soundview Street, New Rochelle, NY 10805</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/3-Soundview-St-New-Rochelle-NY-10805/62878526_zpid/</t>
-  </si>
-  <si>
-    <t>43 Ski Bowl Road, Hunter, NY 12442</t>
-  </si>
-  <si>
-    <t>LISTING BY: GRIST MILL REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/43-Ski-Bowl-Rd-Hunter-NY-12442/215857624_zpid/</t>
-  </si>
-  <si>
-    <t>154-17 58 Road, Flushing, NY 11355</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/15417-58th-Rd-Flushing-NY-11355/32070525_zpid/</t>
-  </si>
-  <si>
-    <t>72 Hillside Avenue, Haverstraw, NY 10927</t>
-  </si>
-  <si>
-    <t>LISTING BY: BRICK ROAD REALTY INC.</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/72-Hillside-Ave-Haverstraw-NY-10927/32379217_zpid/</t>
-  </si>
-  <si>
-    <t>218-27 94th Drive, Queens Village, NY 11428</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/21827-94th-Dr-Jamaica-NY-11428/32151249_zpid/</t>
-  </si>
-  <si>
-    <t>39 Kindrachuk Road, Glen Spey, NY 12737</t>
-  </si>
-  <si>
-    <t>LISTING BY: KELLER WILLIAMS HUDSON VALLEY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/39-Kindrachuk-Rd-Glen-Spey-NY-12737/54275967_zpid/</t>
-  </si>
-  <si>
-    <t>19 Derfuss Lane, Blauvelt, NY 10913</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/19-Derfuss-Ln-Blauvelt-NY-10913/32391256_zpid/</t>
-  </si>
-  <si>
-    <t>52 Rodney Place, Rockville Centre, NY 11570</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/52-Rodney-Pl-Rockville-Centre-NY-11570/31247983_zpid/</t>
-  </si>
-  <si>
-    <t>2555 Carmel Avenue, Brewster, NY 10509</t>
-  </si>
-  <si>
-    <t>LISTING BY: GREENE REALTY GROUP</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2555-Carmel-Ave-Brewster-NY-10509/31932208_zpid/</t>
-  </si>
-  <si>
-    <t>17 Eastwood Road, Brewster, NY 10509</t>
-  </si>
-  <si>
-    <t>LISTING BY: HOULIHAN LAWRENCE INC.</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/17-Eastwood-Rd-Brewster-NY-10509/31921148_zpid/</t>
-  </si>
-  <si>
-    <t>335 Boston St, Syracuse, NY 13206</t>
-  </si>
-  <si>
-    <t>LISTING BY: KIRNAN REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/335-Boston-St-Syracuse-NY-13206/31664240_zpid/</t>
-  </si>
-  <si>
-    <t>359 Hill Street, Mahopac, NY 10541</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/359-Hill-St-Mahopac-NY-10541/31906237_zpid/</t>
-  </si>
-  <si>
-    <t>327 Whipple Street, Brentwood, NY 11717</t>
-  </si>
-  <si>
-    <t>LISTING BY: THE AGENCY NORTHSHORE NY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/327-Whipple-St-Brentwood-NY-11717/59611909_zpid/</t>
-  </si>
-  <si>
-    <t>94-51 224th Street, Queens Village, NY 11428</t>
-  </si>
-  <si>
-    <t>LISTING BY: HOME X REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/9451-224th-St-Jamaica-NY-11428/32153398_zpid/</t>
-  </si>
-  <si>
-    <t>19 Sherwood Drive, Wallkill, NY 12589</t>
-  </si>
-  <si>
-    <t>LISTING BY: CENTURY 21 ALLIANCE-NP</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/19-Sherwood-Dr-Shawangunk-NY-12589/32875267_zpid/</t>
-  </si>
-  <si>
-    <t>1553 Grand Avenue, Baldwin, NY 11510</t>
-  </si>
-  <si>
-    <t>LISTING BY: NEW GROUP REALTY INC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1553-Grand-Ave-Baldwin-NY-11510/31226761_zpid/</t>
-  </si>
-  <si>
-    <t>4929 Fayetteville Manlius Rd, Manlius, NY 13104</t>
-  </si>
-  <si>
-    <t>LISTING BY: HOWARD HANNA REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/4929-Fayetteville-Manlius-Rd-Manlius-NY-13104/31753680_zpid/</t>
-  </si>
-  <si>
-    <t>153 Durston Ave, Syracuse, NY 13203</t>
-  </si>
-  <si>
-    <t>LISTING BY: ACROPOLIS REALTY GROUP LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/153-Durston-Ave-Syracuse-NY-13203/31659278_zpid/</t>
-  </si>
-  <si>
-    <t>312 East Ave, North Tonawanda, NY 14120</t>
-  </si>
-  <si>
-    <t>LISTING BY: MJ PETERSON REAL ESTATE INC.</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/312-East-Ave-North-Tonawanda-NY-14120/31460000_zpid/</t>
-  </si>
-  <si>
-    <t>55 S Brookside Avenue, Freeport, NY 11520</t>
-  </si>
-  <si>
-    <t>LISTING BY: REALTY EVOLUTION CORP</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/55-S-Brookside-Ave-Freeport-NY-11520/31361876_zpid/</t>
-  </si>
-  <si>
-    <t>54 Ellis Avenue, Northport, NY 11768</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/54-Ellis-Ave-Northport-NY-11768/59339935_zpid/</t>
-  </si>
-  <si>
-    <t>910 4th Street, East Northport, NY 11731</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/910-4th-St-East-Northport-NY-11731/2062652569_zpid/</t>
-  </si>
-  <si>
-    <t>101 Moyer Heights Dr, Liverpool, NY 13088</t>
-  </si>
-  <si>
-    <t>LISTING BY: TODY HOMES INC.</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/101-Moyer-Heights-Dr-Liverpool-NY-13088/31775936_zpid/</t>
-  </si>
-  <si>
-    <t>197 1st Street, Saint James, NY 11780</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/197-1st-St-Saint-James-NY-11780/32687207_zpid/</t>
-  </si>
-  <si>
-    <t>34 Brendel Ave, Hamburg, NY 14075</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/34-Brendel-Ave-Hamburg-NY-14075/30337927_zpid/</t>
-  </si>
-  <si>
-    <t>66-68 Webster Road, Woodstock, NY 12498</t>
-  </si>
-  <si>
-    <t>LISTING BY: COLDWELL BANKER VILLAGE GREEN</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/66-68-Webster-Rd-Woodstock-NY-12498/84113140_zpid/</t>
-  </si>
-  <si>
-    <t>131 Main Street, Setauket, NY 11733</t>
-  </si>
-  <si>
-    <t>LISTING BY: REALTY CONNECT USA L I INC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/131-Main-St-Setauket-NY-11733/59459078_zpid/</t>
-  </si>
-  <si>
-    <t>1163 Woodstock Ave, Tonawanda, NY 14150</t>
-  </si>
-  <si>
-    <t>LISTING BY: HUNT REAL ESTATE CORPORATION</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1163-Woodstock-Ave-Tonawanda-NY-14150/30383338_zpid/</t>
-  </si>
-  <si>
-    <t>1457 Elm Street, Peekskill, NY 10566</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1457-Elm-St-Peekskill-NY-10566/32969926_zpid/</t>
-  </si>
-  <si>
-    <t>87 Lorring Street, Patchogue, NY 11772</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/87-Lorring-St-Patchogue-NY-11772/59535581_zpid/</t>
-  </si>
-  <si>
-    <t>73 Bayard Street, Lake Grove, NY 11755</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/73-Bayard-St-Lake-Grove-NY-11755/59449193_zpid/</t>
-  </si>
-  <si>
-    <t>352 Springville Ave, Amherst, NY 14226</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/352-Springville-Ave-Amherst-NY-14226/30256521_zpid/</t>
-  </si>
-  <si>
-    <t>183 County Road 65, Windham, NY 12496</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/183-County-Road-65-Windham-NY-12496/447473089_zpid/</t>
-  </si>
-  <si>
-    <t>48-19 208th Street, Bayside, NY 11364</t>
-  </si>
-  <si>
-    <t>LISTING BY: RE/MAX 1ST CHOICE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/4819-208th-St-Flushing-NY-11364/32082942_zpid/</t>
-  </si>
-  <si>
-    <t>4986 Ledge Ln, Williamsville, NY 14221</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/4986-Ledge-Ln-Williamsville-NY-14221/30310593_zpid/</t>
-  </si>
-  <si>
-    <t>44 Avenue F, Ronkonkoma, NY 11779</t>
-  </si>
-  <si>
-    <t>LISTING BY: COLDWELL BANKER M&amp;D GOOD LIFE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/44-Avenue-F-Ronkonkoma-NY-11779/59332371_zpid/</t>
-  </si>
-  <si>
-    <t>116 Dunlop Ave, Buffalo, NY 14215</t>
-  </si>
-  <si>
-    <t>LISTING BY: FLIPPED REALTY LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/116-Dunlop-Ave-Buffalo-NY-14215/30163354_zpid/</t>
-  </si>
-  <si>
-    <t>914 Northern Boulevard, Baldwin, NY 11510</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/914-Northern-Blvd-Baldwin-NY-11510/31370977_zpid/</t>
-  </si>
-  <si>
-    <t>307 Old Colony Road, Hartsdale, NY 10530</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/307-Old-Colony-Rd-Hartsdale-NY-10530/33033733_zpid/</t>
-  </si>
-  <si>
-    <t>8293 Luchsinger Ln, Baldwinsville, NY 13027</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/8293-Luchsinger-Ln-Baldwinsville-NY-13027/89602373_zpid/</t>
-  </si>
-  <si>
-    <t>7 High Ridge Road, Monroe, NY 10950</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7-High-Ridge-Rd-Monroe-NY-10950/31828663_zpid/</t>
-  </si>
-  <si>
-    <t>255-31 Iowa Road, Great Neck, NY 11020</t>
-  </si>
-  <si>
-    <t>LISTING BY: KELLER WILLIAMS RTY GOLD COAST</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/25531-Iowa-Rd-Great-Neck-NY-11020/167373660_zpid/</t>
-  </si>
-  <si>
-    <t>660 Clarence Avenue, Bronx, NY 10465</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/660-Clarence-Ave-Bronx-NY-10465/29846468_zpid/</t>
-  </si>
-  <si>
-    <t>135 Sisters Hill Road, Stanfordville, NY 12581</t>
-  </si>
-  <si>
-    <t>LISTING BY: GINER REAL ESTATE INC.</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/135-Sisters-Hill-Rd-Stanfordville-NY-12581/446674675_zpid/</t>
-  </si>
-  <si>
-    <t>712 Pease Lane, West Islip, NY 11795</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/712-Pease-Ln-West-Islip-NY-11795/59661078_zpid/</t>
-  </si>
-  <si>
-    <t>205 Highland Ave, Syracuse, NY 13203</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/205-Highland-Ave-Syracuse-NY-13203/31660135_zpid/</t>
-  </si>
-  <si>
-    <t>17 Locust Street, Walden, NY 12586</t>
-  </si>
-  <si>
-    <t>LISTING BY: ATELIER PROPERTIES LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/17-Locust-St-Walden-NY-12586/31832500_zpid/</t>
-  </si>
-  <si>
-    <t>905 Ridge Rd, Lewiston, NY 14092</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/905-Ridge-Rd-Lewiston-NY-14092/60196297_zpid/</t>
-  </si>
-  <si>
-    <t>8146 Old Sunridge Dr, Manlius, NY 13104</t>
-  </si>
-  <si>
-    <t>LISTING BY: BERKSHIRE HATHAWAY HOMESERVICES HERITAGE REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/8146-Old-Sunridge-Dr-Manlius-NY-13104/31746892_zpid/</t>
-  </si>
-  <si>
-    <t>26 Sunset Drive, North Salem, NY 10560</t>
-  </si>
-  <si>
-    <t>LISTING BY: KELLER WILLIAMS REALTY PARTNER</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/26-Sunset-Dr-North-Salem-NY-10560/33071993_zpid/</t>
-  </si>
-  <si>
-    <t>15 Solar Lane, Levittown, NY 11756</t>
-  </si>
-  <si>
-    <t>LISTING BY: VORO LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/15-Solar-Ln-Levittown-NY-11756/31295973_zpid/</t>
-  </si>
-  <si>
-    <t>514 Pleasant Ave, Ogdensburg, NY 13669</t>
-  </si>
-  <si>
-    <t>LISTING BY: LISA WOODWARD HOMES LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/514-Pleasant-Ave-Ogdensburg-NY-13669/32530550_zpid/</t>
-  </si>
-  <si>
-    <t>103 Seminary Avenue, Yonkers, NY 10704</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/103-Seminary-Ave-Yonkers-NY-10704/33003494_zpid/</t>
-  </si>
-  <si>
-    <t>33 Kipp Street, Chappaqua, NY 10514</t>
-  </si>
-  <si>
-    <t>LISTING BY: CHRISTIE'S INT. REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/33-Kipp-St-Chappaqua-NY-10514/33066276_zpid/</t>
-  </si>
-  <si>
-    <t>388 Puritan Drive, Shirley, NY 11967</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/388-Puritan-Dr-Shirley-NY-11967/59513133_zpid/</t>
-  </si>
-  <si>
-    <t>32 Otterden Ln, Fairport, NY 14450</t>
-  </si>
-  <si>
-    <t>LISTING BY: COLDWELL BANKER CUSTOM REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/32-Otterden-Ln-Fairport-NY-14450/31018536_zpid/</t>
-  </si>
-  <si>
-    <t>117 Gertrude St, North Syracuse, NY 13212</t>
-  </si>
-  <si>
-    <t>LISTING BY: INTEGRATED REAL ESTATE SER LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/117-Gertrude-St-North-Syracuse-NY-13212/31694898_zpid/</t>
-  </si>
-  <si>
-    <t>157 Wilson Place, Freeport, NY 11520</t>
-  </si>
-  <si>
-    <t>LISTING BY: MODERN SPACES LOVE YOUR PLACE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/157-Wilson-Pl-Freeport-NY-11520/31369494_zpid/</t>
-  </si>
-  <si>
-    <t>818 Pulaski Street, Riverhead, NY 11901</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/818-Pulaski-St-Riverhead-NY-11901/142436597_zpid/</t>
-  </si>
-  <si>
-    <t>4671 Burleson Rd, Oneida, NY 13421</t>
-  </si>
-  <si>
-    <t>LISTING BY: CENTURY 21 ONE REALTY PARTNERS</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/4671-Burleson-Rd-Oneida-NY-13421/30837087_zpid/</t>
-  </si>
-  <si>
-    <t>48 Lockwood Road, South Salem, NY 10590</t>
-  </si>
-  <si>
-    <t>LISTING BY: JULIA B FEE SOTHEBYS INT. RLTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/48-Lockwood-Rd-South-Salem-NY-10590/247834867_zpid/</t>
-  </si>
-  <si>
-    <t>42 Mcguffey Road, Kerhonkson, NY 12446</t>
-  </si>
-  <si>
-    <t>LISTING BY: CENTURY 21 ALLIANCE RLTY GROUP</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/42-McGuffey-Rd-Kerhonkson-NY-12446/32860361_zpid/</t>
-  </si>
-  <si>
-    <t>90 Ohio Avenue, Medford, NY 11763</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/90-Ohio-Ave-Medford-NY-11763/59273346_zpid/</t>
-  </si>
-  <si>
-    <t>12 Cottonwood Road, Elizaville, NY 12523</t>
-  </si>
-  <si>
-    <t>LISTING BY: HALTER ASSOCIATES REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/12-Cottonwood-Rd-Elizaville-NY-12523/98691304_zpid/</t>
-  </si>
-  <si>
-    <t>134 Ivy Street, Oyster Bay, NY 11771</t>
-  </si>
-  <si>
-    <t>LISTING BY: COMPASS GREATER NY LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/134-Ivy-St-Oyster-Bay-NY-11771/31161422_zpid/</t>
-  </si>
-  <si>
-    <t>18 Schley Avenue, Lindenhurst, NY 11757</t>
-  </si>
-  <si>
-    <t>LISTING BY: ISLAND ADVANTAGE REALTY LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/18-Schley-Ave-Lindenhurst-NY-11757/32647658_zpid/</t>
-  </si>
-  <si>
-    <t>5 Johnson Place, Rye, NY 10580</t>
-  </si>
-  <si>
-    <t>LISTING BY: STETSON REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5-Johnson-Pl-Rye-NY-10580/58406961_zpid/</t>
-  </si>
-  <si>
-    <t>101 Berwyn Dr, Camillus, NY 13031</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/101-Berwyn-Dr-Camillus-NY-13031/31694137_zpid/</t>
-  </si>
-  <si>
-    <t>20 Hemlock Drive, Farmingdale, NY 11735</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/20-Hemlock-Dr-Farmingdale-NY-11735/31317046_zpid/</t>
-  </si>
-  <si>
-    <t>28 Alabama Street, Long Beach, NY 11561</t>
-  </si>
-  <si>
-    <t>LISTING BY: RE/MAX BEACH WEST</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/28-Alabama-St-Long-Beach-NY-11561/31407931_zpid/</t>
-  </si>
-  <si>
-    <t>29 Riverview Trail, Croton-On-Hudson, NY 10520</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/29-Riverview-Trl-Croton-On-Hudson-NY-10520/58408721_zpid/</t>
-  </si>
-  <si>
-    <t>1161 Lake Rd, Oneida, NY 13421</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1161-Lake-Rd-Oneida-NY-13421/30825639_zpid/</t>
-  </si>
-  <si>
-    <t>465 Plutarch Road, Highland, NY 12528</t>
-  </si>
-  <si>
-    <t>LISTING BY: Q HOME SALES</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/465-Plutarch-Rd-New-Paltz-NY-12528/32854752_zpid/</t>
-  </si>
-  <si>
-    <t>57 Cold Water St, Hillsdale, NY 12529</t>
-  </si>
-  <si>
-    <t>LISTING BY: FOUR SEASONS SOTHEBY'S INT.</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/57-Cold-Water-St-Hillsdale-NY-12529/2057476042_zpid/</t>
-  </si>
-  <si>
-    <t>3143 W Lake Rd, Skaneateles, NY 13152</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/3143-W-Lake-Rd-Skaneateles-NY-13152/31780074_zpid/</t>
-  </si>
-  <si>
-    <t>45 Wisconsin Street, Long Beach, NY 11561</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/45-Wisconsin-St-Long-Beach-NY-11561/31407863_zpid/</t>
-  </si>
-  <si>
-    <t>18 Carole Place, Mahopac, NY 10541</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/18-Carole-Pl-Mahopac-NY-10541/55525432_zpid/</t>
-  </si>
-  <si>
-    <t>23 Crestwood Drive, New City, NY 10956</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/23-Crestwood-Dr-New-City-NY-10956/53396327_zpid/</t>
-  </si>
-  <si>
-    <t>206 Elk St, Springville, NY 14141</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/206-Elk-St-Springville-NY-14141/30316393_zpid/</t>
-  </si>
-  <si>
-    <t>343 Brookville Avenue, Islip, NY 11751</t>
-  </si>
-  <si>
-    <t>LISTING BY: RE/MAX BEST</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/343-Brookville-Ave-Islip-NY-11751/59354394_zpid/</t>
-  </si>
-  <si>
-    <t>627 N Broadway, Nyack, NY 10960</t>
-  </si>
-  <si>
-    <t>LISTING BY: WRIGHT BROS REAL ESTATE INC.</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/627-N-Broadway-Nyack-NY-10960/447444355_zpid/</t>
-  </si>
-  <si>
-    <t>562 New Concord Rd, East Chatham, NY 12060</t>
-  </si>
-  <si>
-    <t>LISTING BY: CENTURY 21 NEW WEST</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/562-New-Concord-Rd-East-Chatham-NY-12060/30000744_zpid/</t>
-  </si>
-  <si>
-    <t>430 Route 32c, Windham, NY 12496</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/430-Route-32c-Windham-NY-12496/2118665465_zpid/</t>
-  </si>
-  <si>
-    <t>226 Croly St, Syracuse, NY 13224</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/226-Croly-St-Syracuse-NY-13224/31666627_zpid/</t>
-  </si>
-  <si>
-    <t>251 E Argyle Street, Valley Stream, NY 11580</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/251-E-Argyle-St-Valley-Stream-NY-11580/31229006_zpid/</t>
-  </si>
-  <si>
-    <t>223 Pennsylvania St, Buffalo, NY 14201</t>
-  </si>
-  <si>
-    <t>LISTING BY: BUFFALO HOME SELLERS LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/223-Pennsylvania-St-Buffalo-NY-14201/30184237_zpid/</t>
-  </si>
-  <si>
-    <t>9446 Route 32, Freehold, NY 12431</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/9446-Route-32-Freehold-NY-12431/440502796_zpid/</t>
-  </si>
-  <si>
-    <t>17 Tobins Lane, Highland Falls, NY 10928</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/17-Tobins-Ln-Highland-Falls-NY-10928/31821954_zpid/</t>
-  </si>
-  <si>
-    <t>20 Barnes St, Gouverneur, NY 13642</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/20-Barnes-St-Gouverneur-NY-13642/32540177_zpid/</t>
-  </si>
-  <si>
-    <t>107-17 157th Street, Jamaica, NY 11433</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/10717-157th-St-Jamaica-NY-11433/32138039_zpid/</t>
-  </si>
-  <si>
-    <t>1316 Peapond Road, North Bellmore, NY 11710</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1316-Pea-Pond-Rd-Bellmore-NY-11710/31387165_zpid/</t>
-  </si>
-  <si>
-    <t>29 Whitfield Lane, Coram, NY 11727</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/29-Whitfield-Ln-Coram-NY-11727/59321887_zpid/</t>
-  </si>
-  <si>
-    <t>145-70 220 Street, Springfield Gardens, NY 11413</t>
-  </si>
-  <si>
-    <t>LISTING BY: MAYJAY PROPERTY MANAGEMENT</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/145-70-220th-St-Springfield-Gardens-NY-11413/348544093_zpid/</t>
-  </si>
-  <si>
-    <t>26 Fairview, Quiogue, NY 11978</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/26-Fairview-Ave-Westhampton-Beach-NY-11978/32744084_zpid/</t>
-  </si>
-  <si>
-    <t>501 Barr St, Jamestown, NY 14701</t>
-  </si>
-  <si>
-    <t>LISTING BY: ERA TEAM VP REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/501-Barr-St-Jamestown-NY-14701/29890622_zpid/</t>
-  </si>
-  <si>
-    <t>13361 Irving St, Alden, NY 14004</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/13361-Irving-St-Alden-NY-14004/30231262_zpid/</t>
-  </si>
-  <si>
-    <t>216 Goodfellow Rd #210, Fulton, NY 13069</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/216-Goodfellow-Rd-210-Fulton-NY-13069/446962937_zpid/</t>
-  </si>
-  <si>
-    <t>182 Hill Top Rd, Pine Plains, NY 12567</t>
-  </si>
-  <si>
-    <t>LISTING BY: PATRICIA A. HINKEIN REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/182-Hill-Top-Rd-Pine-Plains-NY-12567/70900759_zpid/</t>
-  </si>
-  <si>
-    <t>12 Dickel Road, Scarsdale, NY 10583</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/12-Dickel-Rd-Scarsdale-NY-10583/33095815_zpid/</t>
-  </si>
-  <si>
-    <t>10 Berry Hill, Mountainville, NY 12518</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/10-Berry-Hl-Cornwall-NY-12518/446946013_zpid/</t>
-  </si>
-  <si>
-    <t>31 Seneca Trce, Painted Post, NY 14870</t>
-  </si>
-  <si>
-    <t>LISTING BY: SIGNATURE PROPERTIES CORNING</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/31-Seneca-Trce-Painted-Post-NY-14870/59991794_zpid/</t>
-  </si>
-  <si>
-    <t>7 Kile Court, Airmont, NY 10952</t>
-  </si>
-  <si>
-    <t>LISTING BY: MARK ONE REAL ESTATE</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7-Kile-Ct-Airmont-NY-10952/53429620_zpid/</t>
-  </si>
-  <si>
-    <t>15 Bayview Street E, Massapequa, NY 11758</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/15-Bayview-St-E-Massapequa-NY-11758/31428518_zpid/</t>
-  </si>
-  <si>
-    <t>37 Wilmington Drive, Melville, NY 11747</t>
-  </si>
-  <si>
-    <t>LISTING BY: SRG RESIDENTIAL LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/37-Wilmington-Dr-Melville-NY-11747/59596550_zpid/</t>
-  </si>
-  <si>
-    <t>410 Landing Avenue, Smithtown, NY 11787</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/410-Landing-Ave-Smithtown-NY-11787/32689377_zpid/</t>
-  </si>
-  <si>
-    <t>58 Goose Hill Road, Cold Spring Harbor, NY 11724</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/58-Goose-Hill-Rd-Cold-Spring-Harbor-NY-11724/444724180_zpid/</t>
-  </si>
-  <si>
-    <t>23 Lombardy St, Lancaster, NY 14086</t>
-  </si>
-  <si>
-    <t>LISTING BY: BERKSHIRE HATHAWAY HOMESERVICES ZAMBITO REALTORS</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/23-Lombardy-St-Lancaster-NY-14086/30357244_zpid/</t>
-  </si>
-  <si>
-    <t>87 W Chester Street, Kingston, NY 12401</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/87-W-Chester-St-Kingston-NY-12401/32835040_zpid/</t>
-  </si>
-  <si>
-    <t>97-23 132 Street, South Ozone Park, NY 11419</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/97-23-132nd-St-South-Richmond-Hill-NY-11419/443219433_zpid/</t>
-  </si>
-  <si>
-    <t>18 Andrews Lane, Sleepy Hollow, NY 10591</t>
-  </si>
-  <si>
-    <t>LISTING BY: BHHS HUDSON VALLEY PROPERTIES</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/18-Andrews-Ln-Sleepy-Hollow-NY-10591/33052684_zpid/</t>
-  </si>
-  <si>
-    <t>17049 Norway Hts, Kendall, NY 14476</t>
-  </si>
-  <si>
-    <t>LISTING BY: RE/MAX PLUS</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/17049-Norway-Hts-Kendall-NY-14476/53175871_zpid/</t>
-  </si>
-  <si>
-    <t>133 Herzl Street, Brooklyn, NY 11212</t>
-  </si>
-  <si>
     <t>LISTING BY: OWNER ENTRY.COM</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/133-Herzl-St-Brooklyn-NY-11212/30631735_zpid/</t>
-  </si>
-  <si>
-    <t>1483 Plum Lane, East Meadow, NY 11554</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1483-Plum-Ln-East-Meadow-NY-11554/31330281_zpid/</t>
-  </si>
-  <si>
-    <t>459 S 1st Avenue, Mount Vernon, NY 10550</t>
-  </si>
-  <si>
-    <t>LISTING BY: KKD REAL ESTATE GROUP LLC</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/459-S-1st-Ave-Mount-Vernon-NY-10550/32955142_zpid/</t>
-  </si>
-  <si>
-    <t>71 Derby Avenue, Greenlawn, NY 11740</t>
-  </si>
-  <si>
-    <t>LISTING BY: RE/MAX INTEGRITY LEADERS</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/71-Derby-Ave-Greenlawn-NY-11740/59344346_zpid/</t>
-  </si>
-  <si>
-    <t>10 Lenore Street, Syosset, NY 11791</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/10-Lenore-St-Syosset-NY-11791/31143579_zpid/</t>
-  </si>
-  <si>
-    <t>195 Forest Road W</t>
-  </si>
-  <si>
-    <t>Mastic Beach</t>
-  </si>
-  <si>
-    <t>NY 11951</t>
-  </si>
-  <si>
     <t>REAL, Dylan Forde TREC #759737</t>
   </si>
   <si>
@@ -2688,24 +1839,12 @@
     <t>https://www.zillow.com/homedetails/2114-Shepherd-St-Wichita-Falls-TX-76309/78904446_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/6-Hickory-Ct-Wimberley-TX-78676/250391248_zpid/</t>
-  </si>
-  <si>
     <t>KELLER WILLIAMS CITY-VIEW, Shane Neal TREC #608871</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/3514-Lakefield-St-San-Antonio-TX-78230/26330482_zpid/</t>
   </si>
   <si>
-    <t>EG REALTY</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5506-Holster-Dr-Killeen-TX-76549/79903127_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/16113-Charlya-Dr-Temple-TX-76502/49530861_zpid/</t>
-  </si>
-  <si>
     <t>105 WHITWING WAY</t>
   </si>
   <si>
@@ -2835,30 +1974,15 @@
     <t>Wichita Falls</t>
   </si>
   <si>
-    <t>6 Hickory Ct</t>
-  </si>
-  <si>
-    <t>Wimberley</t>
-  </si>
-  <si>
     <t>3514 LAKEFIELD ST</t>
   </si>
   <si>
-    <t>5506 Holster Dr</t>
-  </si>
-  <si>
     <t>701 Opal Ln</t>
   </si>
   <si>
     <t>Kyle</t>
   </si>
   <si>
-    <t>16113 Charlya Dr</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
     <t>LPT REALTY, LLC, Christopher Perez TREC #815467</t>
   </si>
   <si>
@@ -3073,6 +2197,369 @@
   </si>
   <si>
     <t>3606 FRED ROSS LN</t>
+  </si>
+  <si>
+    <t>TNT REAL ESTATE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/180-Ebony-Dr-San-Benito-TX-78586/50727390_zpid/</t>
+  </si>
+  <si>
+    <t>OPTION ONE REAL ESTATE, Nathan Mabery TREC #762565</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1710-N-Hamilton-St-San-Antonio-TX-78201/26121768_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/400-Crockett-Loop-Georgetown-TX-78633/67051973_zpid/</t>
+  </si>
+  <si>
+    <t>EXP REALTY, Audrey Ethridge TREC #555282</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11107-Hollow-Cyn-San-Antonio-TX-78252/80019721_zpid/</t>
+  </si>
+  <si>
+    <t>FRONTLINE REALTY, Theresa Slater TREC #684142</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8526-Modred-St-San-Antonio-TX-78254/26433002_zpid/</t>
+  </si>
+  <si>
+    <t>RE/MAX ONE</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12270-Old-Highway-62-Orange-TX-77632/52852856_zpid/</t>
+  </si>
+  <si>
+    <t>180 Ebony Dr</t>
+  </si>
+  <si>
+    <t>San Benito</t>
+  </si>
+  <si>
+    <t>1710 N Hamilton St</t>
+  </si>
+  <si>
+    <t>400 Crockett Loop</t>
+  </si>
+  <si>
+    <t>11107 HOLLOW CANYON</t>
+  </si>
+  <si>
+    <t>8526 MODRED ST</t>
+  </si>
+  <si>
+    <t>12270 Old Highway 62</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/21624-115th-Ter-Jamaica-NY-11411/32164944_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1233-Todt-Hill-Rd-Staten-Island-NY-10304/32295203_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: COLDWELL BANKER NAPOLITANO RLT</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8972-Cooper-Ave-Flushing-NY-11374/32002077_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/199-35-34th-Ave-Flushing-NY-11358/2068641335_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: PROMINENT PROPERTIES SOTHEBY'S</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1034B-Vincent-Ave-B-Bronx-NY-10465/29845763_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: ERA INSITE REALTY SERVICES</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3279-Barkley-Ave-Bronx-NY-10465/29845919_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: BETTER HOMES &amp; ESTATES RLTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10027-Francis-Lewis-Blvd-Jamaica-NY-11429/32154518_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: D NETWORK REALTY INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/22717-113th-Dr-Jamaica-NY-11429/32164360_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/197-20-118th-Ave-Saint-Albans-NY-11412/2058517425_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15-3-144th-St-Whitestone-NY-11357/445924496_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8560-67th-Ave-Flushing-NY-11374/32000994_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1226-Shakespeare-Ave-Bronx-NY-10452/29778310_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: WW REALTY GROUP INC</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2350-Aqueduct-Ave-Bronx-NY-10468/447473394_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: HAN TANG REALTY INC.</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1059-Neill-Ave-Bronx-NY-10461/29818393_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: MOVING KEYZ REALTY</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/22728-114th-Rd-Jamaica-NY-11411/32164447_zpid/</t>
+  </si>
+  <si>
+    <t>LISTING BY: EXIT REALTY PREMIUM</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1077-Adee-Ave-Bronx-NY-10469/29824943_zpid/</t>
+  </si>
+  <si>
+    <t>421 Olmstead Avenue</t>
+  </si>
+  <si>
+    <t>Bronx</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>114-43 203 Street</t>
+  </si>
+  <si>
+    <t>Saint Albans</t>
+  </si>
+  <si>
+    <t>87-80 108th Street</t>
+  </si>
+  <si>
+    <t>Richmond Hill</t>
+  </si>
+  <si>
+    <t>57-36 156th Street</t>
+  </si>
+  <si>
+    <t>Flushing</t>
+  </si>
+  <si>
+    <t>1562 Allerton Avenue</t>
+  </si>
+  <si>
+    <t>115-49 197th Street</t>
+  </si>
+  <si>
+    <t>4542 216th Street</t>
+  </si>
+  <si>
+    <t>Bayside</t>
+  </si>
+  <si>
+    <t>182-61 Avon Road</t>
+  </si>
+  <si>
+    <t>Jamaica Estates</t>
+  </si>
+  <si>
+    <t>244-23 86th Avenue</t>
+  </si>
+  <si>
+    <t>Bellerose</t>
+  </si>
+  <si>
+    <t>85-23 Eliot Avenue</t>
+  </si>
+  <si>
+    <t>Middle Village</t>
+  </si>
+  <si>
+    <t>99-05 220</t>
+  </si>
+  <si>
+    <t>Queens Village</t>
+  </si>
+  <si>
+    <t>247-14 137th Road</t>
+  </si>
+  <si>
+    <t>Rosedale</t>
+  </si>
+  <si>
+    <t>75-27 188 Street</t>
+  </si>
+  <si>
+    <t>Fresh Meadows</t>
+  </si>
+  <si>
+    <t>86-02 91 Avenue</t>
+  </si>
+  <si>
+    <t>Woodhaven</t>
+  </si>
+  <si>
+    <t>839 Clarence Avenue</t>
+  </si>
+  <si>
+    <t>8068 Springfield Boulevard</t>
+  </si>
+  <si>
+    <t>Hollis Hills</t>
+  </si>
+  <si>
+    <t>515 Edison Avenue</t>
+  </si>
+  <si>
+    <t>216-24 115th Terrace</t>
+  </si>
+  <si>
+    <t>Cambria Heights</t>
+  </si>
+  <si>
+    <t>4219A De Reimer Avenue</t>
+  </si>
+  <si>
+    <t>1711 Mansion Street</t>
+  </si>
+  <si>
+    <t>1233 Todt Hill Road</t>
+  </si>
+  <si>
+    <t>Staten Island</t>
+  </si>
+  <si>
+    <t>4456 Waldo Avenue</t>
+  </si>
+  <si>
+    <t>173-16 111th Ave</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>10830 Avenue N</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>73-25 244 Street</t>
+  </si>
+  <si>
+    <t>Little Neck</t>
+  </si>
+  <si>
+    <t>150-56 86th Ave</t>
+  </si>
+  <si>
+    <t>222-40 92nd Road</t>
+  </si>
+  <si>
+    <t>24124 144th Avenue</t>
+  </si>
+  <si>
+    <t>8972 Cooper Avenue</t>
+  </si>
+  <si>
+    <t>Rego Park</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>199-35 34th Avenue</t>
+  </si>
+  <si>
+    <t>2311 Cortelyou Road</t>
+  </si>
+  <si>
+    <t>2066 66th Street</t>
+  </si>
+  <si>
+    <t>1034B Vincent Avenue</t>
+  </si>
+  <si>
+    <t>215-18 48th Avenue</t>
+  </si>
+  <si>
+    <t>162-38 98th Street</t>
+  </si>
+  <si>
+    <t>Howard Beach</t>
+  </si>
+  <si>
+    <t>3279 Barkley Avenue</t>
+  </si>
+  <si>
+    <t>147-02 29th ave</t>
+  </si>
+  <si>
+    <t>254-6 52 Road</t>
+  </si>
+  <si>
+    <t>100-27 FRANCIS LEWIS BLVD</t>
+  </si>
+  <si>
+    <t>227-17 113 Drive</t>
+  </si>
+  <si>
+    <t>115 East 235th Street</t>
+  </si>
+  <si>
+    <t>712 E 43rd Street</t>
+  </si>
+  <si>
+    <t>150 Dudley Avenue</t>
+  </si>
+  <si>
+    <t>197-20 118th Avenue</t>
+  </si>
+  <si>
+    <t>3 144th Street</t>
+  </si>
+  <si>
+    <t>Whitestone</t>
+  </si>
+  <si>
+    <t>8560 67th Avenue</t>
+  </si>
+  <si>
+    <t>2953 Pearsall Avenue</t>
+  </si>
+  <si>
+    <t>1226 Shakespeare Avenue</t>
+  </si>
+  <si>
+    <t>2350 Aqueduct Avenue</t>
+  </si>
+  <si>
+    <t>1255 E 52nd Street</t>
+  </si>
+  <si>
+    <t>1059 Neill Avenue</t>
+  </si>
+  <si>
+    <t>227-28 114 road</t>
+  </si>
+  <si>
+    <t>199 W 179th Street</t>
+  </si>
+  <si>
+    <t>1077 Adee Avenue</t>
   </si>
 </sst>
 </file>
@@ -3474,16 +2961,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -3498,3177 +2985,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C938903F-2E17-46E3-BB42-EB6B068DE0CA}">
-  <dimension ref="A1:K136"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="5" max="5" width="39.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" style="1"/>
-    <col min="9" max="9" width="9.06640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>450000</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1400</v>
-      </c>
-      <c r="E2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="J2" t="s">
-        <v>471</v>
-      </c>
-      <c r="K2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>689000</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1388</v>
-      </c>
-      <c r="E3" t="s">
-        <v>492</v>
-      </c>
-      <c r="J3" t="s">
-        <v>493</v>
-      </c>
-      <c r="K3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>779000</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1681</v>
-      </c>
-      <c r="E4" t="s">
-        <v>495</v>
-      </c>
-      <c r="J4" t="s">
-        <v>471</v>
-      </c>
-      <c r="K4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>185500</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1380</v>
-      </c>
-      <c r="E5" t="s">
-        <v>497</v>
-      </c>
-      <c r="J5" t="s">
-        <v>498</v>
-      </c>
-      <c r="K5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>299900</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1668</v>
-      </c>
-      <c r="E6" t="s">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>501</v>
-      </c>
-      <c r="K6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>329900</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1812</v>
-      </c>
-      <c r="E7" t="s">
-        <v>503</v>
-      </c>
-      <c r="J7" t="s">
-        <v>504</v>
-      </c>
-      <c r="K7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>799000</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1422</v>
-      </c>
-      <c r="E8" t="s">
-        <v>506</v>
-      </c>
-      <c r="J8" t="s">
-        <v>507</v>
-      </c>
-      <c r="K8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>280000</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1200</v>
-      </c>
-      <c r="E9" t="s">
-        <v>509</v>
-      </c>
-      <c r="J9" t="s">
-        <v>510</v>
-      </c>
-      <c r="K9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>164900</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1468</v>
-      </c>
-      <c r="E10" t="s">
-        <v>512</v>
-      </c>
-      <c r="J10" t="s">
-        <v>513</v>
-      </c>
-      <c r="K10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>54900</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1394</v>
-      </c>
-      <c r="E11" t="s">
-        <v>515</v>
-      </c>
-      <c r="J11" t="s">
-        <v>516</v>
-      </c>
-      <c r="K11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>49999</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1584</v>
-      </c>
-      <c r="E12" t="s">
-        <v>518</v>
-      </c>
-      <c r="J12" t="s">
-        <v>519</v>
-      </c>
-      <c r="K12" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>399000</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1620</v>
-      </c>
-      <c r="E13" t="s">
-        <v>521</v>
-      </c>
-      <c r="J13" t="s">
-        <v>465</v>
-      </c>
-      <c r="K13" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>460000</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>477</v>
-      </c>
-      <c r="J14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>550000</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1272</v>
-      </c>
-      <c r="E15" t="s">
-        <v>523</v>
-      </c>
-      <c r="J15" t="s">
-        <v>524</v>
-      </c>
-      <c r="K15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>299999</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1718</v>
-      </c>
-      <c r="E16" t="s">
-        <v>526</v>
-      </c>
-      <c r="J16" t="s">
-        <v>527</v>
-      </c>
-      <c r="K16" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>699000</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1462</v>
-      </c>
-      <c r="E17" t="s">
-        <v>529</v>
-      </c>
-      <c r="J17" t="s">
-        <v>530</v>
-      </c>
-      <c r="K17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>575000</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1908</v>
-      </c>
-      <c r="E18" t="s">
-        <v>532</v>
-      </c>
-      <c r="J18" t="s">
-        <v>473</v>
-      </c>
-      <c r="K18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>210000</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1526</v>
-      </c>
-      <c r="E19" t="s">
-        <v>534</v>
-      </c>
-      <c r="J19" t="s">
-        <v>535</v>
-      </c>
-      <c r="K19" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>499999</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1633</v>
-      </c>
-      <c r="E20" t="s">
-        <v>537</v>
-      </c>
-      <c r="J20" t="s">
-        <v>484</v>
-      </c>
-      <c r="K20" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>269900</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1351</v>
-      </c>
-      <c r="E21" t="s">
-        <v>539</v>
-      </c>
-      <c r="J21" t="s">
-        <v>540</v>
-      </c>
-      <c r="K21" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>978000</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>1086</v>
-      </c>
-      <c r="E22" t="s">
-        <v>542</v>
-      </c>
-      <c r="J22" t="s">
-        <v>472</v>
-      </c>
-      <c r="K22" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>569900</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1863</v>
-      </c>
-      <c r="E23" t="s">
-        <v>544</v>
-      </c>
-      <c r="J23" t="s">
-        <v>545</v>
-      </c>
-      <c r="K23" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>750000</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1420</v>
-      </c>
-      <c r="E24" t="s">
-        <v>547</v>
-      </c>
-      <c r="J24" t="s">
-        <v>465</v>
-      </c>
-      <c r="K24" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>249000</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>900</v>
-      </c>
-      <c r="E25" t="s">
-        <v>549</v>
-      </c>
-      <c r="J25" t="s">
-        <v>550</v>
-      </c>
-      <c r="K25" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>599999</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>1853</v>
-      </c>
-      <c r="E26" t="s">
-        <v>552</v>
-      </c>
-      <c r="J26" t="s">
-        <v>550</v>
-      </c>
-      <c r="K26" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>829000</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1726</v>
-      </c>
-      <c r="E27" t="s">
-        <v>554</v>
-      </c>
-      <c r="J27" t="s">
-        <v>471</v>
-      </c>
-      <c r="K27" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>380000</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1264</v>
-      </c>
-      <c r="E28" t="s">
-        <v>556</v>
-      </c>
-      <c r="J28" t="s">
-        <v>557</v>
-      </c>
-      <c r="K28" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>415000</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>1521</v>
-      </c>
-      <c r="E29" t="s">
-        <v>559</v>
-      </c>
-      <c r="J29" t="s">
-        <v>560</v>
-      </c>
-      <c r="K29" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>145000</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>936</v>
-      </c>
-      <c r="E30" t="s">
-        <v>562</v>
-      </c>
-      <c r="J30" t="s">
-        <v>563</v>
-      </c>
-      <c r="K30" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>425000</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>1787</v>
-      </c>
-      <c r="E31" t="s">
-        <v>565</v>
-      </c>
-      <c r="J31" t="s">
-        <v>474</v>
-      </c>
-      <c r="K31" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>585000</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>1352</v>
-      </c>
-      <c r="E32" t="s">
-        <v>567</v>
-      </c>
-      <c r="J32" t="s">
-        <v>568</v>
-      </c>
-      <c r="K32" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>749000</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>1292</v>
-      </c>
-      <c r="E33" t="s">
-        <v>570</v>
-      </c>
-      <c r="J33" t="s">
-        <v>571</v>
-      </c>
-      <c r="K33" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>460000</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>1627</v>
-      </c>
-      <c r="E34" t="s">
-        <v>573</v>
-      </c>
-      <c r="J34" t="s">
-        <v>574</v>
-      </c>
-      <c r="K34" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>648000</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>2423</v>
-      </c>
-      <c r="E35" t="s">
-        <v>576</v>
-      </c>
-      <c r="J35" t="s">
-        <v>577</v>
-      </c>
-      <c r="K35" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>259000</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>2050</v>
-      </c>
-      <c r="E36" t="s">
-        <v>579</v>
-      </c>
-      <c r="J36" t="s">
-        <v>580</v>
-      </c>
-      <c r="K36" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>349000</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>2108</v>
-      </c>
-      <c r="E37" t="s">
-        <v>582</v>
-      </c>
-      <c r="J37" t="s">
-        <v>583</v>
-      </c>
-      <c r="K37" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>184900</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1260</v>
-      </c>
-      <c r="E38" t="s">
-        <v>585</v>
-      </c>
-      <c r="J38" t="s">
-        <v>586</v>
-      </c>
-      <c r="K38" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>535000</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>1438</v>
-      </c>
-      <c r="E39" t="s">
-        <v>588</v>
-      </c>
-      <c r="J39" t="s">
-        <v>589</v>
-      </c>
-      <c r="K39" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>979000</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>3000</v>
-      </c>
-      <c r="E40" t="s">
-        <v>591</v>
-      </c>
-      <c r="J40" t="s">
-        <v>468</v>
-      </c>
-      <c r="K40" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>650000</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>1600</v>
-      </c>
-      <c r="E41" t="s">
-        <v>593</v>
-      </c>
-      <c r="J41" t="s">
-        <v>470</v>
-      </c>
-      <c r="K41" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>259000</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>1536</v>
-      </c>
-      <c r="E42" t="s">
-        <v>595</v>
-      </c>
-      <c r="J42" t="s">
-        <v>596</v>
-      </c>
-      <c r="K42" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>749000</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1959</v>
-      </c>
-      <c r="E43" t="s">
-        <v>598</v>
-      </c>
-      <c r="J43" t="s">
-        <v>466</v>
-      </c>
-      <c r="K43" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>199900</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1044</v>
-      </c>
-      <c r="E44" t="s">
-        <v>600</v>
-      </c>
-      <c r="J44" t="s">
-        <v>513</v>
-      </c>
-      <c r="K44" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>599000</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>1092</v>
-      </c>
-      <c r="E45" t="s">
-        <v>602</v>
-      </c>
-      <c r="J45" t="s">
-        <v>603</v>
-      </c>
-      <c r="K45" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>848000</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>3000</v>
-      </c>
-      <c r="E46" t="s">
-        <v>605</v>
-      </c>
-      <c r="J46" t="s">
-        <v>606</v>
-      </c>
-      <c r="K46" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>289999</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>1333</v>
-      </c>
-      <c r="E47" t="s">
-        <v>608</v>
-      </c>
-      <c r="J47" t="s">
-        <v>609</v>
-      </c>
-      <c r="K47" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>725000</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>2163</v>
-      </c>
-      <c r="E48" t="s">
-        <v>611</v>
-      </c>
-      <c r="J48" t="s">
-        <v>474</v>
-      </c>
-      <c r="K48" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>499000</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>1169</v>
-      </c>
-      <c r="E49" t="s">
-        <v>613</v>
-      </c>
-      <c r="J49" t="s">
-        <v>468</v>
-      </c>
-      <c r="K49" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>624000</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>2100</v>
-      </c>
-      <c r="E50" t="s">
-        <v>615</v>
-      </c>
-      <c r="J50" t="s">
-        <v>468</v>
-      </c>
-      <c r="K50" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>240000</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1484</v>
-      </c>
-      <c r="E51" t="s">
-        <v>617</v>
-      </c>
-      <c r="J51" t="s">
-        <v>609</v>
-      </c>
-      <c r="K51" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>585000</v>
-      </c>
-      <c r="B52">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>2644</v>
-      </c>
-      <c r="E52" t="s">
-        <v>619</v>
-      </c>
-      <c r="J52" t="s">
-        <v>603</v>
-      </c>
-      <c r="K52" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>988888</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>1300</v>
-      </c>
-      <c r="E53" t="s">
-        <v>621</v>
-      </c>
-      <c r="J53" t="s">
-        <v>622</v>
-      </c>
-      <c r="K53" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>328800</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>1746</v>
-      </c>
-      <c r="E54" t="s">
-        <v>624</v>
-      </c>
-      <c r="J54" t="s">
-        <v>586</v>
-      </c>
-      <c r="K54" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>549000</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>1636</v>
-      </c>
-      <c r="E55" t="s">
-        <v>626</v>
-      </c>
-      <c r="J55" t="s">
-        <v>627</v>
-      </c>
-      <c r="K55" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>169900</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>962</v>
-      </c>
-      <c r="E56" t="s">
-        <v>629</v>
-      </c>
-      <c r="J56" t="s">
-        <v>630</v>
-      </c>
-      <c r="K56" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>599999</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57">
-        <v>1776</v>
-      </c>
-      <c r="E57" t="s">
-        <v>632</v>
-      </c>
-      <c r="J57" t="s">
-        <v>469</v>
-      </c>
-      <c r="K57" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>1250000</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>2531</v>
-      </c>
-      <c r="E58" t="s">
-        <v>634</v>
-      </c>
-      <c r="J58" t="s">
-        <v>493</v>
-      </c>
-      <c r="K58" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>500000</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>2512</v>
-      </c>
-      <c r="E59" t="s">
-        <v>636</v>
-      </c>
-      <c r="J59" t="s">
-        <v>580</v>
-      </c>
-      <c r="K59" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>515000</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>1623</v>
-      </c>
-      <c r="E60" t="s">
-        <v>638</v>
-      </c>
-      <c r="J60" t="s">
-        <v>473</v>
-      </c>
-      <c r="K60" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>1188888</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>1553</v>
-      </c>
-      <c r="E61" t="s">
-        <v>640</v>
-      </c>
-      <c r="J61" t="s">
-        <v>641</v>
-      </c>
-      <c r="K61" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>645000</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>1380</v>
-      </c>
-      <c r="E62" t="s">
-        <v>643</v>
-      </c>
-      <c r="J62" t="s">
-        <v>485</v>
-      </c>
-      <c r="K62" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>700000</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <v>5880</v>
-      </c>
-      <c r="E63" t="s">
-        <v>645</v>
-      </c>
-      <c r="J63" t="s">
-        <v>646</v>
-      </c>
-      <c r="K63" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>599999</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>1998</v>
-      </c>
-      <c r="E64" t="s">
-        <v>648</v>
-      </c>
-      <c r="J64" t="s">
-        <v>468</v>
-      </c>
-      <c r="K64" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>299900</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>3109</v>
-      </c>
-      <c r="E65" t="s">
-        <v>650</v>
-      </c>
-      <c r="J65" t="s">
-        <v>583</v>
-      </c>
-      <c r="K65" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>349999</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>1325</v>
-      </c>
-      <c r="E66" t="s">
-        <v>652</v>
-      </c>
-      <c r="J66" t="s">
-        <v>653</v>
-      </c>
-      <c r="K66" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>535000</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>3784</v>
-      </c>
-      <c r="E67" t="s">
-        <v>655</v>
-      </c>
-      <c r="J67" t="s">
-        <v>535</v>
-      </c>
-      <c r="K67" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>484900</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
-        <v>3182</v>
-      </c>
-      <c r="E68" t="s">
-        <v>657</v>
-      </c>
-      <c r="J68" t="s">
-        <v>658</v>
-      </c>
-      <c r="K68" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>849000</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="D69">
-        <v>3170</v>
-      </c>
-      <c r="E69" t="s">
-        <v>660</v>
-      </c>
-      <c r="J69" t="s">
-        <v>661</v>
-      </c>
-      <c r="K69" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>798888</v>
-      </c>
-      <c r="B70">
-        <v>7</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>2200</v>
-      </c>
-      <c r="E70" t="s">
-        <v>663</v>
-      </c>
-      <c r="J70" t="s">
-        <v>664</v>
-      </c>
-      <c r="K70" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>34900</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>1460</v>
-      </c>
-      <c r="E71" t="s">
-        <v>666</v>
-      </c>
-      <c r="J71" t="s">
-        <v>667</v>
-      </c>
-      <c r="K71" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>499999</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>1909</v>
-      </c>
-      <c r="E72" t="s">
-        <v>669</v>
-      </c>
-      <c r="J72" t="s">
-        <v>474</v>
-      </c>
-      <c r="K72" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>879000</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>1923</v>
-      </c>
-      <c r="E73" t="s">
-        <v>671</v>
-      </c>
-      <c r="J73" t="s">
-        <v>672</v>
-      </c>
-      <c r="K73" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>489000</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1700</v>
-      </c>
-      <c r="E74" t="s">
-        <v>674</v>
-      </c>
-      <c r="J74" t="s">
-        <v>468</v>
-      </c>
-      <c r="K74" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>325000</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>1632</v>
-      </c>
-      <c r="E75" t="s">
-        <v>676</v>
-      </c>
-      <c r="J75" t="s">
-        <v>677</v>
-      </c>
-      <c r="K75" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>179900</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>1312</v>
-      </c>
-      <c r="E76" t="s">
-        <v>679</v>
-      </c>
-      <c r="J76" t="s">
-        <v>680</v>
-      </c>
-      <c r="K76" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>925000</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77">
-        <v>4400</v>
-      </c>
-      <c r="E77" t="s">
-        <v>682</v>
-      </c>
-      <c r="J77" t="s">
-        <v>683</v>
-      </c>
-      <c r="K77" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>380000</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>1500</v>
-      </c>
-      <c r="E78" t="s">
-        <v>685</v>
-      </c>
-      <c r="J78" t="s">
-        <v>627</v>
-      </c>
-      <c r="K78" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>234000</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>2286</v>
-      </c>
-      <c r="E79" t="s">
-        <v>687</v>
-      </c>
-      <c r="J79" t="s">
-        <v>688</v>
-      </c>
-      <c r="K79" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>699000</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>2112</v>
-      </c>
-      <c r="E80" t="s">
-        <v>690</v>
-      </c>
-      <c r="J80" t="s">
-        <v>691</v>
-      </c>
-      <c r="K80" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>444000</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1056</v>
-      </c>
-      <c r="E81" t="s">
-        <v>693</v>
-      </c>
-      <c r="J81" t="s">
-        <v>694</v>
-      </c>
-      <c r="K81" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>679990</v>
-      </c>
-      <c r="B82">
-        <v>4</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82">
-        <v>2354</v>
-      </c>
-      <c r="E82" t="s">
-        <v>696</v>
-      </c>
-      <c r="J82" t="s">
-        <v>468</v>
-      </c>
-      <c r="K82" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>325000</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>864</v>
-      </c>
-      <c r="E83" t="s">
-        <v>698</v>
-      </c>
-      <c r="J83" t="s">
-        <v>699</v>
-      </c>
-      <c r="K83" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>1678000</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="D84">
-        <v>3431</v>
-      </c>
-      <c r="E84" t="s">
-        <v>701</v>
-      </c>
-      <c r="J84" t="s">
-        <v>702</v>
-      </c>
-      <c r="K84" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>454900</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>1181</v>
-      </c>
-      <c r="E85" t="s">
-        <v>704</v>
-      </c>
-      <c r="J85" t="s">
-        <v>705</v>
-      </c>
-      <c r="K85" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>3000000</v>
-      </c>
-      <c r="B86">
-        <v>5</v>
-      </c>
-      <c r="C86">
-        <v>6</v>
-      </c>
-      <c r="D86">
-        <v>5892</v>
-      </c>
-      <c r="E86" t="s">
-        <v>707</v>
-      </c>
-      <c r="J86" t="s">
-        <v>708</v>
-      </c>
-      <c r="K86" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>342500</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <v>1764</v>
-      </c>
-      <c r="E87" t="s">
-        <v>710</v>
-      </c>
-      <c r="J87" t="s">
-        <v>580</v>
-      </c>
-      <c r="K87" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>799000</v>
-      </c>
-      <c r="B88">
-        <v>5</v>
-      </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-      <c r="D88">
-        <v>2600</v>
-      </c>
-      <c r="E88" t="s">
-        <v>712</v>
-      </c>
-      <c r="J88" t="s">
-        <v>557</v>
-      </c>
-      <c r="K88" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>590000</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1139</v>
-      </c>
-      <c r="E89" t="s">
-        <v>714</v>
-      </c>
-      <c r="J89" t="s">
-        <v>715</v>
-      </c>
-      <c r="K89" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>679999</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90">
-        <v>1200</v>
-      </c>
-      <c r="E90" t="s">
-        <v>717</v>
-      </c>
-      <c r="J90" t="s">
-        <v>474</v>
-      </c>
-      <c r="K90" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>179900</v>
-      </c>
-      <c r="B91">
-        <v>6</v>
-      </c>
-      <c r="C91">
-        <v>3</v>
-      </c>
-      <c r="D91">
-        <v>3242</v>
-      </c>
-      <c r="E91" t="s">
-        <v>719</v>
-      </c>
-      <c r="J91" t="s">
-        <v>516</v>
-      </c>
-      <c r="K91" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>640999</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>3</v>
-      </c>
-      <c r="D92">
-        <v>1550</v>
-      </c>
-      <c r="E92" t="s">
-        <v>480</v>
-      </c>
-      <c r="J92" t="s">
-        <v>481</v>
-      </c>
-      <c r="K92" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A93">
-        <v>349000</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>1588</v>
-      </c>
-      <c r="E93" t="s">
-        <v>721</v>
-      </c>
-      <c r="J93" t="s">
-        <v>722</v>
-      </c>
-      <c r="K93" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A94">
-        <v>1575000</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>7656</v>
-      </c>
-      <c r="E94" t="s">
-        <v>724</v>
-      </c>
-      <c r="J94" t="s">
-        <v>725</v>
-      </c>
-      <c r="K94" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A95">
-        <v>1199900</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>3104</v>
-      </c>
-      <c r="E95" t="s">
-        <v>727</v>
-      </c>
-      <c r="J95" t="s">
-        <v>580</v>
-      </c>
-      <c r="K95" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A96">
-        <v>889000</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>1886</v>
-      </c>
-      <c r="E96" t="s">
-        <v>729</v>
-      </c>
-      <c r="J96" t="s">
-        <v>466</v>
-      </c>
-      <c r="K96" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A97">
-        <v>995000</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
-      </c>
-      <c r="D97">
-        <v>3167</v>
-      </c>
-      <c r="E97" t="s">
-        <v>731</v>
-      </c>
-      <c r="J97" t="s">
-        <v>560</v>
-      </c>
-      <c r="K97" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A98">
-        <v>550000</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1408</v>
-      </c>
-      <c r="E98" t="s">
-        <v>733</v>
-      </c>
-      <c r="J98" t="s">
-        <v>550</v>
-      </c>
-      <c r="K98" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A99">
-        <v>275000</v>
-      </c>
-      <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99">
-        <v>2272</v>
-      </c>
-      <c r="E99" t="s">
-        <v>735</v>
-      </c>
-      <c r="J99" t="s">
-        <v>513</v>
-      </c>
-      <c r="K99" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A100">
-        <v>799900</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
-      </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-      <c r="D100">
-        <v>4559</v>
-      </c>
-      <c r="E100" t="s">
-        <v>737</v>
-      </c>
-      <c r="J100" t="s">
-        <v>738</v>
-      </c>
-      <c r="K100" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>895000</v>
-      </c>
-      <c r="B101">
-        <v>4</v>
-      </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-      <c r="D101">
-        <v>3092</v>
-      </c>
-      <c r="E101" t="s">
-        <v>740</v>
-      </c>
-      <c r="J101" t="s">
-        <v>741</v>
-      </c>
-      <c r="K101" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A102">
-        <v>699000</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-      <c r="D102">
-        <v>2530</v>
-      </c>
-      <c r="E102" t="s">
-        <v>743</v>
-      </c>
-      <c r="J102" t="s">
-        <v>744</v>
-      </c>
-      <c r="K102" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A103">
-        <v>320000</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103">
-        <v>1840</v>
-      </c>
-      <c r="E103" t="s">
-        <v>746</v>
-      </c>
-      <c r="J103" t="s">
-        <v>702</v>
-      </c>
-      <c r="K103" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A104">
-        <v>119000</v>
-      </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>1248</v>
-      </c>
-      <c r="E104" t="s">
-        <v>748</v>
-      </c>
-      <c r="J104" t="s">
-        <v>516</v>
-      </c>
-      <c r="K104" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A105">
-        <v>699000</v>
-      </c>
-      <c r="B105">
-        <v>3</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
-        <v>2200</v>
-      </c>
-      <c r="E105" t="s">
-        <v>750</v>
-      </c>
-      <c r="J105" t="s">
-        <v>471</v>
-      </c>
-      <c r="K105" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A106">
-        <v>319900</v>
-      </c>
-      <c r="B106">
-        <v>5</v>
-      </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106">
-        <v>2734</v>
-      </c>
-      <c r="E106" t="s">
-        <v>752</v>
-      </c>
-      <c r="J106" t="s">
-        <v>753</v>
-      </c>
-      <c r="K106" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A107">
-        <v>298000</v>
-      </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-      <c r="D107">
-        <v>1900</v>
-      </c>
-      <c r="E107" t="s">
-        <v>755</v>
-      </c>
-      <c r="J107" t="s">
-        <v>603</v>
-      </c>
-      <c r="K107" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A108">
-        <v>259000</v>
-      </c>
-      <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>996</v>
-      </c>
-      <c r="E108" t="s">
-        <v>757</v>
-      </c>
-      <c r="J108" t="s">
-        <v>550</v>
-      </c>
-      <c r="K108" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <v>137000</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109">
-        <v>3114</v>
-      </c>
-      <c r="E109" t="s">
-        <v>759</v>
-      </c>
-      <c r="J109" t="s">
-        <v>465</v>
-      </c>
-      <c r="K109" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A110">
-        <v>379900</v>
-      </c>
-      <c r="B110">
-        <v>4</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>1152</v>
-      </c>
-      <c r="E110" t="s">
-        <v>761</v>
-      </c>
-      <c r="J110" t="s">
-        <v>467</v>
-      </c>
-      <c r="K110" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A111">
-        <v>699000</v>
-      </c>
-      <c r="B111">
-        <v>4</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
-        <v>2400</v>
-      </c>
-      <c r="E111" t="s">
-        <v>763</v>
-      </c>
-      <c r="J111" t="s">
-        <v>702</v>
-      </c>
-      <c r="K111" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A112">
-        <v>619000</v>
-      </c>
-      <c r="B112">
-        <v>4</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112">
-        <v>2170</v>
-      </c>
-      <c r="E112" t="s">
-        <v>765</v>
-      </c>
-      <c r="J112" t="s">
-        <v>471</v>
-      </c>
-      <c r="K112" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A113">
-        <v>350000</v>
-      </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113">
-        <v>934</v>
-      </c>
-      <c r="E113" t="s">
-        <v>767</v>
-      </c>
-      <c r="J113" t="s">
-        <v>768</v>
-      </c>
-      <c r="K113" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A114">
-        <v>610000</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>600</v>
-      </c>
-      <c r="E114" t="s">
-        <v>770</v>
-      </c>
-      <c r="J114" t="s">
-        <v>476</v>
-      </c>
-      <c r="K114" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A115">
-        <v>164500</v>
-      </c>
-      <c r="B115">
-        <v>4</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1976</v>
-      </c>
-      <c r="E115" t="s">
-        <v>772</v>
-      </c>
-      <c r="J115" t="s">
-        <v>773</v>
-      </c>
-      <c r="K115" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A116">
-        <v>259900</v>
-      </c>
-      <c r="B116">
-        <v>4</v>
-      </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-      <c r="D116">
-        <v>1604</v>
-      </c>
-      <c r="E116" t="s">
-        <v>775</v>
-      </c>
-      <c r="J116" t="s">
-        <v>609</v>
-      </c>
-      <c r="K116" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A117">
-        <v>150000</v>
-      </c>
-      <c r="B117">
-        <v>4</v>
-      </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
-        <v>1386</v>
-      </c>
-      <c r="E117" t="s">
-        <v>777</v>
-      </c>
-      <c r="J117" t="s">
-        <v>465</v>
-      </c>
-      <c r="K117" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A118">
-        <v>2950000</v>
-      </c>
-      <c r="B118">
-        <v>5</v>
-      </c>
-      <c r="C118">
-        <v>4</v>
-      </c>
-      <c r="D118">
-        <v>3264</v>
-      </c>
-      <c r="E118" t="s">
-        <v>779</v>
-      </c>
-      <c r="J118" t="s">
-        <v>780</v>
-      </c>
-      <c r="K118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A119">
-        <v>1250000</v>
-      </c>
-      <c r="B119">
-        <v>3</v>
-      </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-      <c r="D119">
-        <v>2455</v>
-      </c>
-      <c r="E119" t="s">
-        <v>782</v>
-      </c>
-      <c r="J119" t="s">
-        <v>560</v>
-      </c>
-      <c r="K119" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A120">
-        <v>589000</v>
-      </c>
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="C120">
-        <v>3</v>
-      </c>
-      <c r="D120">
-        <v>2320</v>
-      </c>
-      <c r="E120" t="s">
-        <v>784</v>
-      </c>
-      <c r="J120" t="s">
-        <v>560</v>
-      </c>
-      <c r="K120" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A121">
-        <v>169900</v>
-      </c>
-      <c r="B121">
-        <v>3</v>
-      </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-      <c r="D121">
-        <v>1673</v>
-      </c>
-      <c r="E121" t="s">
-        <v>786</v>
-      </c>
-      <c r="J121" t="s">
-        <v>787</v>
-      </c>
-      <c r="K121" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A122">
-        <v>1699000</v>
-      </c>
-      <c r="B122">
-        <v>5</v>
-      </c>
-      <c r="C122">
-        <v>3</v>
-      </c>
-      <c r="D122">
-        <v>3148</v>
-      </c>
-      <c r="E122" t="s">
-        <v>789</v>
-      </c>
-      <c r="J122" t="s">
-        <v>790</v>
-      </c>
-      <c r="K122" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A123">
-        <v>699000</v>
-      </c>
-      <c r="B123">
-        <v>5</v>
-      </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-      <c r="D123">
-        <v>2800</v>
-      </c>
-      <c r="E123" t="s">
-        <v>792</v>
-      </c>
-      <c r="J123" t="s">
-        <v>483</v>
-      </c>
-      <c r="K123" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A124">
-        <v>2250000</v>
-      </c>
-      <c r="B124">
-        <v>4</v>
-      </c>
-      <c r="C124">
-        <v>4</v>
-      </c>
-      <c r="D124">
-        <v>5800</v>
-      </c>
-      <c r="E124" t="s">
-        <v>794</v>
-      </c>
-      <c r="J124" t="s">
-        <v>795</v>
-      </c>
-      <c r="K124" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A125">
-        <v>749999</v>
-      </c>
-      <c r="B125">
-        <v>4</v>
-      </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125">
-        <v>2433</v>
-      </c>
-      <c r="E125" t="s">
-        <v>797</v>
-      </c>
-      <c r="J125" t="s">
-        <v>470</v>
-      </c>
-      <c r="K125" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A126">
-        <v>1350000</v>
-      </c>
-      <c r="B126">
-        <v>5</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126">
-        <v>4500</v>
-      </c>
-      <c r="E126" t="s">
-        <v>799</v>
-      </c>
-      <c r="J126" t="s">
-        <v>471</v>
-      </c>
-      <c r="K126" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A127">
-        <v>170000</v>
-      </c>
-      <c r="B127">
-        <v>3</v>
-      </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-      <c r="D127">
-        <v>1770</v>
-      </c>
-      <c r="E127" t="s">
-        <v>801</v>
-      </c>
-      <c r="J127" t="s">
-        <v>802</v>
-      </c>
-      <c r="K127" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A128">
-        <v>500000</v>
-      </c>
-      <c r="B128">
-        <v>4</v>
-      </c>
-      <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128">
-        <v>1964</v>
-      </c>
-      <c r="E128" t="s">
-        <v>804</v>
-      </c>
-      <c r="J128" t="s">
-        <v>473</v>
-      </c>
-      <c r="K128" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A129">
-        <v>899999</v>
-      </c>
-      <c r="B129">
-        <v>4</v>
-      </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-      <c r="D129">
-        <v>1664</v>
-      </c>
-      <c r="E129" t="s">
-        <v>806</v>
-      </c>
-      <c r="J129" t="s">
-        <v>475</v>
-      </c>
-      <c r="K129" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A130">
-        <v>539900</v>
-      </c>
-      <c r="B130">
-        <v>3</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>1258</v>
-      </c>
-      <c r="E130" t="s">
-        <v>808</v>
-      </c>
-      <c r="J130" t="s">
-        <v>809</v>
-      </c>
-      <c r="K130" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A131">
-        <v>269900</v>
-      </c>
-      <c r="B131">
-        <v>2</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>1536</v>
-      </c>
-      <c r="E131" t="s">
-        <v>811</v>
-      </c>
-      <c r="J131" t="s">
-        <v>812</v>
-      </c>
-      <c r="K131" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A132">
-        <v>665000</v>
-      </c>
-      <c r="B132">
-        <v>4</v>
-      </c>
-      <c r="C132">
-        <v>3</v>
-      </c>
-      <c r="D132">
-        <v>1650</v>
-      </c>
-      <c r="E132" t="s">
-        <v>814</v>
-      </c>
-      <c r="J132" t="s">
-        <v>815</v>
-      </c>
-      <c r="K132" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A133">
-        <v>739000</v>
-      </c>
-      <c r="B133">
-        <v>3</v>
-      </c>
-      <c r="C133">
-        <v>2</v>
-      </c>
-      <c r="D133">
-        <v>1089</v>
-      </c>
-      <c r="E133" t="s">
-        <v>817</v>
-      </c>
-      <c r="J133" t="s">
-        <v>469</v>
-      </c>
-      <c r="K133" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A134">
-        <v>575000</v>
-      </c>
-      <c r="B134">
-        <v>4</v>
-      </c>
-      <c r="C134">
-        <v>3</v>
-      </c>
-      <c r="D134">
-        <v>1504</v>
-      </c>
-      <c r="E134" t="s">
-        <v>819</v>
-      </c>
-      <c r="J134" t="s">
-        <v>820</v>
-      </c>
-      <c r="K134" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A135">
-        <v>750000</v>
-      </c>
-      <c r="B135">
-        <v>4</v>
-      </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-      <c r="D135">
-        <v>1809</v>
-      </c>
-      <c r="E135" t="s">
-        <v>822</v>
-      </c>
-      <c r="J135" t="s">
-        <v>823</v>
-      </c>
-      <c r="K135" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A136">
-        <v>999888</v>
-      </c>
-      <c r="B136">
-        <v>4</v>
-      </c>
-      <c r="C136">
-        <v>3</v>
-      </c>
-      <c r="D136">
-        <v>2043</v>
-      </c>
-      <c r="E136" t="s">
-        <v>825</v>
-      </c>
-      <c r="J136" t="s">
-        <v>702</v>
-      </c>
-      <c r="K136" t="s">
-        <v>826</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443879A4-2BF5-481F-8CF9-78DF75D25A75}">
-  <dimension ref="A1:K57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37ECB87A-279C-4044-8321-68A9279B2989}">
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6681,7 +2999,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>982</v>
+        <v>690</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6693,19 +3011,1959 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>990</v>
+        <v>698</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>390000</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1944</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200.61728395061701</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10473</v>
+      </c>
+      <c r="J2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>460000</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>230</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11412</v>
+      </c>
+      <c r="J3" t="s">
+        <v>481</v>
+      </c>
+      <c r="K3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>608000</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1248</v>
+      </c>
+      <c r="E4" s="3">
+        <v>487.17948717948701</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I4" s="2">
+        <v>11418</v>
+      </c>
+      <c r="J4" t="s">
+        <v>466</v>
+      </c>
+      <c r="K4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>989000</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1056</v>
+      </c>
+      <c r="E5" s="3">
+        <v>936.55303030303003</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I5" s="2">
+        <v>11355</v>
+      </c>
+      <c r="J5" t="s">
+        <v>468</v>
+      </c>
+      <c r="K5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>689000</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1408</v>
+      </c>
+      <c r="E6" s="3">
+        <v>489.34659090909003</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10469</v>
+      </c>
+      <c r="J6" t="s">
+        <v>484</v>
+      </c>
+      <c r="K6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>640999</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1550</v>
+      </c>
+      <c r="E7" s="3">
+        <v>413.54774193548297</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I7" s="2">
+        <v>11412</v>
+      </c>
+      <c r="J7" t="s">
         <v>486</v>
       </c>
+      <c r="K7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>988000</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1628</v>
+      </c>
+      <c r="E8" s="3">
+        <v>606.87960687960594</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I8" s="2">
+        <v>11361</v>
+      </c>
+      <c r="J8" t="s">
+        <v>469</v>
+      </c>
+      <c r="K8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2996000</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3040</v>
+      </c>
+      <c r="E9" s="3">
+        <v>985.52631578947296</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I9" s="2">
+        <v>11432</v>
+      </c>
+      <c r="J9" t="s">
+        <v>470</v>
+      </c>
+      <c r="K9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>699000</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>841</v>
+      </c>
+      <c r="E10" s="3">
+        <v>831.15338882282902</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I10" s="2">
+        <v>11426</v>
+      </c>
+      <c r="J10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>887000</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1690</v>
+      </c>
+      <c r="E11" s="3">
+        <v>524.85207100591697</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I11" s="2">
+        <v>11374</v>
+      </c>
+      <c r="J11" t="s">
+        <v>491</v>
+      </c>
+      <c r="K11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>879000</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1608</v>
+      </c>
+      <c r="E12" s="3">
+        <v>546.64179104477603</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11429</v>
+      </c>
+      <c r="J12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>939999</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>469.99950000000001</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I13" s="2">
+        <v>11422</v>
+      </c>
+      <c r="J13" t="s">
+        <v>494</v>
+      </c>
+      <c r="K13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1200000</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>521.73913043478206</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I14" s="2">
+        <v>11366</v>
+      </c>
+      <c r="J14" t="s">
+        <v>470</v>
+      </c>
+      <c r="K14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>859000</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1424</v>
+      </c>
+      <c r="E15" s="3">
+        <v>603.23033707865102</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I15" s="2">
+        <v>11421</v>
+      </c>
+      <c r="J15" t="s">
+        <v>497</v>
+      </c>
+      <c r="K15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>400000</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>864</v>
+      </c>
+      <c r="E16" s="3">
+        <v>462.96296296296299</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10465</v>
+      </c>
+      <c r="J16" t="s">
+        <v>499</v>
+      </c>
+      <c r="K16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>970000</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1898</v>
+      </c>
+      <c r="E17" s="3">
+        <v>511.06427818756498</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I17" s="2">
+        <v>11427</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+      <c r="K17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>469000</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>390.83333333333297</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10465</v>
+      </c>
+      <c r="J18" t="s">
+        <v>502</v>
+      </c>
+      <c r="K18" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>599999</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>972</v>
+      </c>
+      <c r="E19" s="3">
+        <v>617.28292181069901</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I19" s="2">
+        <v>11411</v>
+      </c>
+      <c r="J19" t="s">
+        <v>494</v>
+      </c>
+      <c r="K19" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>660000</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1481</v>
+      </c>
+      <c r="E20" s="3">
+        <v>445.64483457123498</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10466</v>
+      </c>
+      <c r="J20" t="s">
+        <v>505</v>
+      </c>
+      <c r="K20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>399000</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2180</v>
+      </c>
+      <c r="E21" s="3">
+        <v>183.02752293577899</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10460</v>
+      </c>
+      <c r="J21" t="s">
+        <v>465</v>
+      </c>
+      <c r="K21" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1199000</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>5600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>214.10714285714201</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I22" s="2">
+        <v>10304</v>
+      </c>
+      <c r="J22" t="s">
+        <v>517</v>
+      </c>
+      <c r="K22" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2498000</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4188</v>
+      </c>
+      <c r="E23" s="3">
+        <v>596.466093600764</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I23" s="2">
+        <v>10471</v>
+      </c>
+      <c r="J23" t="s">
+        <v>509</v>
+      </c>
+      <c r="K23" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>799000</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1448</v>
+      </c>
+      <c r="E24" s="3">
+        <v>551.79558011049699</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I24" s="2">
+        <v>11433</v>
+      </c>
+      <c r="J24" t="s">
+        <v>508</v>
+      </c>
+      <c r="K24" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>599777</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1374</v>
+      </c>
+      <c r="E25" s="3">
+        <v>436.518922852983</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I25" s="2">
+        <v>11236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>512</v>
+      </c>
+      <c r="K25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1738000</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>560.64516129032199</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I26" s="2">
+        <v>11362</v>
+      </c>
+      <c r="J26" t="s">
+        <v>474</v>
+      </c>
+      <c r="K26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>997000</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1512</v>
+      </c>
+      <c r="E27" s="3">
+        <v>659.39153439153404</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I27" s="2">
+        <v>11432</v>
+      </c>
+      <c r="J27" t="s">
+        <v>515</v>
+      </c>
+      <c r="K27" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>699000</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1456</v>
+      </c>
+      <c r="E28" s="3">
+        <v>480.08241758241701</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I28" s="2">
+        <v>11428</v>
+      </c>
+      <c r="J28" t="s">
+        <v>475</v>
+      </c>
+      <c r="K28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>673000</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1640</v>
+      </c>
+      <c r="E29" s="3">
+        <v>410.36585365853603</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I29" s="2">
+        <v>11422</v>
+      </c>
+      <c r="J29" t="s">
+        <v>519</v>
+      </c>
+      <c r="K29" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>799000</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1312</v>
+      </c>
+      <c r="E30" s="3">
+        <v>608.99390243902405</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I30" s="2">
+        <v>11374</v>
+      </c>
+      <c r="J30" t="s">
+        <v>740</v>
+      </c>
+      <c r="K30" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>853888</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I31" s="2">
+        <v>11358</v>
+      </c>
+      <c r="J31" t="s">
+        <v>479</v>
+      </c>
+      <c r="K31" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>975000</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>609.375</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I32" s="2">
+        <v>11226</v>
+      </c>
+      <c r="J32" t="s">
+        <v>522</v>
+      </c>
+      <c r="K32" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>999000</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>624.375</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I33" s="2">
+        <v>11204</v>
+      </c>
+      <c r="J33" t="s">
+        <v>524</v>
+      </c>
+      <c r="K33" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>675000</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1683</v>
+      </c>
+      <c r="E34" s="3">
+        <v>401.06951871657702</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I34" s="2">
+        <v>10465</v>
+      </c>
+      <c r="J34" t="s">
+        <v>743</v>
+      </c>
+      <c r="K34" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>1338000</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>836.25</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I35" s="2">
+        <v>11364</v>
+      </c>
+      <c r="J35" t="s">
+        <v>476</v>
+      </c>
+      <c r="K35" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>879000</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1304</v>
+      </c>
+      <c r="E36" s="3">
+        <v>674.07975460122702</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I36" s="2">
+        <v>11414</v>
+      </c>
+      <c r="J36" t="s">
+        <v>527</v>
+      </c>
+      <c r="K36" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>729000</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1500</v>
+      </c>
+      <c r="E37" s="3">
+        <v>486</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I37" s="2">
+        <v>10465</v>
+      </c>
+      <c r="J37" t="s">
+        <v>745</v>
+      </c>
+      <c r="K37" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>1375000</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="3">
+        <v>687.5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I38" s="2">
+        <v>11354</v>
+      </c>
+      <c r="J38" t="s">
+        <v>529</v>
+      </c>
+      <c r="K38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>1286000</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2336</v>
+      </c>
+      <c r="E39" s="3">
+        <v>550.51369863013701</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I39" s="2">
+        <v>11362</v>
+      </c>
+      <c r="J39" t="s">
+        <v>531</v>
+      </c>
+      <c r="K39" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>699000</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1440</v>
+      </c>
+      <c r="E40" s="3">
+        <v>485.416666666666</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I40" s="2">
+        <v>11429</v>
+      </c>
+      <c r="J40" t="s">
+        <v>747</v>
+      </c>
+      <c r="K40" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>684999</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1181</v>
+      </c>
+      <c r="E41" s="3">
+        <v>580.01608806096499</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I41" s="2">
+        <v>11429</v>
+      </c>
+      <c r="J41" t="s">
+        <v>749</v>
+      </c>
+      <c r="K41" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>775000</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2160</v>
+      </c>
+      <c r="E42" s="3">
+        <v>358.79629629629602</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I42" s="2">
+        <v>10470</v>
+      </c>
+      <c r="J42" t="s">
+        <v>477</v>
+      </c>
+      <c r="K42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>799000</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2040</v>
+      </c>
+      <c r="E43" s="3">
+        <v>391.666666666666</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I43" s="2">
+        <v>11203</v>
+      </c>
+      <c r="J43" t="s">
+        <v>534</v>
+      </c>
+      <c r="K43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>1299000</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>447.93103448275798</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I44" s="2">
+        <v>10301</v>
+      </c>
+      <c r="J44" t="s">
+        <v>504</v>
+      </c>
+      <c r="K44" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>659000</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1248</v>
+      </c>
+      <c r="E45" s="3">
+        <v>528.04487179487103</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I45" s="2">
+        <v>11412</v>
+      </c>
+      <c r="J45" t="s">
+        <v>472</v>
+      </c>
+      <c r="K45" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>1558000</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I46" s="2">
+        <v>11357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>521</v>
+      </c>
+      <c r="K46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>999000</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>624.375</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I47" s="2">
+        <v>11374</v>
+      </c>
+      <c r="J47" t="s">
+        <v>546</v>
+      </c>
+      <c r="K47" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>570000</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>1728</v>
+      </c>
+      <c r="E48" s="3">
+        <v>329.86111111111097</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I48" s="2">
+        <v>10469</v>
+      </c>
+      <c r="J48" t="s">
+        <v>537</v>
+      </c>
+      <c r="K48" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>599999</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1635</v>
+      </c>
+      <c r="E49" s="3">
+        <v>366.97186544342497</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I49" s="2">
+        <v>10452</v>
+      </c>
+      <c r="J49" t="s">
+        <v>465</v>
+      </c>
+      <c r="K49" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>629000</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1480</v>
+      </c>
+      <c r="E50" s="3">
+        <v>425</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10468</v>
+      </c>
+      <c r="J50" t="s">
+        <v>755</v>
+      </c>
+      <c r="K50" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>929999</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>1800</v>
+      </c>
+      <c r="E51" s="3">
+        <v>516.66611111111104</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I51" s="2">
+        <v>11234</v>
+      </c>
+      <c r="J51" t="s">
+        <v>539</v>
+      </c>
+      <c r="K51" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>889000</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>2050</v>
+      </c>
+      <c r="E52" s="3">
+        <v>433.65853658536503</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I52" s="2">
+        <v>10461</v>
+      </c>
+      <c r="J52" t="s">
+        <v>757</v>
+      </c>
+      <c r="K52" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>829999</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>2830</v>
+      </c>
+      <c r="E53" s="3">
+        <v>293.28586572438098</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I53" s="2">
+        <v>11411</v>
+      </c>
+      <c r="J53" t="s">
+        <v>759</v>
+      </c>
+      <c r="K53" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>799000</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>1967</v>
+      </c>
+      <c r="E54" s="3">
+        <v>406.20233858668001</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I54" s="2">
+        <v>10453</v>
+      </c>
+      <c r="J54" t="s">
+        <v>478</v>
+      </c>
+      <c r="K54" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>754000</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1912</v>
+      </c>
+      <c r="E55" s="3">
+        <v>394.351464435146</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I55" s="2">
+        <v>10469</v>
+      </c>
+      <c r="J55" t="s">
+        <v>761</v>
+      </c>
+      <c r="K55" t="s">
+        <v>762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC5B4C1-9C9D-4AD3-AF06-DA261F0C32C8}">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="9.06640625" style="3"/>
+    <col min="6" max="8" width="9.06640625" style="1"/>
+    <col min="9" max="9" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -6731,22 +4989,22 @@
         <v>133.84321223709301</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>888</v>
+        <v>601</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>889</v>
+        <v>602</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I2" s="2">
         <v>78114</v>
       </c>
       <c r="J2" t="s">
-        <v>830</v>
+        <v>547</v>
       </c>
       <c r="K2" t="s">
-        <v>831</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -6766,22 +5024,22 @@
         <v>140.25893958076401</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>890</v>
+        <v>603</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I3" s="2">
         <v>78252</v>
       </c>
       <c r="J3" t="s">
-        <v>832</v>
+        <v>549</v>
       </c>
       <c r="K3" t="s">
-        <v>833</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -6801,22 +5059,22 @@
         <v>259.46475195822399</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>892</v>
+        <v>605</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>893</v>
+        <v>606</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I4" s="2">
         <v>78737</v>
       </c>
       <c r="J4" t="s">
-        <v>834</v>
+        <v>551</v>
       </c>
       <c r="K4" t="s">
-        <v>835</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -6836,22 +5094,22 @@
         <v>208.004212743549</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>894</v>
+        <v>607</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I5" s="2">
         <v>78249</v>
       </c>
       <c r="J5" t="s">
-        <v>836</v>
+        <v>553</v>
       </c>
       <c r="K5" t="s">
-        <v>837</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -6871,22 +5129,22 @@
         <v>134.64526152252699</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>945</v>
+        <v>653</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I6" s="2">
         <v>78233</v>
       </c>
       <c r="J6" t="s">
-        <v>939</v>
+        <v>647</v>
       </c>
       <c r="K6" t="s">
-        <v>940</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -6906,22 +5164,22 @@
         <v>173.69727047146401</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>895</v>
+        <v>608</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>896</v>
+        <v>609</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I7" s="2">
         <v>78665</v>
       </c>
       <c r="J7" t="s">
-        <v>838</v>
+        <v>555</v>
       </c>
       <c r="K7" t="s">
-        <v>839</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -6941,13 +5199,13 @@
         <v>160.978750804893</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>897</v>
+        <v>610</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>898</v>
+        <v>611</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I8" s="2">
         <v>79928</v>
@@ -6956,7 +5214,7 @@
         <v>147</v>
       </c>
       <c r="K8" t="s">
-        <v>840</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -6976,22 +5234,22 @@
         <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>899</v>
+        <v>612</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>900</v>
+        <v>613</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I9" s="2">
         <v>78634</v>
       </c>
       <c r="J9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K9" t="s">
-        <v>841</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -7011,22 +5269,22 @@
         <v>166.163141993957</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>901</v>
+        <v>614</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I10" s="2">
         <v>78247</v>
       </c>
       <c r="J10" t="s">
-        <v>842</v>
+        <v>559</v>
       </c>
       <c r="K10" t="s">
-        <v>843</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -7046,22 +5304,22 @@
         <v>154.52029520295201</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>902</v>
+        <v>615</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>893</v>
+        <v>606</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I11" s="2">
         <v>78724</v>
       </c>
       <c r="J11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K11" t="s">
-        <v>844</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -7081,22 +5339,22 @@
         <v>227.43425728500301</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>903</v>
+        <v>616</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>904</v>
+        <v>617</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I12" s="2">
         <v>78628</v>
       </c>
       <c r="J12" t="s">
-        <v>845</v>
+        <v>562</v>
       </c>
       <c r="K12" t="s">
-        <v>846</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
@@ -7116,22 +5374,22 @@
         <v>72.272727272727195</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>905</v>
+        <v>618</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>906</v>
+        <v>619</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I13" s="2">
         <v>76513</v>
       </c>
       <c r="J13" t="s">
-        <v>847</v>
+        <v>564</v>
       </c>
       <c r="K13" t="s">
-        <v>848</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -7151,22 +5409,22 @@
         <v>122.528735632183</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>907</v>
+        <v>620</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I14" s="2">
         <v>78244</v>
       </c>
       <c r="J14" t="s">
-        <v>849</v>
+        <v>566</v>
       </c>
       <c r="K14" t="s">
-        <v>850</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -7186,22 +5444,22 @@
         <v>148.58841010401099</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>908</v>
+        <v>621</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>909</v>
+        <v>622</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I15" s="2">
         <v>76549</v>
       </c>
       <c r="J15" t="s">
-        <v>851</v>
+        <v>568</v>
       </c>
       <c r="K15" t="s">
-        <v>852</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
@@ -7221,13 +5479,13 @@
         <v>131.01604278074799</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>910</v>
+        <v>623</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>909</v>
+        <v>622</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I16" s="2">
         <v>76542</v>
@@ -7236,7 +5494,7 @@
         <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>853</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -7256,22 +5514,22 @@
         <v>154.215215901302</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>911</v>
+        <v>624</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>898</v>
+        <v>611</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I17" s="2">
         <v>79938</v>
       </c>
       <c r="J17" t="s">
-        <v>854</v>
+        <v>571</v>
       </c>
       <c r="K17" t="s">
-        <v>855</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -7291,22 +5549,22 @@
         <v>147.591921284308</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>912</v>
+        <v>625</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>913</v>
+        <v>626</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I18" s="2">
         <v>78610</v>
       </c>
       <c r="J18" t="s">
-        <v>856</v>
+        <v>573</v>
       </c>
       <c r="K18" t="s">
-        <v>857</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -7326,22 +5584,22 @@
         <v>176.63043478260801</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>915</v>
+        <v>628</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I19" s="2">
         <v>78259</v>
       </c>
       <c r="J19" t="s">
-        <v>858</v>
+        <v>575</v>
       </c>
       <c r="K19" t="s">
-        <v>859</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -7361,22 +5619,22 @@
         <v>135.19680547632601</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>975</v>
+        <v>683</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>898</v>
+        <v>611</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I20" s="2">
         <v>79928</v>
       </c>
       <c r="J20" t="s">
-        <v>965</v>
+        <v>673</v>
       </c>
       <c r="K20" t="s">
-        <v>966</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -7396,22 +5654,22 @@
         <v>104.75081509082401</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>916</v>
+        <v>629</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>917</v>
+        <v>630</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I21" s="2">
         <v>78233</v>
       </c>
       <c r="J21" t="s">
-        <v>860</v>
+        <v>577</v>
       </c>
       <c r="K21" t="s">
-        <v>861</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -7431,22 +5689,22 @@
         <v>170.64846416382201</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>918</v>
+        <v>631</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>919</v>
+        <v>632</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I22" s="2">
         <v>78130</v>
       </c>
       <c r="J22" t="s">
-        <v>862</v>
+        <v>579</v>
       </c>
       <c r="K22" t="s">
-        <v>863</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -7466,22 +5724,22 @@
         <v>141.70040485829901</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>920</v>
+        <v>633</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>898</v>
+        <v>611</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I23" s="2">
         <v>79904</v>
       </c>
       <c r="J23" t="s">
-        <v>864</v>
+        <v>581</v>
       </c>
       <c r="K23" t="s">
-        <v>865</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -7501,22 +5759,22 @@
         <v>185.96986817325799</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>921</v>
+        <v>634</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>919</v>
+        <v>632</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I24" s="2">
         <v>78130</v>
       </c>
       <c r="J24" t="s">
-        <v>866</v>
+        <v>583</v>
       </c>
       <c r="K24" t="s">
-        <v>867</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -7536,22 +5794,22 @@
         <v>288.392857142857</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>922</v>
+        <v>635</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>893</v>
+        <v>606</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I25" s="2">
         <v>78721</v>
       </c>
       <c r="J25" t="s">
-        <v>868</v>
+        <v>585</v>
       </c>
       <c r="K25" t="s">
-        <v>869</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -7571,22 +5829,22 @@
         <v>124.796527400976</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>923</v>
+        <v>636</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I26" s="2">
         <v>78218</v>
       </c>
       <c r="J26" t="s">
-        <v>870</v>
+        <v>587</v>
       </c>
       <c r="K26" t="s">
-        <v>871</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -7606,22 +5864,22 @@
         <v>161.04680422747799</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>924</v>
+        <v>637</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I27" s="2">
         <v>78251</v>
       </c>
       <c r="J27" t="s">
-        <v>872</v>
+        <v>589</v>
       </c>
       <c r="K27" t="s">
-        <v>873</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
@@ -7641,22 +5899,22 @@
         <v>76.528869149299595</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>976</v>
+        <v>684</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>977</v>
+        <v>685</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I28" s="2">
         <v>76530</v>
       </c>
       <c r="J28" t="s">
-        <v>967</v>
+        <v>675</v>
       </c>
       <c r="K28" t="s">
-        <v>968</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -7676,22 +5934,22 @@
         <v>332.72143184947203</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1006</v>
+        <v>714</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>893</v>
+        <v>606</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I29" s="2">
         <v>78739</v>
       </c>
       <c r="J29" t="s">
-        <v>996</v>
+        <v>704</v>
       </c>
       <c r="K29" t="s">
-        <v>997</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -7711,22 +5969,22 @@
         <v>100.446428571428</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>925</v>
+        <v>638</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I30" s="2">
         <v>78207</v>
       </c>
       <c r="J30" t="s">
-        <v>874</v>
+        <v>591</v>
       </c>
       <c r="K30" t="s">
-        <v>875</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -7746,22 +6004,22 @@
         <v>130.819545979222</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>927</v>
+        <v>640</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I31" s="2">
         <v>78254</v>
       </c>
       <c r="J31" t="s">
-        <v>876</v>
+        <v>593</v>
       </c>
       <c r="K31" t="s">
-        <v>877</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -7781,22 +6039,22 @@
         <v>141.19585687382201</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>946</v>
+        <v>654</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I32" s="2">
         <v>78261</v>
       </c>
       <c r="J32" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -7816,202 +6074,202 @@
         <v>160.47828823159199</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1007</v>
+        <v>715</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I33" s="2">
         <v>78233</v>
       </c>
       <c r="J33" t="s">
-        <v>998</v>
+        <v>706</v>
       </c>
       <c r="K33" t="s">
-        <v>999</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>189900</v>
+        <v>80000</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>1690</v>
+        <v>1400</v>
       </c>
       <c r="E34" s="3">
-        <v>112.366863905325</v>
+        <v>57.142857142857103</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>928</v>
+        <v>730</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>891</v>
+        <v>731</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I34" s="2">
-        <v>78247</v>
+        <v>78586</v>
       </c>
       <c r="J34" t="s">
-        <v>878</v>
+        <v>719</v>
       </c>
       <c r="K34" t="s">
-        <v>879</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>825000</v>
+        <v>189900</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>1920</v>
+        <v>1690</v>
       </c>
       <c r="E35" s="3">
-        <v>429.6875</v>
+        <v>112.366863905325</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>960</v>
+        <v>641</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>893</v>
+        <v>604</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I35" s="2">
-        <v>78751</v>
+        <v>78247</v>
       </c>
       <c r="J35" t="s">
-        <v>458</v>
+        <v>595</v>
       </c>
       <c r="K35" t="s">
-        <v>951</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>300000</v>
+        <v>825000</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>1795</v>
+        <v>1920</v>
       </c>
       <c r="E36" s="3">
-        <v>167.13091922005501</v>
+        <v>429.6875</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1008</v>
+        <v>668</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>891</v>
+        <v>606</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I36" s="2">
-        <v>78213</v>
+        <v>78751</v>
       </c>
       <c r="J36" t="s">
-        <v>1000</v>
+        <v>458</v>
       </c>
       <c r="K36" t="s">
-        <v>1001</v>
+        <v>659</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>815000</v>
+        <v>300000</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>2824</v>
+        <v>1795</v>
       </c>
       <c r="E37" s="3">
-        <v>288.59773371104802</v>
+        <v>167.13091922005501</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>961</v>
+        <v>716</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>926</v>
+        <v>604</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I37" s="2">
-        <v>78669</v>
+        <v>78213</v>
       </c>
       <c r="J37" t="s">
-        <v>952</v>
+        <v>708</v>
       </c>
       <c r="K37" t="s">
-        <v>953</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>250000</v>
+        <v>175000</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>2050</v>
+        <v>973</v>
       </c>
       <c r="E38" s="3">
-        <v>121.951219512195</v>
+        <v>179.85611510791301</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>991</v>
+        <v>732</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>992</v>
+        <v>604</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I38" s="2">
-        <v>79109</v>
+        <v>78201</v>
       </c>
       <c r="J38" t="s">
-        <v>983</v>
+        <v>721</v>
       </c>
       <c r="K38" t="s">
-        <v>984</v>
+        <v>722</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>293000</v>
+        <v>815000</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -8020,313 +6278,313 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>3180</v>
+        <v>2824</v>
       </c>
       <c r="E39" s="3">
-        <v>92.138364779874195</v>
+        <v>288.59773371104802</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1009</v>
+        <v>669</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>930</v>
+        <v>639</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I39" s="2">
-        <v>76309</v>
+        <v>78669</v>
       </c>
       <c r="J39" t="s">
-        <v>1002</v>
+        <v>660</v>
       </c>
       <c r="K39" t="s">
-        <v>1003</v>
+        <v>661</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>77940</v>
+        <v>250000</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>1792</v>
+        <v>2050</v>
       </c>
       <c r="E40" s="3">
-        <v>43.493303571428498</v>
+        <v>121.951219512195</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>929</v>
+        <v>699</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>930</v>
+        <v>700</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I40" s="2">
-        <v>76309</v>
+        <v>79109</v>
       </c>
       <c r="J40" t="s">
-        <v>880</v>
+        <v>691</v>
       </c>
       <c r="K40" t="s">
-        <v>881</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>382500</v>
+        <v>293000</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>1506</v>
+        <v>3180</v>
       </c>
       <c r="E41" s="3">
-        <v>253.984063745019</v>
+        <v>92.138364779874195</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>993</v>
+        <v>717</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>893</v>
+        <v>643</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I41" s="2">
-        <v>78729</v>
+        <v>76309</v>
       </c>
       <c r="J41" t="s">
-        <v>985</v>
+        <v>710</v>
       </c>
       <c r="K41" t="s">
-        <v>986</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>309500</v>
+        <v>77940</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>1655</v>
+        <v>1792</v>
       </c>
       <c r="E42" s="3">
-        <v>187.00906344410799</v>
+        <v>43.493303571428498</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1010</v>
+        <v>642</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>891</v>
+        <v>643</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I42" s="2">
-        <v>78228</v>
+        <v>76309</v>
       </c>
       <c r="J42" t="s">
-        <v>1004</v>
+        <v>597</v>
       </c>
       <c r="K42" t="s">
-        <v>1005</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>360000</v>
+        <v>382500</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>1645</v>
+        <v>1506</v>
       </c>
       <c r="E43" s="3">
-        <v>218.84498480243099</v>
+        <v>253.984063745019</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>947</v>
+        <v>701</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>948</v>
+        <v>606</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I43" s="2">
-        <v>78006</v>
+        <v>78729</v>
       </c>
       <c r="J43" t="s">
-        <v>941</v>
+        <v>693</v>
       </c>
       <c r="K43" t="s">
-        <v>942</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>305000</v>
+        <v>309500</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>2643</v>
+        <v>1655</v>
       </c>
       <c r="E44" s="3">
-        <v>115.399167612561</v>
+        <v>187.00906344410799</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>962</v>
+        <v>718</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I44" s="2">
-        <v>78221</v>
+        <v>78228</v>
       </c>
       <c r="J44" t="s">
-        <v>954</v>
+        <v>712</v>
       </c>
       <c r="K44" t="s">
-        <v>955</v>
+        <v>713</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>294900</v>
+        <v>360000</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>1912</v>
+        <v>1645</v>
       </c>
       <c r="E45" s="3">
-        <v>154.23640167363999</v>
+        <v>218.84498480243099</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>994</v>
+        <v>655</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>917</v>
+        <v>656</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I45" s="2">
-        <v>78233</v>
+        <v>78006</v>
       </c>
       <c r="J45" t="s">
-        <v>987</v>
+        <v>649</v>
       </c>
       <c r="K45" t="s">
-        <v>988</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>675000</v>
+        <v>305000</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>2154</v>
+        <v>2643</v>
       </c>
       <c r="E46" s="3">
-        <v>313.37047353760403</v>
+        <v>115.399167612561</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>931</v>
+        <v>670</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>932</v>
+        <v>604</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I46" s="2">
-        <v>78676</v>
+        <v>78221</v>
       </c>
       <c r="J46" t="s">
-        <v>458</v>
+        <v>662</v>
       </c>
       <c r="K46" t="s">
-        <v>882</v>
+        <v>663</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>390000</v>
+        <v>294900</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>2497</v>
+        <v>1912</v>
       </c>
       <c r="E47" s="3">
-        <v>156.18742490989101</v>
+        <v>154.23640167363999</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>933</v>
+        <v>702</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>891</v>
+        <v>630</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I47" s="2">
-        <v>78230</v>
+        <v>78233</v>
       </c>
       <c r="J47" t="s">
-        <v>883</v>
+        <v>695</v>
       </c>
       <c r="K47" t="s">
-        <v>884</v>
+        <v>696</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>379000</v>
+        <v>299000</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -8335,103 +6593,103 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>1972</v>
+        <v>1783</v>
       </c>
       <c r="E48" s="3">
-        <v>192.19066937119601</v>
+        <v>167.694896242288</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>963</v>
+        <v>733</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>891</v>
+        <v>617</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I48" s="2">
-        <v>78259</v>
+        <v>78633</v>
       </c>
       <c r="J48" t="s">
-        <v>956</v>
+        <v>460</v>
       </c>
       <c r="K48" t="s">
-        <v>957</v>
+        <v>723</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>219000</v>
+        <v>390000</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>2018</v>
+        <v>2497</v>
       </c>
       <c r="E49" s="3">
-        <v>108.523290386521</v>
+        <v>156.18742490989101</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>978</v>
+        <v>644</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I49" s="2">
-        <v>78239</v>
+        <v>78230</v>
       </c>
       <c r="J49" t="s">
-        <v>969</v>
+        <v>599</v>
       </c>
       <c r="K49" t="s">
-        <v>970</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>169888</v>
+        <v>379000</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>1148</v>
+        <v>1972</v>
       </c>
       <c r="E50" s="3">
-        <v>147.98606271777001</v>
+        <v>192.19066937119601</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>995</v>
+        <v>671</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>898</v>
+        <v>604</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I50" s="2">
-        <v>79904</v>
+        <v>78259</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
+        <v>664</v>
       </c>
       <c r="K50" t="s">
-        <v>989</v>
+        <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>250000</v>
+        <v>219000</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -8440,138 +6698,138 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>1892</v>
+        <v>2018</v>
       </c>
       <c r="E51" s="3">
-        <v>132.13530655391099</v>
+        <v>108.523290386521</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>934</v>
+        <v>686</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>909</v>
+        <v>604</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I51" s="2">
-        <v>76549</v>
+        <v>78239</v>
       </c>
       <c r="J51" t="s">
-        <v>885</v>
+        <v>677</v>
       </c>
       <c r="K51" t="s">
-        <v>886</v>
+        <v>678</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>200000</v>
+        <v>169888</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>1092</v>
+        <v>1148</v>
       </c>
       <c r="E52" s="3">
-        <v>183.15018315018301</v>
+        <v>147.98606271777001</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>935</v>
+        <v>703</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>936</v>
+        <v>611</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I52" s="2">
-        <v>78640</v>
+        <v>79904</v>
       </c>
       <c r="J52" t="s">
-        <v>458</v>
+        <v>147</v>
       </c>
       <c r="K52" t="s">
-        <v>459</v>
+        <v>697</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>239000</v>
+        <v>224000</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>1653</v>
+        <v>1569</v>
       </c>
       <c r="E53" s="3">
-        <v>144.585601935874</v>
+        <v>142.76609305289901</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>964</v>
+        <v>734</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>891</v>
+        <v>604</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I53" s="2">
-        <v>78222</v>
+        <v>78252</v>
       </c>
       <c r="J53" t="s">
-        <v>958</v>
+        <v>724</v>
       </c>
       <c r="K53" t="s">
-        <v>959</v>
+        <v>725</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>435000</v>
+        <v>200000</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>2137</v>
+        <v>1092</v>
       </c>
       <c r="E54" s="3">
-        <v>203.55638745905401</v>
+        <v>183.15018315018301</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>937</v>
+        <v>645</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>938</v>
+        <v>646</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I54" s="2">
-        <v>76502</v>
+        <v>78640</v>
       </c>
       <c r="J54" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K54" t="s">
-        <v>887</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>345000</v>
+        <v>239000</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -8580,98 +6838,203 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>1748</v>
+        <v>1653</v>
       </c>
       <c r="E55" s="3">
-        <v>197.36842105263099</v>
+        <v>144.585601935874</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>949</v>
+        <v>672</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>950</v>
+        <v>604</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I55" s="2">
-        <v>78133</v>
+        <v>78222</v>
       </c>
       <c r="J55" t="s">
-        <v>943</v>
+        <v>666</v>
       </c>
       <c r="K55" t="s">
-        <v>944</v>
+        <v>667</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>129900</v>
+        <v>349999</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>1500</v>
+        <v>1674</v>
       </c>
       <c r="E56" s="3">
-        <v>86.6</v>
+        <v>209.07945041816001</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>979</v>
+        <v>735</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>980</v>
+        <v>604</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>914</v>
+        <v>627</v>
       </c>
       <c r="I56" s="2">
-        <v>78559</v>
+        <v>78254</v>
       </c>
       <c r="J56" t="s">
-        <v>971</v>
+        <v>726</v>
       </c>
       <c r="K56" t="s">
-        <v>972</v>
+        <v>727</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57">
+        <v>345000</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1748</v>
+      </c>
+      <c r="E57" s="3">
+        <v>197.36842105263099</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I57" s="2">
+        <v>78133</v>
+      </c>
+      <c r="J57" t="s">
+        <v>651</v>
+      </c>
+      <c r="K57" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>129900</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>86.6</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I58" s="2">
+        <v>78559</v>
+      </c>
+      <c r="J58" t="s">
+        <v>679</v>
+      </c>
+      <c r="K58" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59">
         <v>195000</v>
       </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
         <v>2468</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E59" s="3">
         <v>79.011345218800599</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="I57" s="2">
+      <c r="F59" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I59" s="2">
         <v>78245</v>
       </c>
-      <c r="J57" t="s">
-        <v>973</v>
-      </c>
-      <c r="K57" t="s">
-        <v>974</v>
+      <c r="J59" t="s">
+        <v>681</v>
+      </c>
+      <c r="K59" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>175000</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>1952</v>
+      </c>
+      <c r="E60" s="3">
+        <v>89.651639344262193</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I60" s="2">
+        <v>77632</v>
+      </c>
+      <c r="J60" t="s">
+        <v>728</v>
+      </c>
+      <c r="K60" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
